--- a/resources/data/CSV and FAE file guides.xlsx
+++ b/resources/data/CSV and FAE file guides.xlsx
@@ -12,6 +12,7 @@
     <sheet name="BossMonster table" sheetId="3" r:id="rId3"/>
     <sheet name="Items" sheetId="4" r:id="rId4"/>
     <sheet name="FAE Save File Guide" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -1405,18 +1406,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1431,6 +1420,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1794,8 +1795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="F81" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3:V103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1968,49 +1969,49 @@
         <v>1</v>
       </c>
       <c r="H3" s="32">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="I3" s="22">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J3" s="35">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="K3" s="37">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="L3" s="23">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M3" s="39">
+        <v>16</v>
+      </c>
+      <c r="N3" s="41">
         <v>14</v>
-      </c>
-      <c r="N3" s="41">
-        <v>15</v>
       </c>
       <c r="O3" s="15">
         <v>1</v>
       </c>
       <c r="P3" s="32">
+        <v>32</v>
+      </c>
+      <c r="Q3" s="22">
         <v>29</v>
       </c>
-      <c r="Q3" s="22">
-        <v>26</v>
-      </c>
       <c r="R3" s="35">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="S3" s="37">
         <v>15</v>
       </c>
       <c r="T3" s="23">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="U3" s="39">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="V3" s="41">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="W3" s="14" t="s">
         <v>295</v>
@@ -2053,46 +2054,46 @@
       </c>
       <c r="H4" s="33">
         <f>$H$3+($H$3*0.1875)*G4</f>
-        <v>48.125</v>
+        <v>55</v>
       </c>
       <c r="I4" s="34">
         <f>I3+(I3*0.025)</f>
-        <v>20.5</v>
+        <v>25.625</v>
       </c>
       <c r="J4" s="36">
         <f>$J$3+($J$3*0.14)*G4</f>
-        <v>15.36</v>
+        <v>23.04</v>
       </c>
       <c r="K4" s="38">
         <f>$K$3+($K$3*0.12)*G4</f>
-        <v>16.12</v>
+        <v>21.08</v>
       </c>
       <c r="L4" s="31">
         <f>$L$3+($L$3*0.13)*G4</f>
-        <v>23.94</v>
+        <v>28.98</v>
       </c>
       <c r="M4" s="40">
         <f>$M$3+($M$3*0.12)*G4</f>
-        <v>17.36</v>
+        <v>19.84</v>
       </c>
       <c r="N4" s="42">
         <f>$N$3+($N$3*0.1)*G4</f>
-        <v>18</v>
+        <v>16.8</v>
       </c>
       <c r="O4" s="15">
         <v>2</v>
       </c>
       <c r="P4" s="33">
         <f>$P$3+($P$3*0.15)*O4</f>
-        <v>37.700000000000003</v>
+        <v>41.6</v>
       </c>
       <c r="Q4" s="34">
         <f>$Q$3+($Q$3*0.06)*O4</f>
-        <v>29.12</v>
+        <v>32.479999999999997</v>
       </c>
       <c r="R4" s="36">
         <f>$R$3+($R$3*0.14)*O4</f>
-        <v>12.8</v>
+        <v>20.48</v>
       </c>
       <c r="S4" s="38">
         <f>$S$3+($S$3*0.12)*O4</f>
@@ -2100,15 +2101,15 @@
       </c>
       <c r="T4" s="31">
         <f>$T$3+($T$3*0.125)*O4</f>
-        <v>21.25</v>
+        <v>31.25</v>
       </c>
       <c r="U4" s="40">
         <f>$U$3+($U$3*0.09)*O4</f>
-        <v>17.7</v>
+        <v>22.42</v>
       </c>
       <c r="V4" s="42">
         <f>$V$3+($V$3*0.085)*O4</f>
-        <v>19.89</v>
+        <v>18.72</v>
       </c>
       <c r="W4" s="14" t="s">
         <v>294</v>
@@ -2151,46 +2152,46 @@
       </c>
       <c r="H5" s="33">
         <f t="shared" ref="H5:H68" si="4">$H$3+($H$3*0.1875)*G5</f>
-        <v>54.6875</v>
+        <v>62.5</v>
       </c>
       <c r="I5" s="34">
         <f t="shared" ref="I5:I68" si="5">I4+(I4*0.025)</f>
-        <v>21.012499999999999</v>
+        <v>26.265625</v>
       </c>
       <c r="J5" s="36">
         <f t="shared" ref="J5:J68" si="6">$J$3+($J$3*0.14)*G5</f>
-        <v>17.04</v>
+        <v>25.560000000000002</v>
       </c>
       <c r="K5" s="38">
         <f t="shared" ref="K5:K68" si="7">$K$3+($K$3*0.12)*G5</f>
-        <v>17.68</v>
+        <v>23.12</v>
       </c>
       <c r="L5" s="31">
         <f t="shared" ref="L5:L68" si="8">$L$3+($L$3*0.13)*G5</f>
-        <v>26.41</v>
+        <v>31.97</v>
       </c>
       <c r="M5" s="40">
         <f t="shared" ref="M5:M68" si="9">$M$3+($M$3*0.12)*G5</f>
-        <v>19.04</v>
+        <v>21.759999999999998</v>
       </c>
       <c r="N5" s="42">
         <f t="shared" ref="N5:N68" si="10">$N$3+($N$3*0.1)*G5</f>
-        <v>19.5</v>
+        <v>18.2</v>
       </c>
       <c r="O5" s="15">
         <v>3</v>
       </c>
       <c r="P5" s="33">
         <f t="shared" ref="P5:P68" si="11">$P$3+($P$3*0.15)*O5</f>
-        <v>42.05</v>
+        <v>46.4</v>
       </c>
       <c r="Q5" s="34">
         <f t="shared" ref="Q5:Q68" si="12">$Q$3+($Q$3*0.06)*O5</f>
-        <v>30.68</v>
+        <v>34.22</v>
       </c>
       <c r="R5" s="36">
         <f t="shared" ref="R5:R68" si="13">$R$3+($R$3*0.14)*O5</f>
-        <v>14.2</v>
+        <v>22.72</v>
       </c>
       <c r="S5" s="38">
         <f t="shared" ref="S5:S68" si="14">$S$3+($S$3*0.12)*O5</f>
@@ -2198,15 +2199,15 @@
       </c>
       <c r="T5" s="31">
         <f t="shared" ref="T5:T68" si="15">$T$3+($T$3*0.125)*O5</f>
-        <v>23.375</v>
+        <v>34.375</v>
       </c>
       <c r="U5" s="40">
         <f t="shared" ref="U5:U68" si="16">$U$3+($U$3*0.09)*O5</f>
-        <v>19.05</v>
+        <v>24.13</v>
       </c>
       <c r="V5" s="42">
         <f t="shared" ref="V5:V68" si="17">$V$3+($V$3*0.085)*O5</f>
-        <v>21.335000000000001</v>
+        <v>20.079999999999998</v>
       </c>
       <c r="W5" s="15" t="s">
         <v>296</v>
@@ -2249,46 +2250,46 @@
       </c>
       <c r="H6" s="33">
         <f t="shared" si="4"/>
-        <v>61.25</v>
+        <v>70</v>
       </c>
       <c r="I6" s="34">
         <f t="shared" si="5"/>
-        <v>21.537812499999998</v>
+        <v>26.922265625000001</v>
       </c>
       <c r="J6" s="36">
         <f t="shared" si="6"/>
-        <v>18.72</v>
+        <v>28.080000000000002</v>
       </c>
       <c r="K6" s="38">
         <f t="shared" si="7"/>
-        <v>19.240000000000002</v>
+        <v>25.16</v>
       </c>
       <c r="L6" s="31">
         <f t="shared" si="8"/>
-        <v>28.880000000000003</v>
+        <v>34.96</v>
       </c>
       <c r="M6" s="40">
         <f t="shared" si="9"/>
-        <v>20.72</v>
+        <v>23.68</v>
       </c>
       <c r="N6" s="42">
         <f t="shared" si="10"/>
-        <v>21</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="O6" s="15">
         <v>4</v>
       </c>
       <c r="P6" s="33">
         <f t="shared" si="11"/>
-        <v>46.4</v>
+        <v>51.2</v>
       </c>
       <c r="Q6" s="34">
         <f t="shared" si="12"/>
-        <v>32.24</v>
+        <v>35.96</v>
       </c>
       <c r="R6" s="36">
         <f t="shared" si="13"/>
-        <v>15.600000000000001</v>
+        <v>24.96</v>
       </c>
       <c r="S6" s="38">
         <f t="shared" si="14"/>
@@ -2296,15 +2297,15 @@
       </c>
       <c r="T6" s="31">
         <f t="shared" si="15"/>
-        <v>25.5</v>
+        <v>37.5</v>
       </c>
       <c r="U6" s="40">
         <f t="shared" si="16"/>
-        <v>20.399999999999999</v>
+        <v>25.84</v>
       </c>
       <c r="V6" s="42">
         <f t="shared" si="17"/>
-        <v>22.78</v>
+        <v>21.44</v>
       </c>
       <c r="W6" s="15" t="s">
         <v>298</v>
@@ -2347,46 +2348,46 @@
       </c>
       <c r="H7" s="33">
         <f t="shared" si="4"/>
-        <v>67.8125</v>
+        <v>77.5</v>
       </c>
       <c r="I7" s="34">
         <f t="shared" si="5"/>
-        <v>22.076257812499996</v>
+        <v>27.595322265625001</v>
       </c>
       <c r="J7" s="36">
         <f t="shared" si="6"/>
-        <v>20.399999999999999</v>
+        <v>30.6</v>
       </c>
       <c r="K7" s="38">
         <f t="shared" si="7"/>
-        <v>20.8</v>
+        <v>27.2</v>
       </c>
       <c r="L7" s="31">
         <f t="shared" si="8"/>
-        <v>31.35</v>
+        <v>37.950000000000003</v>
       </c>
       <c r="M7" s="40">
         <f t="shared" si="9"/>
-        <v>22.4</v>
+        <v>25.6</v>
       </c>
       <c r="N7" s="42">
         <f t="shared" si="10"/>
-        <v>22.5</v>
+        <v>21</v>
       </c>
       <c r="O7" s="15">
         <v>5</v>
       </c>
       <c r="P7" s="33">
         <f t="shared" si="11"/>
-        <v>50.75</v>
+        <v>56</v>
       </c>
       <c r="Q7" s="34">
         <f t="shared" si="12"/>
-        <v>33.799999999999997</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="R7" s="36">
         <f t="shared" si="13"/>
-        <v>17</v>
+        <v>27.200000000000003</v>
       </c>
       <c r="S7" s="38">
         <f t="shared" si="14"/>
@@ -2394,15 +2395,15 @@
       </c>
       <c r="T7" s="31">
         <f t="shared" si="15"/>
-        <v>27.625</v>
+        <v>40.625</v>
       </c>
       <c r="U7" s="40">
         <f t="shared" si="16"/>
-        <v>21.75</v>
+        <v>27.55</v>
       </c>
       <c r="V7" s="42">
         <f t="shared" si="17"/>
-        <v>24.225000000000001</v>
+        <v>22.8</v>
       </c>
       <c r="W7" s="15" t="s">
         <v>297</v>
@@ -2445,46 +2446,46 @@
       </c>
       <c r="H8" s="33">
         <f t="shared" si="4"/>
-        <v>74.375</v>
+        <v>85</v>
       </c>
       <c r="I8" s="34">
         <f t="shared" si="5"/>
-        <v>22.628164257812497</v>
+        <v>28.285205322265625</v>
       </c>
       <c r="J8" s="36">
         <f t="shared" si="6"/>
-        <v>22.080000000000002</v>
+        <v>33.120000000000005</v>
       </c>
       <c r="K8" s="38">
         <f t="shared" si="7"/>
-        <v>22.36</v>
+        <v>29.240000000000002</v>
       </c>
       <c r="L8" s="31">
         <f t="shared" si="8"/>
-        <v>33.82</v>
+        <v>40.94</v>
       </c>
       <c r="M8" s="40">
         <f t="shared" si="9"/>
-        <v>24.08</v>
+        <v>27.52</v>
       </c>
       <c r="N8" s="42">
         <f t="shared" si="10"/>
-        <v>24</v>
+        <v>22.4</v>
       </c>
       <c r="O8" s="15">
         <v>6</v>
       </c>
       <c r="P8" s="33">
         <f t="shared" si="11"/>
-        <v>55.099999999999994</v>
+        <v>60.8</v>
       </c>
       <c r="Q8" s="34">
         <f t="shared" si="12"/>
-        <v>35.36</v>
+        <v>39.44</v>
       </c>
       <c r="R8" s="36">
         <f t="shared" si="13"/>
-        <v>18.399999999999999</v>
+        <v>29.44</v>
       </c>
       <c r="S8" s="38">
         <f t="shared" si="14"/>
@@ -2492,15 +2493,15 @@
       </c>
       <c r="T8" s="31">
         <f t="shared" si="15"/>
-        <v>29.75</v>
+        <v>43.75</v>
       </c>
       <c r="U8" s="40">
         <f t="shared" si="16"/>
-        <v>23.1</v>
+        <v>29.259999999999998</v>
       </c>
       <c r="V8" s="42">
         <f t="shared" si="17"/>
-        <v>25.67</v>
+        <v>24.16</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.3">
@@ -2531,46 +2532,46 @@
       </c>
       <c r="H9" s="33">
         <f t="shared" si="4"/>
-        <v>80.9375</v>
+        <v>92.5</v>
       </c>
       <c r="I9" s="34">
         <f t="shared" si="5"/>
-        <v>23.19386836425781</v>
+        <v>28.992335455322266</v>
       </c>
       <c r="J9" s="36">
         <f t="shared" si="6"/>
-        <v>23.76</v>
+        <v>35.64</v>
       </c>
       <c r="K9" s="38">
         <f t="shared" si="7"/>
-        <v>23.92</v>
+        <v>31.28</v>
       </c>
       <c r="L9" s="31">
         <f t="shared" si="8"/>
-        <v>36.290000000000006</v>
+        <v>43.93</v>
       </c>
       <c r="M9" s="40">
         <f t="shared" si="9"/>
-        <v>25.759999999999998</v>
+        <v>29.439999999999998</v>
       </c>
       <c r="N9" s="42">
         <f t="shared" si="10"/>
-        <v>25.5</v>
+        <v>23.8</v>
       </c>
       <c r="O9" s="15">
         <v>7</v>
       </c>
       <c r="P9" s="33">
         <f t="shared" si="11"/>
-        <v>59.449999999999996</v>
+        <v>65.599999999999994</v>
       </c>
       <c r="Q9" s="34">
         <f t="shared" si="12"/>
-        <v>36.92</v>
+        <v>41.18</v>
       </c>
       <c r="R9" s="36">
         <f t="shared" si="13"/>
-        <v>19.8</v>
+        <v>31.68</v>
       </c>
       <c r="S9" s="38">
         <f t="shared" si="14"/>
@@ -2578,15 +2579,15 @@
       </c>
       <c r="T9" s="31">
         <f t="shared" si="15"/>
-        <v>31.875</v>
+        <v>46.875</v>
       </c>
       <c r="U9" s="40">
         <f t="shared" si="16"/>
-        <v>24.45</v>
+        <v>30.97</v>
       </c>
       <c r="V9" s="42">
         <f t="shared" si="17"/>
-        <v>27.115000000000002</v>
+        <v>25.520000000000003</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.3">
@@ -2617,46 +2618,46 @@
       </c>
       <c r="H10" s="33">
         <f t="shared" si="4"/>
-        <v>87.5</v>
+        <v>100</v>
       </c>
       <c r="I10" s="34">
         <f t="shared" si="5"/>
-        <v>23.773715073364254</v>
+        <v>29.717143841705322</v>
       </c>
       <c r="J10" s="36">
         <f t="shared" si="6"/>
-        <v>25.44</v>
+        <v>38.160000000000004</v>
       </c>
       <c r="K10" s="38">
         <f t="shared" si="7"/>
-        <v>25.48</v>
+        <v>33.32</v>
       </c>
       <c r="L10" s="31">
         <f t="shared" si="8"/>
-        <v>38.760000000000005</v>
+        <v>46.92</v>
       </c>
       <c r="M10" s="40">
         <f t="shared" si="9"/>
-        <v>27.439999999999998</v>
+        <v>31.36</v>
       </c>
       <c r="N10" s="42">
         <f t="shared" si="10"/>
-        <v>27</v>
+        <v>25.200000000000003</v>
       </c>
       <c r="O10" s="15">
         <v>8</v>
       </c>
       <c r="P10" s="33">
         <f t="shared" si="11"/>
-        <v>63.8</v>
+        <v>70.400000000000006</v>
       </c>
       <c r="Q10" s="34">
         <f t="shared" si="12"/>
-        <v>38.480000000000004</v>
+        <v>42.92</v>
       </c>
       <c r="R10" s="36">
         <f t="shared" si="13"/>
-        <v>21.200000000000003</v>
+        <v>33.92</v>
       </c>
       <c r="S10" s="38">
         <f t="shared" si="14"/>
@@ -2664,15 +2665,15 @@
       </c>
       <c r="T10" s="31">
         <f t="shared" si="15"/>
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="U10" s="40">
         <f t="shared" si="16"/>
-        <v>25.799999999999997</v>
+        <v>32.68</v>
       </c>
       <c r="V10" s="42">
         <f t="shared" si="17"/>
-        <v>28.560000000000002</v>
+        <v>26.880000000000003</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.3">
@@ -2703,46 +2704,46 @@
       </c>
       <c r="H11" s="33">
         <f t="shared" si="4"/>
-        <v>94.0625</v>
+        <v>107.5</v>
       </c>
       <c r="I11" s="34">
         <f t="shared" si="5"/>
-        <v>24.368057950198359</v>
+        <v>30.460072437747954</v>
       </c>
       <c r="J11" s="36">
         <f t="shared" si="6"/>
-        <v>27.12</v>
+        <v>40.680000000000007</v>
       </c>
       <c r="K11" s="38">
         <f t="shared" si="7"/>
-        <v>27.04</v>
+        <v>35.36</v>
       </c>
       <c r="L11" s="31">
         <f t="shared" si="8"/>
-        <v>41.230000000000004</v>
+        <v>49.910000000000004</v>
       </c>
       <c r="M11" s="40">
         <f t="shared" si="9"/>
-        <v>29.119999999999997</v>
+        <v>33.28</v>
       </c>
       <c r="N11" s="42">
         <f t="shared" si="10"/>
-        <v>28.5</v>
+        <v>26.6</v>
       </c>
       <c r="O11" s="15">
         <v>9</v>
       </c>
       <c r="P11" s="33">
         <f t="shared" si="11"/>
-        <v>68.150000000000006</v>
+        <v>75.199999999999989</v>
       </c>
       <c r="Q11" s="34">
         <f t="shared" si="12"/>
-        <v>40.04</v>
+        <v>44.66</v>
       </c>
       <c r="R11" s="36">
         <f t="shared" si="13"/>
-        <v>22.6</v>
+        <v>36.160000000000004</v>
       </c>
       <c r="S11" s="38">
         <f t="shared" si="14"/>
@@ -2750,15 +2751,15 @@
       </c>
       <c r="T11" s="31">
         <f t="shared" si="15"/>
-        <v>36.125</v>
+        <v>53.125</v>
       </c>
       <c r="U11" s="40">
         <f t="shared" si="16"/>
-        <v>27.15</v>
+        <v>34.39</v>
       </c>
       <c r="V11" s="42">
         <f t="shared" si="17"/>
-        <v>30.005000000000003</v>
+        <v>28.240000000000002</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.3">
@@ -2789,46 +2790,46 @@
       </c>
       <c r="H12" s="33">
         <f t="shared" si="4"/>
-        <v>100.625</v>
+        <v>115</v>
       </c>
       <c r="I12" s="34">
         <f t="shared" si="5"/>
-        <v>24.977259398953318</v>
+        <v>31.221574248691653</v>
       </c>
       <c r="J12" s="36">
         <f t="shared" si="6"/>
-        <v>28.8</v>
+        <v>43.2</v>
       </c>
       <c r="K12" s="38">
         <f t="shared" si="7"/>
-        <v>28.6</v>
+        <v>37.4</v>
       </c>
       <c r="L12" s="31">
         <f t="shared" si="8"/>
-        <v>43.7</v>
+        <v>52.900000000000006</v>
       </c>
       <c r="M12" s="40">
         <f t="shared" si="9"/>
-        <v>30.8</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="N12" s="42">
         <f t="shared" si="10"/>
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O12" s="15">
         <v>10</v>
       </c>
       <c r="P12" s="33">
         <f t="shared" si="11"/>
-        <v>72.5</v>
+        <v>80</v>
       </c>
       <c r="Q12" s="34">
         <f t="shared" si="12"/>
-        <v>41.6</v>
+        <v>46.4</v>
       </c>
       <c r="R12" s="36">
         <f t="shared" si="13"/>
-        <v>24</v>
+        <v>38.400000000000006</v>
       </c>
       <c r="S12" s="38">
         <f t="shared" si="14"/>
@@ -2836,15 +2837,15 @@
       </c>
       <c r="T12" s="31">
         <f t="shared" si="15"/>
-        <v>38.25</v>
+        <v>56.25</v>
       </c>
       <c r="U12" s="40">
         <f t="shared" si="16"/>
-        <v>28.5</v>
+        <v>36.1</v>
       </c>
       <c r="V12" s="42">
         <f t="shared" si="17"/>
-        <v>31.450000000000003</v>
+        <v>29.6</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.3">
@@ -2875,46 +2876,46 @@
       </c>
       <c r="H13" s="33">
         <f t="shared" si="4"/>
-        <v>107.1875</v>
+        <v>122.5</v>
       </c>
       <c r="I13" s="34">
         <f t="shared" si="5"/>
-        <v>25.601690883927152</v>
+        <v>32.002113604908942</v>
       </c>
       <c r="J13" s="36">
         <f t="shared" si="6"/>
-        <v>30.48</v>
+        <v>45.720000000000006</v>
       </c>
       <c r="K13" s="38">
         <f t="shared" si="7"/>
-        <v>30.16</v>
+        <v>39.44</v>
       </c>
       <c r="L13" s="31">
         <f t="shared" si="8"/>
-        <v>46.17</v>
+        <v>55.89</v>
       </c>
       <c r="M13" s="40">
         <f t="shared" si="9"/>
-        <v>32.480000000000004</v>
+        <v>37.119999999999997</v>
       </c>
       <c r="N13" s="42">
         <f t="shared" si="10"/>
-        <v>31.5</v>
+        <v>29.400000000000002</v>
       </c>
       <c r="O13" s="15">
         <v>11</v>
       </c>
       <c r="P13" s="33">
         <f t="shared" si="11"/>
-        <v>76.849999999999994</v>
+        <v>84.8</v>
       </c>
       <c r="Q13" s="34">
         <f t="shared" si="12"/>
-        <v>43.16</v>
+        <v>48.14</v>
       </c>
       <c r="R13" s="36">
         <f t="shared" si="13"/>
-        <v>25.400000000000002</v>
+        <v>40.64</v>
       </c>
       <c r="S13" s="38">
         <f t="shared" si="14"/>
@@ -2922,15 +2923,15 @@
       </c>
       <c r="T13" s="31">
         <f t="shared" si="15"/>
-        <v>40.375</v>
+        <v>59.375</v>
       </c>
       <c r="U13" s="40">
         <f t="shared" si="16"/>
-        <v>29.849999999999998</v>
+        <v>37.81</v>
       </c>
       <c r="V13" s="42">
         <f t="shared" si="17"/>
-        <v>32.895000000000003</v>
+        <v>30.96</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.3">
@@ -2961,46 +2962,46 @@
       </c>
       <c r="H14" s="33">
         <f t="shared" si="4"/>
-        <v>113.75</v>
+        <v>130</v>
       </c>
       <c r="I14" s="34">
         <f t="shared" si="5"/>
-        <v>26.24173315602533</v>
+        <v>32.802166445031666</v>
       </c>
       <c r="J14" s="36">
         <f t="shared" si="6"/>
-        <v>32.160000000000004</v>
+        <v>48.240000000000009</v>
       </c>
       <c r="K14" s="38">
         <f t="shared" si="7"/>
-        <v>31.72</v>
+        <v>41.480000000000004</v>
       </c>
       <c r="L14" s="31">
         <f t="shared" si="8"/>
-        <v>48.64</v>
+        <v>58.88</v>
       </c>
       <c r="M14" s="40">
         <f t="shared" si="9"/>
-        <v>34.159999999999997</v>
+        <v>39.04</v>
       </c>
       <c r="N14" s="42">
         <f t="shared" si="10"/>
-        <v>33</v>
+        <v>30.8</v>
       </c>
       <c r="O14" s="15">
         <v>12</v>
       </c>
       <c r="P14" s="33">
         <f t="shared" si="11"/>
-        <v>81.199999999999989</v>
+        <v>89.6</v>
       </c>
       <c r="Q14" s="34">
         <f t="shared" si="12"/>
-        <v>44.72</v>
+        <v>49.879999999999995</v>
       </c>
       <c r="R14" s="36">
         <f t="shared" si="13"/>
-        <v>26.8</v>
+        <v>42.88</v>
       </c>
       <c r="S14" s="38">
         <f t="shared" si="14"/>
@@ -3008,15 +3009,15 @@
       </c>
       <c r="T14" s="31">
         <f t="shared" si="15"/>
-        <v>42.5</v>
+        <v>62.5</v>
       </c>
       <c r="U14" s="40">
         <f t="shared" si="16"/>
-        <v>31.2</v>
+        <v>39.519999999999996</v>
       </c>
       <c r="V14" s="42">
         <f t="shared" si="17"/>
-        <v>34.340000000000003</v>
+        <v>32.32</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.3">
@@ -3047,46 +3048,46 @@
       </c>
       <c r="H15" s="33">
         <f t="shared" si="4"/>
-        <v>120.3125</v>
+        <v>137.5</v>
       </c>
       <c r="I15" s="34">
         <f t="shared" si="5"/>
-        <v>26.897776484925963</v>
+        <v>33.622220606157455</v>
       </c>
       <c r="J15" s="36">
         <f t="shared" si="6"/>
-        <v>33.840000000000003</v>
+        <v>50.760000000000005</v>
       </c>
       <c r="K15" s="38">
         <f t="shared" si="7"/>
-        <v>33.28</v>
+        <v>43.519999999999996</v>
       </c>
       <c r="L15" s="31">
         <f t="shared" si="8"/>
-        <v>51.11</v>
+        <v>61.870000000000005</v>
       </c>
       <c r="M15" s="40">
         <f t="shared" si="9"/>
-        <v>35.840000000000003</v>
+        <v>40.96</v>
       </c>
       <c r="N15" s="42">
         <f t="shared" si="10"/>
-        <v>34.5</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="O15" s="15">
         <v>13</v>
       </c>
       <c r="P15" s="33">
         <f t="shared" si="11"/>
-        <v>85.55</v>
+        <v>94.4</v>
       </c>
       <c r="Q15" s="34">
         <f t="shared" si="12"/>
-        <v>46.28</v>
+        <v>51.620000000000005</v>
       </c>
       <c r="R15" s="36">
         <f t="shared" si="13"/>
-        <v>28.200000000000003</v>
+        <v>45.120000000000005</v>
       </c>
       <c r="S15" s="38">
         <f t="shared" si="14"/>
@@ -3094,15 +3095,15 @@
       </c>
       <c r="T15" s="31">
         <f t="shared" si="15"/>
-        <v>44.625</v>
+        <v>65.625</v>
       </c>
       <c r="U15" s="40">
         <f t="shared" si="16"/>
-        <v>32.549999999999997</v>
+        <v>41.230000000000004</v>
       </c>
       <c r="V15" s="42">
         <f t="shared" si="17"/>
-        <v>35.784999999999997</v>
+        <v>33.68</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.3">
@@ -3133,46 +3134,46 @@
       </c>
       <c r="H16" s="33">
         <f t="shared" si="4"/>
-        <v>126.875</v>
+        <v>145</v>
       </c>
       <c r="I16" s="34">
         <f t="shared" si="5"/>
-        <v>27.570220897049111</v>
+        <v>34.462776121311393</v>
       </c>
       <c r="J16" s="36">
         <f t="shared" si="6"/>
-        <v>35.520000000000003</v>
+        <v>53.280000000000008</v>
       </c>
       <c r="K16" s="38">
         <f t="shared" si="7"/>
-        <v>34.840000000000003</v>
+        <v>45.56</v>
       </c>
       <c r="L16" s="31">
         <f t="shared" si="8"/>
-        <v>53.580000000000005</v>
+        <v>64.86</v>
       </c>
       <c r="M16" s="40">
         <f t="shared" si="9"/>
-        <v>37.519999999999996</v>
+        <v>42.879999999999995</v>
       </c>
       <c r="N16" s="42">
         <f t="shared" si="10"/>
-        <v>36</v>
+        <v>33.6</v>
       </c>
       <c r="O16" s="15">
         <v>14</v>
       </c>
       <c r="P16" s="33">
         <f t="shared" si="11"/>
-        <v>89.899999999999991</v>
+        <v>99.2</v>
       </c>
       <c r="Q16" s="34">
         <f t="shared" si="12"/>
-        <v>47.84</v>
+        <v>53.36</v>
       </c>
       <c r="R16" s="36">
         <f t="shared" si="13"/>
-        <v>29.6</v>
+        <v>47.36</v>
       </c>
       <c r="S16" s="38">
         <f t="shared" si="14"/>
@@ -3180,15 +3181,15 @@
       </c>
       <c r="T16" s="31">
         <f t="shared" si="15"/>
-        <v>46.75</v>
+        <v>68.75</v>
       </c>
       <c r="U16" s="40">
         <f t="shared" si="16"/>
-        <v>33.9</v>
+        <v>42.94</v>
       </c>
       <c r="V16" s="42">
         <f t="shared" si="17"/>
-        <v>37.230000000000004</v>
+        <v>35.040000000000006</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.3">
@@ -3219,46 +3220,46 @@
       </c>
       <c r="H17" s="33">
         <f t="shared" si="4"/>
-        <v>133.4375</v>
+        <v>152.5</v>
       </c>
       <c r="I17" s="34">
         <f t="shared" si="5"/>
-        <v>28.259476419475341</v>
+        <v>35.324345524344174</v>
       </c>
       <c r="J17" s="36">
         <f t="shared" si="6"/>
-        <v>37.200000000000003</v>
+        <v>55.800000000000004</v>
       </c>
       <c r="K17" s="38">
         <f t="shared" si="7"/>
-        <v>36.400000000000006</v>
+        <v>47.6</v>
       </c>
       <c r="L17" s="31">
         <f t="shared" si="8"/>
-        <v>56.050000000000004</v>
+        <v>67.849999999999994</v>
       </c>
       <c r="M17" s="40">
         <f t="shared" si="9"/>
-        <v>39.200000000000003</v>
+        <v>44.8</v>
       </c>
       <c r="N17" s="42">
         <f t="shared" si="10"/>
-        <v>37.5</v>
+        <v>35</v>
       </c>
       <c r="O17" s="15">
         <v>15</v>
       </c>
       <c r="P17" s="33">
         <f t="shared" si="11"/>
-        <v>94.25</v>
+        <v>104</v>
       </c>
       <c r="Q17" s="34">
         <f t="shared" si="12"/>
-        <v>49.400000000000006</v>
+        <v>55.1</v>
       </c>
       <c r="R17" s="36">
         <f t="shared" si="13"/>
-        <v>31.000000000000004</v>
+        <v>49.6</v>
       </c>
       <c r="S17" s="38">
         <f t="shared" si="14"/>
@@ -3266,15 +3267,15 @@
       </c>
       <c r="T17" s="31">
         <f t="shared" si="15"/>
-        <v>48.875</v>
+        <v>71.875</v>
       </c>
       <c r="U17" s="40">
         <f t="shared" si="16"/>
-        <v>35.25</v>
+        <v>44.65</v>
       </c>
       <c r="V17" s="42">
         <f t="shared" si="17"/>
-        <v>38.674999999999997</v>
+        <v>36.400000000000006</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.3">
@@ -3305,46 +3306,46 @@
       </c>
       <c r="H18" s="33">
         <f t="shared" si="4"/>
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="I18" s="34">
         <f t="shared" si="5"/>
-        <v>28.965963329962225</v>
+        <v>36.207454162452777</v>
       </c>
       <c r="J18" s="36">
         <f t="shared" si="6"/>
-        <v>38.880000000000003</v>
+        <v>58.320000000000007</v>
       </c>
       <c r="K18" s="38">
         <f t="shared" si="7"/>
-        <v>37.96</v>
+        <v>49.64</v>
       </c>
       <c r="L18" s="31">
         <f t="shared" si="8"/>
-        <v>58.52</v>
+        <v>70.84</v>
       </c>
       <c r="M18" s="40">
         <f t="shared" si="9"/>
-        <v>40.879999999999995</v>
+        <v>46.72</v>
       </c>
       <c r="N18" s="42">
         <f t="shared" si="10"/>
-        <v>39</v>
+        <v>36.400000000000006</v>
       </c>
       <c r="O18" s="15">
         <v>16</v>
       </c>
       <c r="P18" s="33">
         <f t="shared" si="11"/>
-        <v>98.6</v>
+        <v>108.8</v>
       </c>
       <c r="Q18" s="34">
         <f t="shared" si="12"/>
-        <v>50.96</v>
+        <v>56.84</v>
       </c>
       <c r="R18" s="36">
         <f t="shared" si="13"/>
-        <v>32.400000000000006</v>
+        <v>51.84</v>
       </c>
       <c r="S18" s="38">
         <f t="shared" si="14"/>
@@ -3352,15 +3353,15 @@
       </c>
       <c r="T18" s="31">
         <f t="shared" si="15"/>
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="U18" s="40">
         <f t="shared" si="16"/>
-        <v>36.599999999999994</v>
+        <v>46.36</v>
       </c>
       <c r="V18" s="42">
         <f t="shared" si="17"/>
-        <v>40.120000000000005</v>
+        <v>37.760000000000005</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.3">
@@ -3391,46 +3392,46 @@
       </c>
       <c r="H19" s="33">
         <f t="shared" si="4"/>
-        <v>146.5625</v>
+        <v>167.5</v>
       </c>
       <c r="I19" s="34">
         <f t="shared" si="5"/>
-        <v>29.690112413211281</v>
+        <v>37.112640516514098</v>
       </c>
       <c r="J19" s="36">
         <f t="shared" si="6"/>
-        <v>40.56</v>
+        <v>60.840000000000011</v>
       </c>
       <c r="K19" s="38">
         <f t="shared" si="7"/>
-        <v>39.519999999999996</v>
+        <v>51.68</v>
       </c>
       <c r="L19" s="31">
         <f t="shared" si="8"/>
-        <v>60.99</v>
+        <v>73.830000000000013</v>
       </c>
       <c r="M19" s="40">
         <f t="shared" si="9"/>
-        <v>42.56</v>
+        <v>48.64</v>
       </c>
       <c r="N19" s="42">
         <f t="shared" si="10"/>
-        <v>40.5</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="O19" s="15">
         <v>17</v>
       </c>
       <c r="P19" s="33">
         <f t="shared" si="11"/>
-        <v>102.94999999999999</v>
+        <v>113.6</v>
       </c>
       <c r="Q19" s="34">
         <f t="shared" si="12"/>
-        <v>52.519999999999996</v>
+        <v>58.58</v>
       </c>
       <c r="R19" s="36">
         <f t="shared" si="13"/>
-        <v>33.799999999999997</v>
+        <v>54.080000000000005</v>
       </c>
       <c r="S19" s="38">
         <f t="shared" si="14"/>
@@ -3438,15 +3439,15 @@
       </c>
       <c r="T19" s="31">
         <f t="shared" si="15"/>
-        <v>53.125</v>
+        <v>78.125</v>
       </c>
       <c r="U19" s="40">
         <f t="shared" si="16"/>
-        <v>37.950000000000003</v>
+        <v>48.07</v>
       </c>
       <c r="V19" s="42">
         <f t="shared" si="17"/>
-        <v>41.564999999999998</v>
+        <v>39.120000000000005</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.3">
@@ -3477,46 +3478,46 @@
       </c>
       <c r="H20" s="33">
         <f t="shared" si="4"/>
-        <v>153.125</v>
+        <v>175</v>
       </c>
       <c r="I20" s="34">
         <f t="shared" si="5"/>
-        <v>30.432365223541563</v>
+        <v>38.040456529426947</v>
       </c>
       <c r="J20" s="36">
         <f t="shared" si="6"/>
-        <v>42.24</v>
+        <v>63.360000000000007</v>
       </c>
       <c r="K20" s="38">
         <f t="shared" si="7"/>
-        <v>41.08</v>
+        <v>53.72</v>
       </c>
       <c r="L20" s="31">
         <f t="shared" si="8"/>
-        <v>63.46</v>
+        <v>76.820000000000007</v>
       </c>
       <c r="M20" s="40">
         <f t="shared" si="9"/>
-        <v>44.239999999999995</v>
+        <v>50.56</v>
       </c>
       <c r="N20" s="42">
         <f t="shared" si="10"/>
-        <v>42</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="O20" s="15">
         <v>18</v>
       </c>
       <c r="P20" s="33">
         <f t="shared" si="11"/>
-        <v>107.3</v>
+        <v>118.39999999999999</v>
       </c>
       <c r="Q20" s="34">
         <f t="shared" si="12"/>
-        <v>54.08</v>
+        <v>60.32</v>
       </c>
       <c r="R20" s="36">
         <f t="shared" si="13"/>
-        <v>35.200000000000003</v>
+        <v>56.320000000000007</v>
       </c>
       <c r="S20" s="38">
         <f t="shared" si="14"/>
@@ -3524,15 +3525,15 @@
       </c>
       <c r="T20" s="31">
         <f t="shared" si="15"/>
-        <v>55.25</v>
+        <v>81.25</v>
       </c>
       <c r="U20" s="40">
         <f t="shared" si="16"/>
-        <v>39.299999999999997</v>
+        <v>49.78</v>
       </c>
       <c r="V20" s="42">
         <f t="shared" si="17"/>
-        <v>43.010000000000005</v>
+        <v>40.480000000000004</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.3">
@@ -3563,46 +3564,46 @@
       </c>
       <c r="H21" s="33">
         <f t="shared" si="4"/>
-        <v>159.6875</v>
+        <v>182.5</v>
       </c>
       <c r="I21" s="34">
         <f t="shared" si="5"/>
-        <v>31.1931743541301</v>
+        <v>38.991467942662624</v>
       </c>
       <c r="J21" s="36">
         <f t="shared" si="6"/>
-        <v>43.92</v>
+        <v>65.88000000000001</v>
       </c>
       <c r="K21" s="38">
         <f t="shared" si="7"/>
-        <v>42.64</v>
+        <v>55.76</v>
       </c>
       <c r="L21" s="31">
         <f t="shared" si="8"/>
-        <v>65.930000000000007</v>
+        <v>79.81</v>
       </c>
       <c r="M21" s="40">
         <f t="shared" si="9"/>
-        <v>45.92</v>
+        <v>52.48</v>
       </c>
       <c r="N21" s="42">
         <f t="shared" si="10"/>
-        <v>43.5</v>
+        <v>40.6</v>
       </c>
       <c r="O21" s="15">
         <v>19</v>
       </c>
       <c r="P21" s="33">
         <f t="shared" si="11"/>
-        <v>111.64999999999999</v>
+        <v>123.2</v>
       </c>
       <c r="Q21" s="34">
         <f t="shared" si="12"/>
-        <v>55.64</v>
+        <v>62.06</v>
       </c>
       <c r="R21" s="36">
         <f t="shared" si="13"/>
-        <v>36.6</v>
+        <v>58.56</v>
       </c>
       <c r="S21" s="38">
         <f t="shared" si="14"/>
@@ -3610,15 +3611,15 @@
       </c>
       <c r="T21" s="31">
         <f t="shared" si="15"/>
-        <v>57.375</v>
+        <v>84.375</v>
       </c>
       <c r="U21" s="40">
         <f t="shared" si="16"/>
-        <v>40.65</v>
+        <v>51.49</v>
       </c>
       <c r="V21" s="42">
         <f t="shared" si="17"/>
-        <v>44.454999999999998</v>
+        <v>41.84</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.3">
@@ -3649,46 +3650,46 @@
       </c>
       <c r="H22" s="33">
         <f t="shared" si="4"/>
-        <v>166.25</v>
+        <v>190</v>
       </c>
       <c r="I22" s="34">
         <f t="shared" si="5"/>
-        <v>31.973003712983353</v>
+        <v>39.966254641229192</v>
       </c>
       <c r="J22" s="36">
         <f t="shared" si="6"/>
-        <v>45.6</v>
+        <v>68.400000000000006</v>
       </c>
       <c r="K22" s="38">
         <f t="shared" si="7"/>
-        <v>44.2</v>
+        <v>57.8</v>
       </c>
       <c r="L22" s="31">
         <f t="shared" si="8"/>
-        <v>68.400000000000006</v>
+        <v>82.800000000000011</v>
       </c>
       <c r="M22" s="40">
         <f t="shared" si="9"/>
-        <v>47.6</v>
+        <v>54.4</v>
       </c>
       <c r="N22" s="42">
         <f t="shared" si="10"/>
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="O22" s="15">
         <v>20</v>
       </c>
       <c r="P22" s="33">
         <f t="shared" si="11"/>
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="Q22" s="34">
         <f t="shared" si="12"/>
-        <v>57.2</v>
+        <v>63.8</v>
       </c>
       <c r="R22" s="36">
         <f t="shared" si="13"/>
-        <v>38</v>
+        <v>60.800000000000004</v>
       </c>
       <c r="S22" s="38">
         <f t="shared" si="14"/>
@@ -3696,15 +3697,15 @@
       </c>
       <c r="T22" s="31">
         <f t="shared" si="15"/>
-        <v>59.5</v>
+        <v>87.5</v>
       </c>
       <c r="U22" s="40">
         <f t="shared" si="16"/>
-        <v>42</v>
+        <v>53.2</v>
       </c>
       <c r="V22" s="42">
         <f t="shared" si="17"/>
-        <v>45.900000000000006</v>
+        <v>43.2</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.3">
@@ -3735,46 +3736,46 @@
       </c>
       <c r="H23" s="33">
         <f t="shared" si="4"/>
-        <v>172.8125</v>
+        <v>197.5</v>
       </c>
       <c r="I23" s="34">
         <f t="shared" si="5"/>
-        <v>32.772328805807938</v>
+        <v>40.965411007259924</v>
       </c>
       <c r="J23" s="36">
         <f t="shared" si="6"/>
-        <v>47.28</v>
+        <v>70.920000000000016</v>
       </c>
       <c r="K23" s="38">
         <f t="shared" si="7"/>
-        <v>45.76</v>
+        <v>59.84</v>
       </c>
       <c r="L23" s="31">
         <f t="shared" si="8"/>
-        <v>70.87</v>
+        <v>85.79</v>
       </c>
       <c r="M23" s="40">
         <f t="shared" si="9"/>
-        <v>49.28</v>
+        <v>56.32</v>
       </c>
       <c r="N23" s="42">
         <f t="shared" si="10"/>
-        <v>46.5</v>
+        <v>43.400000000000006</v>
       </c>
       <c r="O23" s="15">
         <v>21</v>
       </c>
       <c r="P23" s="33">
         <f t="shared" si="11"/>
-        <v>120.35</v>
+        <v>132.80000000000001</v>
       </c>
       <c r="Q23" s="34">
         <f t="shared" si="12"/>
-        <v>58.76</v>
+        <v>65.539999999999992</v>
       </c>
       <c r="R23" s="36">
         <f t="shared" si="13"/>
-        <v>39.400000000000006</v>
+        <v>63.040000000000006</v>
       </c>
       <c r="S23" s="38">
         <f t="shared" si="14"/>
@@ -3782,15 +3783,15 @@
       </c>
       <c r="T23" s="31">
         <f t="shared" si="15"/>
-        <v>61.625</v>
+        <v>90.625</v>
       </c>
       <c r="U23" s="40">
         <f t="shared" si="16"/>
-        <v>43.349999999999994</v>
+        <v>54.91</v>
       </c>
       <c r="V23" s="42">
         <f t="shared" si="17"/>
-        <v>47.344999999999999</v>
+        <v>44.56</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.3">
@@ -3821,46 +3822,46 @@
       </c>
       <c r="H24" s="33">
         <f t="shared" si="4"/>
-        <v>179.375</v>
+        <v>205</v>
       </c>
       <c r="I24" s="34">
         <f t="shared" si="5"/>
-        <v>33.591637025953133</v>
+        <v>41.989546282441424</v>
       </c>
       <c r="J24" s="36">
         <f t="shared" si="6"/>
-        <v>48.96</v>
+        <v>73.440000000000012</v>
       </c>
       <c r="K24" s="38">
         <f t="shared" si="7"/>
-        <v>47.32</v>
+        <v>61.88</v>
       </c>
       <c r="L24" s="31">
         <f t="shared" si="8"/>
-        <v>73.34</v>
+        <v>88.78</v>
       </c>
       <c r="M24" s="40">
         <f t="shared" si="9"/>
-        <v>50.96</v>
+        <v>58.239999999999995</v>
       </c>
       <c r="N24" s="42">
         <f t="shared" si="10"/>
-        <v>48</v>
+        <v>44.800000000000004</v>
       </c>
       <c r="O24" s="15">
         <v>22</v>
       </c>
       <c r="P24" s="33">
         <f t="shared" si="11"/>
-        <v>124.69999999999999</v>
+        <v>137.6</v>
       </c>
       <c r="Q24" s="34">
         <f t="shared" si="12"/>
-        <v>60.32</v>
+        <v>67.28</v>
       </c>
       <c r="R24" s="36">
         <f t="shared" si="13"/>
-        <v>40.800000000000004</v>
+        <v>65.28</v>
       </c>
       <c r="S24" s="38">
         <f t="shared" si="14"/>
@@ -3868,15 +3869,15 @@
       </c>
       <c r="T24" s="31">
         <f t="shared" si="15"/>
-        <v>63.75</v>
+        <v>93.75</v>
       </c>
       <c r="U24" s="40">
         <f t="shared" si="16"/>
-        <v>44.699999999999996</v>
+        <v>56.62</v>
       </c>
       <c r="V24" s="42">
         <f t="shared" si="17"/>
-        <v>48.790000000000006</v>
+        <v>45.92</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.3">
@@ -3907,46 +3908,46 @@
       </c>
       <c r="H25" s="33">
         <f t="shared" si="4"/>
-        <v>185.9375</v>
+        <v>212.5</v>
       </c>
       <c r="I25" s="34">
         <f t="shared" si="5"/>
-        <v>34.431427951601961</v>
+        <v>43.039284939502458</v>
       </c>
       <c r="J25" s="36">
         <f t="shared" si="6"/>
-        <v>50.64</v>
+        <v>75.960000000000008</v>
       </c>
       <c r="K25" s="38">
         <f t="shared" si="7"/>
-        <v>48.88</v>
+        <v>63.92</v>
       </c>
       <c r="L25" s="31">
         <f t="shared" si="8"/>
-        <v>75.81</v>
+        <v>91.77000000000001</v>
       </c>
       <c r="M25" s="40">
         <f t="shared" si="9"/>
-        <v>52.64</v>
+        <v>60.16</v>
       </c>
       <c r="N25" s="42">
         <f t="shared" si="10"/>
-        <v>49.5</v>
+        <v>46.2</v>
       </c>
       <c r="O25" s="15">
         <v>23</v>
       </c>
       <c r="P25" s="33">
         <f t="shared" si="11"/>
-        <v>129.05000000000001</v>
+        <v>142.39999999999998</v>
       </c>
       <c r="Q25" s="34">
         <f t="shared" si="12"/>
-        <v>61.88</v>
+        <v>69.02000000000001</v>
       </c>
       <c r="R25" s="36">
         <f t="shared" si="13"/>
-        <v>42.2</v>
+        <v>67.52000000000001</v>
       </c>
       <c r="S25" s="38">
         <f t="shared" si="14"/>
@@ -3954,15 +3955,15 @@
       </c>
       <c r="T25" s="31">
         <f t="shared" si="15"/>
-        <v>65.875</v>
+        <v>96.875</v>
       </c>
       <c r="U25" s="40">
         <f t="shared" si="16"/>
-        <v>46.05</v>
+        <v>58.33</v>
       </c>
       <c r="V25" s="42">
         <f t="shared" si="17"/>
-        <v>50.234999999999999</v>
+        <v>47.28</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.3">
@@ -3993,46 +3994,46 @@
       </c>
       <c r="H26" s="33">
         <f t="shared" si="4"/>
-        <v>192.5</v>
+        <v>220</v>
       </c>
       <c r="I26" s="34">
         <f t="shared" si="5"/>
-        <v>35.292213650392007</v>
+        <v>44.115267062990021</v>
       </c>
       <c r="J26" s="36">
         <f t="shared" si="6"/>
-        <v>52.320000000000007</v>
+        <v>78.480000000000018</v>
       </c>
       <c r="K26" s="38">
         <f t="shared" si="7"/>
-        <v>50.44</v>
+        <v>65.960000000000008</v>
       </c>
       <c r="L26" s="31">
         <f t="shared" si="8"/>
-        <v>78.28</v>
+        <v>94.76</v>
       </c>
       <c r="M26" s="40">
         <f t="shared" si="9"/>
-        <v>54.32</v>
+        <v>62.08</v>
       </c>
       <c r="N26" s="42">
         <f t="shared" si="10"/>
-        <v>51</v>
+        <v>47.6</v>
       </c>
       <c r="O26" s="15">
         <v>24</v>
       </c>
       <c r="P26" s="33">
         <f t="shared" si="11"/>
-        <v>133.39999999999998</v>
+        <v>147.19999999999999</v>
       </c>
       <c r="Q26" s="34">
         <f t="shared" si="12"/>
-        <v>63.44</v>
+        <v>70.759999999999991</v>
       </c>
       <c r="R26" s="36">
         <f t="shared" si="13"/>
-        <v>43.6</v>
+        <v>69.760000000000005</v>
       </c>
       <c r="S26" s="38">
         <f t="shared" si="14"/>
@@ -4040,15 +4041,15 @@
       </c>
       <c r="T26" s="31">
         <f t="shared" si="15"/>
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="U26" s="40">
         <f t="shared" si="16"/>
-        <v>47.4</v>
+        <v>60.04</v>
       </c>
       <c r="V26" s="42">
         <f t="shared" si="17"/>
-        <v>51.68</v>
+        <v>48.64</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.3">
@@ -4079,46 +4080,46 @@
       </c>
       <c r="H27" s="33">
         <f t="shared" si="4"/>
-        <v>199.0625</v>
+        <v>227.5</v>
       </c>
       <c r="I27" s="34">
         <f t="shared" si="5"/>
-        <v>36.174518991651809</v>
+        <v>45.218148739564775</v>
       </c>
       <c r="J27" s="36">
         <f t="shared" si="6"/>
-        <v>54.000000000000007</v>
+        <v>81.000000000000014</v>
       </c>
       <c r="K27" s="38">
         <f t="shared" si="7"/>
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="L27" s="31">
         <f t="shared" si="8"/>
-        <v>80.75</v>
+        <v>97.75</v>
       </c>
       <c r="M27" s="40">
         <f t="shared" si="9"/>
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="N27" s="42">
         <f t="shared" si="10"/>
-        <v>52.5</v>
+        <v>49</v>
       </c>
       <c r="O27" s="15">
         <v>25</v>
       </c>
       <c r="P27" s="33">
         <f t="shared" si="11"/>
-        <v>137.75</v>
+        <v>152</v>
       </c>
       <c r="Q27" s="34">
         <f t="shared" si="12"/>
-        <v>65</v>
+        <v>72.5</v>
       </c>
       <c r="R27" s="36">
         <f t="shared" si="13"/>
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="S27" s="38">
         <f t="shared" si="14"/>
@@ -4126,15 +4127,15 @@
       </c>
       <c r="T27" s="31">
         <f t="shared" si="15"/>
-        <v>70.125</v>
+        <v>103.125</v>
       </c>
       <c r="U27" s="40">
         <f t="shared" si="16"/>
-        <v>48.75</v>
+        <v>61.75</v>
       </c>
       <c r="V27" s="42">
         <f t="shared" si="17"/>
-        <v>53.125</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.3">
@@ -4165,46 +4166,46 @@
       </c>
       <c r="H28" s="33">
         <f t="shared" si="4"/>
-        <v>205.625</v>
+        <v>235</v>
       </c>
       <c r="I28" s="34">
         <f t="shared" si="5"/>
-        <v>37.078881966443106</v>
+        <v>46.348602458053897</v>
       </c>
       <c r="J28" s="36">
         <f t="shared" si="6"/>
-        <v>55.680000000000007</v>
+        <v>83.52000000000001</v>
       </c>
       <c r="K28" s="38">
         <f t="shared" si="7"/>
-        <v>53.56</v>
+        <v>70.039999999999992</v>
       </c>
       <c r="L28" s="31">
         <f t="shared" si="8"/>
-        <v>83.22</v>
+        <v>100.74000000000001</v>
       </c>
       <c r="M28" s="40">
         <f t="shared" si="9"/>
-        <v>57.68</v>
+        <v>65.92</v>
       </c>
       <c r="N28" s="42">
         <f t="shared" si="10"/>
-        <v>54</v>
+        <v>50.400000000000006</v>
       </c>
       <c r="O28" s="15">
         <v>26</v>
       </c>
       <c r="P28" s="33">
         <f t="shared" si="11"/>
-        <v>142.1</v>
+        <v>156.80000000000001</v>
       </c>
       <c r="Q28" s="34">
         <f t="shared" si="12"/>
-        <v>66.56</v>
+        <v>74.240000000000009</v>
       </c>
       <c r="R28" s="36">
         <f t="shared" si="13"/>
-        <v>46.400000000000006</v>
+        <v>74.240000000000009</v>
       </c>
       <c r="S28" s="38">
         <f t="shared" si="14"/>
@@ -4212,15 +4213,15 @@
       </c>
       <c r="T28" s="31">
         <f t="shared" si="15"/>
-        <v>72.25</v>
+        <v>106.25</v>
       </c>
       <c r="U28" s="40">
         <f t="shared" si="16"/>
-        <v>50.099999999999994</v>
+        <v>63.46</v>
       </c>
       <c r="V28" s="42">
         <f t="shared" si="17"/>
-        <v>54.57</v>
+        <v>51.36</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.3">
@@ -4251,46 +4252,46 @@
       </c>
       <c r="H29" s="33">
         <f t="shared" si="4"/>
-        <v>212.1875</v>
+        <v>242.5</v>
       </c>
       <c r="I29" s="34">
         <f t="shared" si="5"/>
-        <v>38.005854015604186</v>
+        <v>47.507317519505243</v>
       </c>
       <c r="J29" s="36">
         <f t="shared" si="6"/>
-        <v>57.360000000000007</v>
+        <v>86.04</v>
       </c>
       <c r="K29" s="38">
         <f t="shared" si="7"/>
-        <v>55.120000000000005</v>
+        <v>72.08</v>
       </c>
       <c r="L29" s="31">
         <f t="shared" si="8"/>
-        <v>85.690000000000012</v>
+        <v>103.73</v>
       </c>
       <c r="M29" s="40">
         <f t="shared" si="9"/>
-        <v>59.36</v>
+        <v>67.84</v>
       </c>
       <c r="N29" s="42">
         <f t="shared" si="10"/>
-        <v>55.5</v>
+        <v>51.800000000000004</v>
       </c>
       <c r="O29" s="15">
         <v>27</v>
       </c>
       <c r="P29" s="33">
         <f t="shared" si="11"/>
-        <v>146.44999999999999</v>
+        <v>161.6</v>
       </c>
       <c r="Q29" s="34">
         <f t="shared" si="12"/>
-        <v>68.12</v>
+        <v>75.97999999999999</v>
       </c>
       <c r="R29" s="36">
         <f t="shared" si="13"/>
-        <v>47.800000000000004</v>
+        <v>76.48</v>
       </c>
       <c r="S29" s="38">
         <f t="shared" si="14"/>
@@ -4298,15 +4299,15 @@
       </c>
       <c r="T29" s="31">
         <f t="shared" si="15"/>
-        <v>74.375</v>
+        <v>109.375</v>
       </c>
       <c r="U29" s="40">
         <f t="shared" si="16"/>
-        <v>51.449999999999996</v>
+        <v>65.17</v>
       </c>
       <c r="V29" s="42">
         <f t="shared" si="17"/>
-        <v>56.015000000000001</v>
+        <v>52.720000000000006</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.3">
@@ -4337,46 +4338,46 @@
       </c>
       <c r="H30" s="33">
         <f t="shared" si="4"/>
-        <v>218.75</v>
+        <v>250</v>
       </c>
       <c r="I30" s="34">
         <f t="shared" si="5"/>
-        <v>38.956000365994292</v>
+        <v>48.695000457492874</v>
       </c>
       <c r="J30" s="36">
         <f t="shared" si="6"/>
-        <v>59.040000000000006</v>
+        <v>88.560000000000016</v>
       </c>
       <c r="K30" s="38">
         <f t="shared" si="7"/>
-        <v>56.68</v>
+        <v>74.12</v>
       </c>
       <c r="L30" s="31">
         <f t="shared" si="8"/>
-        <v>88.160000000000011</v>
+        <v>106.72</v>
       </c>
       <c r="M30" s="40">
         <f t="shared" si="9"/>
-        <v>61.04</v>
+        <v>69.759999999999991</v>
       </c>
       <c r="N30" s="42">
         <f t="shared" si="10"/>
-        <v>57</v>
+        <v>53.2</v>
       </c>
       <c r="O30" s="15">
         <v>28</v>
       </c>
       <c r="P30" s="33">
         <f t="shared" si="11"/>
-        <v>150.79999999999998</v>
+        <v>166.4</v>
       </c>
       <c r="Q30" s="34">
         <f t="shared" si="12"/>
-        <v>69.680000000000007</v>
+        <v>77.72</v>
       </c>
       <c r="R30" s="36">
         <f t="shared" si="13"/>
-        <v>49.2</v>
+        <v>78.72</v>
       </c>
       <c r="S30" s="38">
         <f t="shared" si="14"/>
@@ -4384,15 +4385,15 @@
       </c>
       <c r="T30" s="31">
         <f t="shared" si="15"/>
-        <v>76.5</v>
+        <v>112.5</v>
       </c>
       <c r="U30" s="40">
         <f t="shared" si="16"/>
-        <v>52.8</v>
+        <v>66.88</v>
       </c>
       <c r="V30" s="42">
         <f t="shared" si="17"/>
-        <v>57.46</v>
+        <v>54.080000000000005</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.3">
@@ -4423,46 +4424,46 @@
       </c>
       <c r="H31" s="33">
         <f t="shared" si="4"/>
-        <v>225.3125</v>
+        <v>257.5</v>
       </c>
       <c r="I31" s="34">
         <f t="shared" si="5"/>
-        <v>39.92990037514415</v>
+        <v>49.912375468930193</v>
       </c>
       <c r="J31" s="36">
         <f t="shared" si="6"/>
-        <v>60.720000000000006</v>
+        <v>91.080000000000013</v>
       </c>
       <c r="K31" s="38">
         <f t="shared" si="7"/>
-        <v>58.24</v>
+        <v>76.16</v>
       </c>
       <c r="L31" s="31">
         <f t="shared" si="8"/>
-        <v>90.63000000000001</v>
+        <v>109.71000000000001</v>
       </c>
       <c r="M31" s="40">
         <f t="shared" si="9"/>
-        <v>62.72</v>
+        <v>71.680000000000007</v>
       </c>
       <c r="N31" s="42">
         <f t="shared" si="10"/>
-        <v>58.5</v>
+        <v>54.6</v>
       </c>
       <c r="O31" s="15">
         <v>29</v>
       </c>
       <c r="P31" s="33">
         <f t="shared" si="11"/>
-        <v>155.14999999999998</v>
+        <v>171.2</v>
       </c>
       <c r="Q31" s="34">
         <f t="shared" si="12"/>
-        <v>71.240000000000009</v>
+        <v>79.460000000000008</v>
       </c>
       <c r="R31" s="36">
         <f t="shared" si="13"/>
-        <v>50.6</v>
+        <v>80.960000000000008</v>
       </c>
       <c r="S31" s="38">
         <f t="shared" si="14"/>
@@ -4470,15 +4471,15 @@
       </c>
       <c r="T31" s="31">
         <f t="shared" si="15"/>
-        <v>78.625</v>
+        <v>115.625</v>
       </c>
       <c r="U31" s="40">
         <f t="shared" si="16"/>
-        <v>54.15</v>
+        <v>68.59</v>
       </c>
       <c r="V31" s="42">
         <f t="shared" si="17"/>
-        <v>58.905000000000001</v>
+        <v>55.440000000000005</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.3">
@@ -4509,46 +4510,46 @@
       </c>
       <c r="H32" s="33">
         <f t="shared" si="4"/>
-        <v>231.875</v>
+        <v>265</v>
       </c>
       <c r="I32" s="34">
         <f t="shared" si="5"/>
-        <v>40.928147884522751</v>
+        <v>51.160184855653448</v>
       </c>
       <c r="J32" s="36">
         <f t="shared" si="6"/>
-        <v>62.400000000000006</v>
+        <v>93.600000000000009</v>
       </c>
       <c r="K32" s="38">
         <f t="shared" si="7"/>
-        <v>59.800000000000004</v>
+        <v>78.2</v>
       </c>
       <c r="L32" s="31">
         <f t="shared" si="8"/>
-        <v>93.100000000000009</v>
+        <v>112.7</v>
       </c>
       <c r="M32" s="40">
         <f t="shared" si="9"/>
-        <v>64.400000000000006</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="N32" s="42">
         <f t="shared" si="10"/>
-        <v>60</v>
+        <v>56.000000000000007</v>
       </c>
       <c r="O32" s="15">
         <v>30</v>
       </c>
       <c r="P32" s="33">
         <f t="shared" si="11"/>
-        <v>159.5</v>
+        <v>176</v>
       </c>
       <c r="Q32" s="34">
         <f t="shared" si="12"/>
-        <v>72.800000000000011</v>
+        <v>81.2</v>
       </c>
       <c r="R32" s="36">
         <f t="shared" si="13"/>
-        <v>52.000000000000007</v>
+        <v>83.2</v>
       </c>
       <c r="S32" s="38">
         <f t="shared" si="14"/>
@@ -4556,15 +4557,15 @@
       </c>
       <c r="T32" s="31">
         <f t="shared" si="15"/>
-        <v>80.75</v>
+        <v>118.75</v>
       </c>
       <c r="U32" s="40">
         <f t="shared" si="16"/>
-        <v>55.499999999999993</v>
+        <v>70.3</v>
       </c>
       <c r="V32" s="42">
         <f t="shared" si="17"/>
-        <v>60.35</v>
+        <v>56.800000000000004</v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.3">
@@ -4595,46 +4596,46 @@
       </c>
       <c r="H33" s="33">
         <f t="shared" si="4"/>
-        <v>238.4375</v>
+        <v>272.5</v>
       </c>
       <c r="I33" s="34">
         <f t="shared" si="5"/>
-        <v>41.951351581635819</v>
+        <v>52.439189477044785</v>
       </c>
       <c r="J33" s="36">
         <f t="shared" si="6"/>
-        <v>64.080000000000013</v>
+        <v>96.120000000000019</v>
       </c>
       <c r="K33" s="38">
         <f t="shared" si="7"/>
-        <v>61.36</v>
+        <v>80.240000000000009</v>
       </c>
       <c r="L33" s="31">
         <f t="shared" si="8"/>
-        <v>95.570000000000007</v>
+        <v>115.69000000000001</v>
       </c>
       <c r="M33" s="40">
         <f t="shared" si="9"/>
-        <v>66.08</v>
+        <v>75.52</v>
       </c>
       <c r="N33" s="42">
         <f t="shared" si="10"/>
-        <v>61.5</v>
+        <v>57.400000000000006</v>
       </c>
       <c r="O33" s="15">
         <v>31</v>
       </c>
       <c r="P33" s="33">
         <f t="shared" si="11"/>
-        <v>163.85</v>
+        <v>180.79999999999998</v>
       </c>
       <c r="Q33" s="34">
         <f t="shared" si="12"/>
-        <v>74.36</v>
+        <v>82.94</v>
       </c>
       <c r="R33" s="36">
         <f t="shared" si="13"/>
-        <v>53.400000000000006</v>
+        <v>85.440000000000012</v>
       </c>
       <c r="S33" s="38">
         <f t="shared" si="14"/>
@@ -4642,15 +4643,15 @@
       </c>
       <c r="T33" s="31">
         <f t="shared" si="15"/>
-        <v>82.875</v>
+        <v>121.875</v>
       </c>
       <c r="U33" s="40">
         <f t="shared" si="16"/>
-        <v>56.849999999999994</v>
+        <v>72.009999999999991</v>
       </c>
       <c r="V33" s="42">
         <f t="shared" si="17"/>
-        <v>61.795000000000002</v>
+        <v>58.160000000000004</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.3">
@@ -4681,46 +4682,46 @@
       </c>
       <c r="H34" s="33">
         <f t="shared" si="4"/>
-        <v>245</v>
+        <v>280</v>
       </c>
       <c r="I34" s="34">
         <f t="shared" si="5"/>
-        <v>43.000135371176718</v>
+        <v>53.750169213970906</v>
       </c>
       <c r="J34" s="36">
         <f t="shared" si="6"/>
-        <v>65.760000000000005</v>
+        <v>98.640000000000015</v>
       </c>
       <c r="K34" s="38">
         <f t="shared" si="7"/>
-        <v>62.92</v>
+        <v>82.28</v>
       </c>
       <c r="L34" s="31">
         <f t="shared" si="8"/>
-        <v>98.04</v>
+        <v>118.68</v>
       </c>
       <c r="M34" s="40">
         <f t="shared" si="9"/>
-        <v>67.759999999999991</v>
+        <v>77.44</v>
       </c>
       <c r="N34" s="42">
         <f t="shared" si="10"/>
-        <v>63</v>
+        <v>58.800000000000004</v>
       </c>
       <c r="O34" s="15">
         <v>32</v>
       </c>
       <c r="P34" s="33">
         <f t="shared" si="11"/>
-        <v>168.2</v>
+        <v>185.6</v>
       </c>
       <c r="Q34" s="34">
         <f t="shared" si="12"/>
-        <v>75.92</v>
+        <v>84.68</v>
       </c>
       <c r="R34" s="36">
         <f t="shared" si="13"/>
-        <v>54.800000000000004</v>
+        <v>87.68</v>
       </c>
       <c r="S34" s="38">
         <f t="shared" si="14"/>
@@ -4728,15 +4729,15 @@
       </c>
       <c r="T34" s="31">
         <f t="shared" si="15"/>
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="U34" s="40">
         <f t="shared" si="16"/>
-        <v>58.199999999999996</v>
+        <v>73.72</v>
       </c>
       <c r="V34" s="42">
         <f t="shared" si="17"/>
-        <v>63.24</v>
+        <v>59.52</v>
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.3">
@@ -4767,46 +4768,46 @@
       </c>
       <c r="H35" s="33">
         <f t="shared" si="4"/>
-        <v>251.5625</v>
+        <v>287.5</v>
       </c>
       <c r="I35" s="34">
         <f t="shared" si="5"/>
-        <v>44.075138755456138</v>
+        <v>55.093923444320183</v>
       </c>
       <c r="J35" s="36">
         <f t="shared" si="6"/>
-        <v>67.44</v>
+        <v>101.16000000000001</v>
       </c>
       <c r="K35" s="38">
         <f t="shared" si="7"/>
-        <v>64.48</v>
+        <v>84.320000000000007</v>
       </c>
       <c r="L35" s="31">
         <f t="shared" si="8"/>
-        <v>100.51</v>
+        <v>121.67</v>
       </c>
       <c r="M35" s="40">
         <f t="shared" si="9"/>
-        <v>69.44</v>
+        <v>79.36</v>
       </c>
       <c r="N35" s="42">
         <f t="shared" si="10"/>
-        <v>64.5</v>
+        <v>60.2</v>
       </c>
       <c r="O35" s="15">
         <v>33</v>
       </c>
       <c r="P35" s="33">
         <f t="shared" si="11"/>
-        <v>172.54999999999998</v>
+        <v>190.4</v>
       </c>
       <c r="Q35" s="34">
         <f t="shared" si="12"/>
-        <v>77.48</v>
+        <v>86.42</v>
       </c>
       <c r="R35" s="36">
         <f t="shared" si="13"/>
-        <v>56.2</v>
+        <v>89.92</v>
       </c>
       <c r="S35" s="38">
         <f t="shared" si="14"/>
@@ -4814,15 +4815,15 @@
       </c>
       <c r="T35" s="31">
         <f t="shared" si="15"/>
-        <v>87.125</v>
+        <v>128.125</v>
       </c>
       <c r="U35" s="40">
         <f t="shared" si="16"/>
-        <v>59.55</v>
+        <v>75.430000000000007</v>
       </c>
       <c r="V35" s="42">
         <f t="shared" si="17"/>
-        <v>64.685000000000002</v>
+        <v>60.88</v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.3">
@@ -4853,46 +4854,46 @@
       </c>
       <c r="H36" s="33">
         <f t="shared" si="4"/>
-        <v>258.125</v>
+        <v>295</v>
       </c>
       <c r="I36" s="34">
         <f t="shared" si="5"/>
-        <v>45.177017224342542</v>
+        <v>56.47127153042819</v>
       </c>
       <c r="J36" s="36">
         <f t="shared" si="6"/>
-        <v>69.12</v>
+        <v>103.68000000000002</v>
       </c>
       <c r="K36" s="38">
         <f t="shared" si="7"/>
-        <v>66.039999999999992</v>
+        <v>86.36</v>
       </c>
       <c r="L36" s="31">
         <f t="shared" si="8"/>
-        <v>102.98</v>
+        <v>124.66000000000001</v>
       </c>
       <c r="M36" s="40">
         <f t="shared" si="9"/>
-        <v>71.12</v>
+        <v>81.28</v>
       </c>
       <c r="N36" s="42">
         <f t="shared" si="10"/>
-        <v>66</v>
+        <v>61.6</v>
       </c>
       <c r="O36" s="15">
         <v>34</v>
       </c>
       <c r="P36" s="33">
         <f t="shared" si="11"/>
-        <v>176.89999999999998</v>
+        <v>195.2</v>
       </c>
       <c r="Q36" s="34">
         <f t="shared" si="12"/>
-        <v>79.039999999999992</v>
+        <v>88.16</v>
       </c>
       <c r="R36" s="36">
         <f t="shared" si="13"/>
-        <v>57.6</v>
+        <v>92.160000000000011</v>
       </c>
       <c r="S36" s="38">
         <f t="shared" si="14"/>
@@ -4900,15 +4901,15 @@
       </c>
       <c r="T36" s="31">
         <f t="shared" si="15"/>
-        <v>89.25</v>
+        <v>131.25</v>
       </c>
       <c r="U36" s="40">
         <f t="shared" si="16"/>
-        <v>60.9</v>
+        <v>77.14</v>
       </c>
       <c r="V36" s="42">
         <f t="shared" si="17"/>
-        <v>66.13</v>
+        <v>62.24</v>
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.3">
@@ -4939,46 +4940,46 @@
       </c>
       <c r="H37" s="33">
         <f t="shared" si="4"/>
-        <v>264.6875</v>
+        <v>302.5</v>
       </c>
       <c r="I37" s="34">
         <f t="shared" si="5"/>
-        <v>46.306442654951105</v>
+        <v>57.883053318688894</v>
       </c>
       <c r="J37" s="36">
         <f t="shared" si="6"/>
-        <v>70.800000000000011</v>
+        <v>106.20000000000002</v>
       </c>
       <c r="K37" s="38">
         <f t="shared" si="7"/>
-        <v>67.599999999999994</v>
+        <v>88.4</v>
       </c>
       <c r="L37" s="31">
         <f t="shared" si="8"/>
-        <v>105.45</v>
+        <v>127.65</v>
       </c>
       <c r="M37" s="40">
         <f t="shared" si="9"/>
-        <v>72.8</v>
+        <v>83.2</v>
       </c>
       <c r="N37" s="42">
         <f t="shared" si="10"/>
-        <v>67.5</v>
+        <v>63.000000000000007</v>
       </c>
       <c r="O37" s="15">
         <v>35</v>
       </c>
       <c r="P37" s="33">
         <f t="shared" si="11"/>
-        <v>181.25</v>
+        <v>200</v>
       </c>
       <c r="Q37" s="34">
         <f t="shared" si="12"/>
-        <v>80.599999999999994</v>
+        <v>89.9</v>
       </c>
       <c r="R37" s="36">
         <f t="shared" si="13"/>
-        <v>59.000000000000007</v>
+        <v>94.4</v>
       </c>
       <c r="S37" s="38">
         <f t="shared" si="14"/>
@@ -4986,15 +4987,15 @@
       </c>
       <c r="T37" s="31">
         <f t="shared" si="15"/>
-        <v>91.375</v>
+        <v>134.375</v>
       </c>
       <c r="U37" s="40">
         <f t="shared" si="16"/>
-        <v>62.249999999999993</v>
+        <v>78.849999999999994</v>
       </c>
       <c r="V37" s="42">
         <f t="shared" si="17"/>
-        <v>67.575000000000003</v>
+        <v>63.6</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.3">
@@ -5025,46 +5026,46 @@
       </c>
       <c r="H38" s="33">
         <f t="shared" si="4"/>
-        <v>271.25</v>
+        <v>310</v>
       </c>
       <c r="I38" s="34">
         <f t="shared" si="5"/>
-        <v>47.464103721324882</v>
+        <v>59.330129651656115</v>
       </c>
       <c r="J38" s="36">
         <f t="shared" si="6"/>
-        <v>72.48</v>
+        <v>108.72000000000001</v>
       </c>
       <c r="K38" s="38">
         <f t="shared" si="7"/>
-        <v>69.16</v>
+        <v>90.44</v>
       </c>
       <c r="L38" s="31">
         <f t="shared" si="8"/>
-        <v>107.92</v>
+        <v>130.64000000000001</v>
       </c>
       <c r="M38" s="40">
         <f t="shared" si="9"/>
-        <v>74.47999999999999</v>
+        <v>85.12</v>
       </c>
       <c r="N38" s="42">
         <f t="shared" si="10"/>
-        <v>69</v>
+        <v>64.400000000000006</v>
       </c>
       <c r="O38" s="15">
         <v>36</v>
       </c>
       <c r="P38" s="33">
         <f t="shared" si="11"/>
-        <v>185.6</v>
+        <v>204.79999999999998</v>
       </c>
       <c r="Q38" s="34">
         <f t="shared" si="12"/>
-        <v>82.16</v>
+        <v>91.64</v>
       </c>
       <c r="R38" s="36">
         <f t="shared" si="13"/>
-        <v>60.400000000000006</v>
+        <v>96.640000000000015</v>
       </c>
       <c r="S38" s="38">
         <f t="shared" si="14"/>
@@ -5072,15 +5073,15 @@
       </c>
       <c r="T38" s="31">
         <f t="shared" si="15"/>
-        <v>93.5</v>
+        <v>137.5</v>
       </c>
       <c r="U38" s="40">
         <f t="shared" si="16"/>
-        <v>63.599999999999994</v>
+        <v>80.56</v>
       </c>
       <c r="V38" s="42">
         <f t="shared" si="17"/>
-        <v>69.02000000000001</v>
+        <v>64.960000000000008</v>
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.3">
@@ -5111,46 +5112,46 @@
       </c>
       <c r="H39" s="33">
         <f t="shared" si="4"/>
-        <v>277.8125</v>
+        <v>317.5</v>
       </c>
       <c r="I39" s="34">
         <f t="shared" si="5"/>
-        <v>48.650706314358004</v>
+        <v>60.813382892947516</v>
       </c>
       <c r="J39" s="36">
         <f t="shared" si="6"/>
-        <v>74.16</v>
+        <v>111.24000000000002</v>
       </c>
       <c r="K39" s="38">
         <f t="shared" si="7"/>
-        <v>70.72</v>
+        <v>92.48</v>
       </c>
       <c r="L39" s="31">
         <f t="shared" si="8"/>
-        <v>110.39</v>
+        <v>133.63</v>
       </c>
       <c r="M39" s="40">
         <f t="shared" si="9"/>
-        <v>76.16</v>
+        <v>87.039999999999992</v>
       </c>
       <c r="N39" s="42">
         <f t="shared" si="10"/>
-        <v>70.5</v>
+        <v>65.800000000000011</v>
       </c>
       <c r="O39" s="15">
         <v>37</v>
       </c>
       <c r="P39" s="33">
         <f t="shared" si="11"/>
-        <v>189.95</v>
+        <v>209.6</v>
       </c>
       <c r="Q39" s="34">
         <f t="shared" si="12"/>
-        <v>83.72</v>
+        <v>93.38</v>
       </c>
       <c r="R39" s="36">
         <f t="shared" si="13"/>
-        <v>61.800000000000004</v>
+        <v>98.88000000000001</v>
       </c>
       <c r="S39" s="38">
         <f t="shared" si="14"/>
@@ -5158,15 +5159,15 @@
       </c>
       <c r="T39" s="31">
         <f t="shared" si="15"/>
-        <v>95.625</v>
+        <v>140.625</v>
       </c>
       <c r="U39" s="40">
         <f t="shared" si="16"/>
-        <v>64.949999999999989</v>
+        <v>82.27</v>
       </c>
       <c r="V39" s="42">
         <f t="shared" si="17"/>
-        <v>70.465000000000003</v>
+        <v>66.319999999999993</v>
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.3">
@@ -5197,46 +5198,46 @@
       </c>
       <c r="H40" s="33">
         <f t="shared" si="4"/>
-        <v>284.375</v>
+        <v>325</v>
       </c>
       <c r="I40" s="34">
         <f t="shared" si="5"/>
-        <v>49.866973972216954</v>
+        <v>62.333717465271206</v>
       </c>
       <c r="J40" s="36">
         <f t="shared" si="6"/>
-        <v>75.84</v>
+        <v>113.76000000000002</v>
       </c>
       <c r="K40" s="38">
         <f t="shared" si="7"/>
-        <v>72.28</v>
+        <v>94.52</v>
       </c>
       <c r="L40" s="31">
         <f t="shared" si="8"/>
-        <v>112.86000000000001</v>
+        <v>136.62</v>
       </c>
       <c r="M40" s="40">
         <f t="shared" si="9"/>
-        <v>77.84</v>
+        <v>88.96</v>
       </c>
       <c r="N40" s="42">
         <f t="shared" si="10"/>
-        <v>72</v>
+        <v>67.2</v>
       </c>
       <c r="O40" s="15">
         <v>38</v>
       </c>
       <c r="P40" s="33">
         <f t="shared" si="11"/>
-        <v>194.29999999999998</v>
+        <v>214.4</v>
       </c>
       <c r="Q40" s="34">
         <f t="shared" si="12"/>
-        <v>85.28</v>
+        <v>95.12</v>
       </c>
       <c r="R40" s="36">
         <f t="shared" si="13"/>
-        <v>63.2</v>
+        <v>101.12</v>
       </c>
       <c r="S40" s="38">
         <f t="shared" si="14"/>
@@ -5244,15 +5245,15 @@
       </c>
       <c r="T40" s="31">
         <f t="shared" si="15"/>
-        <v>97.75</v>
+        <v>143.75</v>
       </c>
       <c r="U40" s="40">
         <f t="shared" si="16"/>
-        <v>66.3</v>
+        <v>83.98</v>
       </c>
       <c r="V40" s="42">
         <f t="shared" si="17"/>
-        <v>71.91</v>
+        <v>67.680000000000007</v>
       </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.3">
@@ -5283,46 +5284,46 @@
       </c>
       <c r="H41" s="33">
         <f t="shared" si="4"/>
-        <v>290.9375</v>
+        <v>332.5</v>
       </c>
       <c r="I41" s="34">
         <f t="shared" si="5"/>
-        <v>51.113648321522376</v>
+        <v>63.892060401902988</v>
       </c>
       <c r="J41" s="36">
         <f t="shared" si="6"/>
-        <v>77.52000000000001</v>
+        <v>116.28000000000002</v>
       </c>
       <c r="K41" s="38">
         <f t="shared" si="7"/>
-        <v>73.84</v>
+        <v>96.56</v>
       </c>
       <c r="L41" s="31">
         <f t="shared" si="8"/>
-        <v>115.33000000000001</v>
+        <v>139.61000000000001</v>
       </c>
       <c r="M41" s="40">
         <f t="shared" si="9"/>
-        <v>79.52</v>
+        <v>90.88</v>
       </c>
       <c r="N41" s="42">
         <f t="shared" si="10"/>
-        <v>73.5</v>
+        <v>68.600000000000009</v>
       </c>
       <c r="O41" s="15">
         <v>39</v>
       </c>
       <c r="P41" s="33">
         <f t="shared" si="11"/>
-        <v>198.64999999999998</v>
+        <v>219.2</v>
       </c>
       <c r="Q41" s="34">
         <f t="shared" si="12"/>
-        <v>86.84</v>
+        <v>96.86</v>
       </c>
       <c r="R41" s="36">
         <f t="shared" si="13"/>
-        <v>64.600000000000009</v>
+        <v>103.36000000000001</v>
       </c>
       <c r="S41" s="38">
         <f t="shared" si="14"/>
@@ -5330,15 +5331,15 @@
       </c>
       <c r="T41" s="31">
         <f t="shared" si="15"/>
-        <v>99.875</v>
+        <v>146.875</v>
       </c>
       <c r="U41" s="40">
         <f t="shared" si="16"/>
-        <v>67.649999999999991</v>
+        <v>85.69</v>
       </c>
       <c r="V41" s="42">
         <f t="shared" si="17"/>
-        <v>73.355000000000004</v>
+        <v>69.040000000000006</v>
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.3">
@@ -5369,46 +5370,46 @@
       </c>
       <c r="H42" s="33">
         <f t="shared" si="4"/>
-        <v>297.5</v>
+        <v>340</v>
       </c>
       <c r="I42" s="34">
         <f t="shared" si="5"/>
-        <v>52.391489529560438</v>
+        <v>65.489361911950567</v>
       </c>
       <c r="J42" s="36">
         <f t="shared" si="6"/>
-        <v>79.2</v>
+        <v>118.80000000000001</v>
       </c>
       <c r="K42" s="38">
         <f t="shared" si="7"/>
-        <v>75.400000000000006</v>
+        <v>98.6</v>
       </c>
       <c r="L42" s="31">
         <f t="shared" si="8"/>
-        <v>117.80000000000001</v>
+        <v>142.60000000000002</v>
       </c>
       <c r="M42" s="40">
         <f t="shared" si="9"/>
-        <v>81.2</v>
+        <v>92.8</v>
       </c>
       <c r="N42" s="42">
         <f t="shared" si="10"/>
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="O42" s="15">
         <v>40</v>
       </c>
       <c r="P42" s="33">
         <f t="shared" si="11"/>
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="Q42" s="34">
         <f t="shared" si="12"/>
-        <v>88.4</v>
+        <v>98.6</v>
       </c>
       <c r="R42" s="36">
         <f t="shared" si="13"/>
-        <v>66</v>
+        <v>105.60000000000001</v>
       </c>
       <c r="S42" s="38">
         <f t="shared" si="14"/>
@@ -5416,15 +5417,15 @@
       </c>
       <c r="T42" s="31">
         <f t="shared" si="15"/>
-        <v>102</v>
+        <v>150</v>
       </c>
       <c r="U42" s="40">
         <f t="shared" si="16"/>
-        <v>69</v>
+        <v>87.4</v>
       </c>
       <c r="V42" s="42">
         <f t="shared" si="17"/>
-        <v>74.800000000000011</v>
+        <v>70.400000000000006</v>
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.3">
@@ -5455,46 +5456,46 @@
       </c>
       <c r="H43" s="33">
         <f t="shared" si="4"/>
-        <v>304.0625</v>
+        <v>347.5</v>
       </c>
       <c r="I43" s="34">
         <f t="shared" si="5"/>
-        <v>53.701276767799449</v>
+        <v>67.126595959749338</v>
       </c>
       <c r="J43" s="36">
         <f t="shared" si="6"/>
-        <v>80.88000000000001</v>
+        <v>121.32000000000002</v>
       </c>
       <c r="K43" s="38">
         <f t="shared" si="7"/>
-        <v>76.960000000000008</v>
+        <v>100.64</v>
       </c>
       <c r="L43" s="31">
         <f t="shared" si="8"/>
-        <v>120.27000000000001</v>
+        <v>145.59</v>
       </c>
       <c r="M43" s="40">
         <f t="shared" si="9"/>
-        <v>82.88</v>
+        <v>94.72</v>
       </c>
       <c r="N43" s="42">
         <f t="shared" si="10"/>
-        <v>76.5</v>
+        <v>71.400000000000006</v>
       </c>
       <c r="O43" s="15">
         <v>41</v>
       </c>
       <c r="P43" s="33">
         <f t="shared" si="11"/>
-        <v>207.35</v>
+        <v>228.79999999999998</v>
       </c>
       <c r="Q43" s="34">
         <f t="shared" si="12"/>
-        <v>89.960000000000008</v>
+        <v>100.34</v>
       </c>
       <c r="R43" s="36">
         <f t="shared" si="13"/>
-        <v>67.400000000000006</v>
+        <v>107.84</v>
       </c>
       <c r="S43" s="38">
         <f t="shared" si="14"/>
@@ -5502,15 +5503,15 @@
       </c>
       <c r="T43" s="31">
         <f t="shared" si="15"/>
-        <v>104.125</v>
+        <v>153.125</v>
       </c>
       <c r="U43" s="40">
         <f t="shared" si="16"/>
-        <v>70.349999999999994</v>
+        <v>89.11</v>
       </c>
       <c r="V43" s="42">
         <f t="shared" si="17"/>
-        <v>76.245000000000005</v>
+        <v>71.760000000000005</v>
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.3">
@@ -5541,46 +5542,46 @@
       </c>
       <c r="H44" s="33">
         <f t="shared" si="4"/>
-        <v>310.625</v>
+        <v>355</v>
       </c>
       <c r="I44" s="34">
         <f t="shared" si="5"/>
-        <v>55.043808686994439</v>
+        <v>68.804760858743066</v>
       </c>
       <c r="J44" s="36">
         <f t="shared" si="6"/>
-        <v>82.56</v>
+        <v>123.84000000000002</v>
       </c>
       <c r="K44" s="38">
         <f t="shared" si="7"/>
-        <v>78.52</v>
+        <v>102.68</v>
       </c>
       <c r="L44" s="31">
         <f t="shared" si="8"/>
-        <v>122.74000000000001</v>
+        <v>148.58000000000001</v>
       </c>
       <c r="M44" s="40">
         <f t="shared" si="9"/>
-        <v>84.56</v>
+        <v>96.64</v>
       </c>
       <c r="N44" s="42">
         <f t="shared" si="10"/>
-        <v>78</v>
+        <v>72.800000000000011</v>
       </c>
       <c r="O44" s="15">
         <v>42</v>
       </c>
       <c r="P44" s="33">
         <f t="shared" si="11"/>
-        <v>211.7</v>
+        <v>233.6</v>
       </c>
       <c r="Q44" s="34">
         <f t="shared" si="12"/>
-        <v>91.52</v>
+        <v>102.08</v>
       </c>
       <c r="R44" s="36">
         <f t="shared" si="13"/>
-        <v>68.800000000000011</v>
+        <v>110.08000000000001</v>
       </c>
       <c r="S44" s="38">
         <f t="shared" si="14"/>
@@ -5588,15 +5589,15 @@
       </c>
       <c r="T44" s="31">
         <f t="shared" si="15"/>
-        <v>106.25</v>
+        <v>156.25</v>
       </c>
       <c r="U44" s="40">
         <f t="shared" si="16"/>
-        <v>71.699999999999989</v>
+        <v>90.82</v>
       </c>
       <c r="V44" s="42">
         <f t="shared" si="17"/>
-        <v>77.69</v>
+        <v>73.12</v>
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.3">
@@ -5627,46 +5628,46 @@
       </c>
       <c r="H45" s="33">
         <f t="shared" si="4"/>
-        <v>317.1875</v>
+        <v>362.5</v>
       </c>
       <c r="I45" s="34">
         <f t="shared" si="5"/>
-        <v>56.419903904169303</v>
+        <v>70.524879880211643</v>
       </c>
       <c r="J45" s="36">
         <f t="shared" si="6"/>
-        <v>84.240000000000009</v>
+        <v>126.36000000000001</v>
       </c>
       <c r="K45" s="38">
         <f t="shared" si="7"/>
-        <v>80.08</v>
+        <v>104.72</v>
       </c>
       <c r="L45" s="31">
         <f t="shared" si="8"/>
-        <v>125.21000000000001</v>
+        <v>151.57000000000002</v>
       </c>
       <c r="M45" s="40">
         <f t="shared" si="9"/>
-        <v>86.24</v>
+        <v>98.56</v>
       </c>
       <c r="N45" s="42">
         <f t="shared" si="10"/>
-        <v>79.5</v>
+        <v>74.2</v>
       </c>
       <c r="O45" s="15">
         <v>43</v>
       </c>
       <c r="P45" s="33">
         <f t="shared" si="11"/>
-        <v>216.04999999999998</v>
+        <v>238.4</v>
       </c>
       <c r="Q45" s="34">
         <f t="shared" si="12"/>
-        <v>93.08</v>
+        <v>103.82</v>
       </c>
       <c r="R45" s="36">
         <f t="shared" si="13"/>
-        <v>70.2</v>
+        <v>112.32000000000001</v>
       </c>
       <c r="S45" s="38">
         <f t="shared" si="14"/>
@@ -5674,15 +5675,15 @@
       </c>
       <c r="T45" s="31">
         <f t="shared" si="15"/>
-        <v>108.375</v>
+        <v>159.375</v>
       </c>
       <c r="U45" s="40">
         <f t="shared" si="16"/>
-        <v>73.05</v>
+        <v>92.53</v>
       </c>
       <c r="V45" s="42">
         <f t="shared" si="17"/>
-        <v>79.135000000000005</v>
+        <v>74.48</v>
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.3">
@@ -5713,46 +5714,46 @@
       </c>
       <c r="H46" s="33">
         <f t="shared" si="4"/>
-        <v>323.75</v>
+        <v>370</v>
       </c>
       <c r="I46" s="34">
         <f t="shared" si="5"/>
-        <v>57.830401501773537</v>
+        <v>72.288001877216928</v>
       </c>
       <c r="J46" s="36">
         <f t="shared" si="6"/>
-        <v>85.92</v>
+        <v>128.88000000000002</v>
       </c>
       <c r="K46" s="38">
         <f t="shared" si="7"/>
-        <v>81.64</v>
+        <v>106.76</v>
       </c>
       <c r="L46" s="31">
         <f t="shared" si="8"/>
-        <v>127.68</v>
+        <v>154.56</v>
       </c>
       <c r="M46" s="40">
         <f t="shared" si="9"/>
-        <v>87.92</v>
+        <v>100.47999999999999</v>
       </c>
       <c r="N46" s="42">
         <f t="shared" si="10"/>
-        <v>81</v>
+        <v>75.600000000000009</v>
       </c>
       <c r="O46" s="15">
         <v>44</v>
       </c>
       <c r="P46" s="33">
         <f t="shared" si="11"/>
-        <v>220.39999999999998</v>
+        <v>243.2</v>
       </c>
       <c r="Q46" s="34">
         <f t="shared" si="12"/>
-        <v>94.64</v>
+        <v>105.56</v>
       </c>
       <c r="R46" s="36">
         <f t="shared" si="13"/>
-        <v>71.600000000000009</v>
+        <v>114.56</v>
       </c>
       <c r="S46" s="38">
         <f t="shared" si="14"/>
@@ -5760,15 +5761,15 @@
       </c>
       <c r="T46" s="31">
         <f t="shared" si="15"/>
-        <v>110.5</v>
+        <v>162.5</v>
       </c>
       <c r="U46" s="40">
         <f t="shared" si="16"/>
-        <v>74.399999999999991</v>
+        <v>94.24</v>
       </c>
       <c r="V46" s="42">
         <f t="shared" si="17"/>
-        <v>80.580000000000013</v>
+        <v>75.84</v>
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.3">
@@ -5799,46 +5800,46 @@
       </c>
       <c r="H47" s="33">
         <f t="shared" si="4"/>
-        <v>330.3125</v>
+        <v>377.5</v>
       </c>
       <c r="I47" s="34">
         <f t="shared" si="5"/>
-        <v>59.276161539317876</v>
+        <v>74.095201924147347</v>
       </c>
       <c r="J47" s="36">
         <f t="shared" si="6"/>
-        <v>87.600000000000009</v>
+        <v>131.40000000000003</v>
       </c>
       <c r="K47" s="38">
         <f t="shared" si="7"/>
-        <v>83.2</v>
+        <v>108.8</v>
       </c>
       <c r="L47" s="31">
         <f t="shared" si="8"/>
-        <v>130.15</v>
+        <v>157.55000000000001</v>
       </c>
       <c r="M47" s="40">
         <f t="shared" si="9"/>
-        <v>89.6</v>
+        <v>102.39999999999999</v>
       </c>
       <c r="N47" s="42">
         <f t="shared" si="10"/>
-        <v>82.5</v>
+        <v>77</v>
       </c>
       <c r="O47" s="15">
         <v>45</v>
       </c>
       <c r="P47" s="33">
         <f t="shared" si="11"/>
-        <v>224.74999999999997</v>
+        <v>248</v>
       </c>
       <c r="Q47" s="34">
         <f t="shared" si="12"/>
-        <v>96.2</v>
+        <v>107.3</v>
       </c>
       <c r="R47" s="36">
         <f t="shared" si="13"/>
-        <v>73</v>
+        <v>116.80000000000001</v>
       </c>
       <c r="S47" s="38">
         <f t="shared" si="14"/>
@@ -5846,15 +5847,15 @@
       </c>
       <c r="T47" s="31">
         <f t="shared" si="15"/>
-        <v>112.625</v>
+        <v>165.625</v>
       </c>
       <c r="U47" s="40">
         <f t="shared" si="16"/>
-        <v>75.75</v>
+        <v>95.95</v>
       </c>
       <c r="V47" s="42">
         <f t="shared" si="17"/>
-        <v>82.025000000000006</v>
+        <v>77.2</v>
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.3">
@@ -5885,46 +5886,46 @@
       </c>
       <c r="H48" s="33">
         <f t="shared" si="4"/>
-        <v>336.875</v>
+        <v>385</v>
       </c>
       <c r="I48" s="34">
         <f t="shared" si="5"/>
-        <v>60.758065577800821</v>
+        <v>75.947581972251029</v>
       </c>
       <c r="J48" s="36">
         <f t="shared" si="6"/>
-        <v>89.28</v>
+        <v>133.92000000000002</v>
       </c>
       <c r="K48" s="38">
         <f t="shared" si="7"/>
-        <v>84.76</v>
+        <v>110.84</v>
       </c>
       <c r="L48" s="31">
         <f t="shared" si="8"/>
-        <v>132.62</v>
+        <v>160.54000000000002</v>
       </c>
       <c r="M48" s="40">
         <f t="shared" si="9"/>
-        <v>91.28</v>
+        <v>104.32</v>
       </c>
       <c r="N48" s="42">
         <f t="shared" si="10"/>
-        <v>84</v>
+        <v>78.400000000000006</v>
       </c>
       <c r="O48" s="15">
         <v>46</v>
       </c>
       <c r="P48" s="33">
         <f t="shared" si="11"/>
-        <v>229.1</v>
+        <v>252.79999999999998</v>
       </c>
       <c r="Q48" s="34">
         <f t="shared" si="12"/>
-        <v>97.76</v>
+        <v>109.04</v>
       </c>
       <c r="R48" s="36">
         <f t="shared" si="13"/>
-        <v>74.400000000000006</v>
+        <v>119.04</v>
       </c>
       <c r="S48" s="38">
         <f t="shared" si="14"/>
@@ -5932,15 +5933,15 @@
       </c>
       <c r="T48" s="31">
         <f t="shared" si="15"/>
-        <v>114.75</v>
+        <v>168.75</v>
       </c>
       <c r="U48" s="40">
         <f t="shared" si="16"/>
-        <v>77.099999999999994</v>
+        <v>97.66</v>
       </c>
       <c r="V48" s="42">
         <f t="shared" si="17"/>
-        <v>83.47</v>
+        <v>78.56</v>
       </c>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.3">
@@ -5971,46 +5972,46 @@
       </c>
       <c r="H49" s="33">
         <f t="shared" si="4"/>
-        <v>343.4375</v>
+        <v>392.5</v>
       </c>
       <c r="I49" s="34">
         <f t="shared" si="5"/>
-        <v>62.277017217245842</v>
+        <v>77.846271521557298</v>
       </c>
       <c r="J49" s="36">
         <f t="shared" si="6"/>
-        <v>90.960000000000008</v>
+        <v>136.44000000000003</v>
       </c>
       <c r="K49" s="38">
         <f t="shared" si="7"/>
-        <v>86.320000000000007</v>
+        <v>112.88</v>
       </c>
       <c r="L49" s="31">
         <f t="shared" si="8"/>
-        <v>135.09</v>
+        <v>163.53</v>
       </c>
       <c r="M49" s="40">
         <f t="shared" si="9"/>
-        <v>92.96</v>
+        <v>106.24</v>
       </c>
       <c r="N49" s="42">
         <f t="shared" si="10"/>
-        <v>85.5</v>
+        <v>79.800000000000011</v>
       </c>
       <c r="O49" s="15">
         <v>47</v>
       </c>
       <c r="P49" s="33">
         <f t="shared" si="11"/>
-        <v>233.45</v>
+        <v>257.60000000000002</v>
       </c>
       <c r="Q49" s="34">
         <f t="shared" si="12"/>
-        <v>99.320000000000007</v>
+        <v>110.78</v>
       </c>
       <c r="R49" s="36">
         <f t="shared" si="13"/>
-        <v>75.800000000000011</v>
+        <v>121.28000000000002</v>
       </c>
       <c r="S49" s="38">
         <f t="shared" si="14"/>
@@ -6018,15 +6019,15 @@
       </c>
       <c r="T49" s="31">
         <f t="shared" si="15"/>
-        <v>116.875</v>
+        <v>171.875</v>
       </c>
       <c r="U49" s="40">
         <f t="shared" si="16"/>
-        <v>78.449999999999989</v>
+        <v>99.37</v>
       </c>
       <c r="V49" s="42">
         <f t="shared" si="17"/>
-        <v>84.915000000000006</v>
+        <v>79.92</v>
       </c>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.3">
@@ -6057,46 +6058,46 @@
       </c>
       <c r="H50" s="33">
         <f t="shared" si="4"/>
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="I50" s="34">
         <f t="shared" si="5"/>
-        <v>63.833942647676984</v>
+        <v>79.792428309596232</v>
       </c>
       <c r="J50" s="36">
         <f t="shared" si="6"/>
-        <v>92.640000000000015</v>
+        <v>138.96000000000004</v>
       </c>
       <c r="K50" s="38">
         <f t="shared" si="7"/>
-        <v>87.88</v>
+        <v>114.92</v>
       </c>
       <c r="L50" s="31">
         <f t="shared" si="8"/>
-        <v>137.56</v>
+        <v>166.52</v>
       </c>
       <c r="M50" s="40">
         <f t="shared" si="9"/>
-        <v>94.64</v>
+        <v>108.16</v>
       </c>
       <c r="N50" s="42">
         <f t="shared" si="10"/>
-        <v>87</v>
+        <v>81.2</v>
       </c>
       <c r="O50" s="15">
         <v>48</v>
       </c>
       <c r="P50" s="33">
         <f t="shared" si="11"/>
-        <v>237.79999999999998</v>
+        <v>262.39999999999998</v>
       </c>
       <c r="Q50" s="34">
         <f t="shared" si="12"/>
-        <v>100.88</v>
+        <v>112.52</v>
       </c>
       <c r="R50" s="36">
         <f t="shared" si="13"/>
-        <v>77.2</v>
+        <v>123.52000000000001</v>
       </c>
       <c r="S50" s="38">
         <f t="shared" si="14"/>
@@ -6104,15 +6105,15 @@
       </c>
       <c r="T50" s="31">
         <f t="shared" si="15"/>
-        <v>119</v>
+        <v>175</v>
       </c>
       <c r="U50" s="40">
         <f t="shared" si="16"/>
-        <v>79.8</v>
+        <v>101.08</v>
       </c>
       <c r="V50" s="42">
         <f t="shared" si="17"/>
-        <v>86.36</v>
+        <v>81.28</v>
       </c>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.3">
@@ -6143,46 +6144,46 @@
       </c>
       <c r="H51" s="33">
         <f t="shared" si="4"/>
-        <v>356.5625</v>
+        <v>407.5</v>
       </c>
       <c r="I51" s="34">
         <f t="shared" si="5"/>
-        <v>65.42979121386891</v>
+        <v>81.787239017336134</v>
       </c>
       <c r="J51" s="36">
         <f t="shared" si="6"/>
-        <v>94.320000000000007</v>
+        <v>141.48000000000002</v>
       </c>
       <c r="K51" s="38">
         <f t="shared" si="7"/>
-        <v>89.44</v>
+        <v>116.96000000000001</v>
       </c>
       <c r="L51" s="31">
         <f t="shared" si="8"/>
-        <v>140.03000000000003</v>
+        <v>169.51000000000002</v>
       </c>
       <c r="M51" s="40">
         <f t="shared" si="9"/>
-        <v>96.32</v>
+        <v>110.08</v>
       </c>
       <c r="N51" s="42">
         <f t="shared" si="10"/>
-        <v>88.5</v>
+        <v>82.600000000000009</v>
       </c>
       <c r="O51" s="15">
         <v>49</v>
       </c>
       <c r="P51" s="33">
         <f t="shared" si="11"/>
-        <v>242.14999999999998</v>
+        <v>267.2</v>
       </c>
       <c r="Q51" s="34">
         <f t="shared" si="12"/>
-        <v>102.44</v>
+        <v>114.26</v>
       </c>
       <c r="R51" s="36">
         <f t="shared" si="13"/>
-        <v>78.600000000000009</v>
+        <v>125.76</v>
       </c>
       <c r="S51" s="38">
         <f t="shared" si="14"/>
@@ -6190,15 +6191,15 @@
       </c>
       <c r="T51" s="31">
         <f t="shared" si="15"/>
-        <v>121.125</v>
+        <v>178.125</v>
       </c>
       <c r="U51" s="40">
         <f t="shared" si="16"/>
-        <v>81.149999999999991</v>
+        <v>102.78999999999999</v>
       </c>
       <c r="V51" s="42">
         <f t="shared" si="17"/>
-        <v>87.805000000000007</v>
+        <v>82.64</v>
       </c>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.3">
@@ -6229,46 +6230,46 @@
       </c>
       <c r="H52" s="33">
         <f t="shared" si="4"/>
-        <v>363.125</v>
+        <v>415</v>
       </c>
       <c r="I52" s="34">
         <f t="shared" si="5"/>
-        <v>67.065535994215637</v>
+        <v>83.831919992769542</v>
       </c>
       <c r="J52" s="36">
         <f t="shared" si="6"/>
-        <v>96.000000000000014</v>
+        <v>144.00000000000003</v>
       </c>
       <c r="K52" s="38">
         <f t="shared" si="7"/>
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="L52" s="31">
         <f t="shared" si="8"/>
-        <v>142.5</v>
+        <v>172.5</v>
       </c>
       <c r="M52" s="40">
         <f t="shared" si="9"/>
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="N52" s="42">
         <f t="shared" si="10"/>
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="O52" s="15">
         <v>50</v>
       </c>
       <c r="P52" s="33">
         <f t="shared" si="11"/>
-        <v>246.49999999999997</v>
+        <v>272</v>
       </c>
       <c r="Q52" s="34">
         <f t="shared" si="12"/>
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="R52" s="36">
         <f t="shared" si="13"/>
-        <v>80</v>
+        <v>128</v>
       </c>
       <c r="S52" s="38">
         <f t="shared" si="14"/>
@@ -6276,15 +6277,15 @@
       </c>
       <c r="T52" s="31">
         <f t="shared" si="15"/>
-        <v>123.25</v>
+        <v>181.25</v>
       </c>
       <c r="U52" s="40">
         <f t="shared" si="16"/>
-        <v>82.5</v>
+        <v>104.5</v>
       </c>
       <c r="V52" s="42">
         <f t="shared" si="17"/>
-        <v>89.25</v>
+        <v>84</v>
       </c>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.3">
@@ -6315,46 +6316,46 @@
       </c>
       <c r="H53" s="33">
         <f t="shared" si="4"/>
-        <v>369.6875</v>
+        <v>422.5</v>
       </c>
       <c r="I53" s="34">
         <f t="shared" si="5"/>
-        <v>68.742174394071029</v>
+        <v>85.927717992588782</v>
       </c>
       <c r="J53" s="36">
         <f t="shared" si="6"/>
-        <v>97.68</v>
+        <v>146.52000000000001</v>
       </c>
       <c r="K53" s="38">
         <f t="shared" si="7"/>
-        <v>92.56</v>
+        <v>121.04</v>
       </c>
       <c r="L53" s="31">
         <f t="shared" si="8"/>
-        <v>144.97000000000003</v>
+        <v>175.49</v>
       </c>
       <c r="M53" s="40">
         <f t="shared" si="9"/>
-        <v>99.679999999999993</v>
+        <v>113.92</v>
       </c>
       <c r="N53" s="42">
         <f t="shared" si="10"/>
-        <v>91.5</v>
+        <v>85.4</v>
       </c>
       <c r="O53" s="15">
         <v>51</v>
       </c>
       <c r="P53" s="33">
         <f t="shared" si="11"/>
-        <v>250.85</v>
+        <v>276.79999999999995</v>
       </c>
       <c r="Q53" s="34">
         <f t="shared" si="12"/>
-        <v>105.56</v>
+        <v>117.74</v>
       </c>
       <c r="R53" s="36">
         <f t="shared" si="13"/>
-        <v>81.400000000000006</v>
+        <v>130.24</v>
       </c>
       <c r="S53" s="38">
         <f t="shared" si="14"/>
@@ -6362,15 +6363,15 @@
       </c>
       <c r="T53" s="31">
         <f t="shared" si="15"/>
-        <v>125.375</v>
+        <v>184.375</v>
       </c>
       <c r="U53" s="40">
         <f t="shared" si="16"/>
-        <v>83.85</v>
+        <v>106.21</v>
       </c>
       <c r="V53" s="42">
         <f t="shared" si="17"/>
-        <v>90.695000000000007</v>
+        <v>85.36</v>
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.3">
@@ -6401,46 +6402,46 @@
       </c>
       <c r="H54" s="33">
         <f t="shared" si="4"/>
-        <v>376.25</v>
+        <v>430</v>
       </c>
       <c r="I54" s="34">
         <f t="shared" si="5"/>
-        <v>70.460728753922808</v>
+        <v>88.075910942403496</v>
       </c>
       <c r="J54" s="36">
         <f t="shared" si="6"/>
-        <v>99.360000000000014</v>
+        <v>149.04000000000002</v>
       </c>
       <c r="K54" s="38">
         <f t="shared" si="7"/>
-        <v>94.12</v>
+        <v>123.08</v>
       </c>
       <c r="L54" s="31">
         <f t="shared" si="8"/>
-        <v>147.44</v>
+        <v>178.48000000000002</v>
       </c>
       <c r="M54" s="40">
         <f t="shared" si="9"/>
-        <v>101.36</v>
+        <v>115.84</v>
       </c>
       <c r="N54" s="42">
         <f t="shared" si="10"/>
-        <v>93</v>
+        <v>86.800000000000011</v>
       </c>
       <c r="O54" s="15">
         <v>52</v>
       </c>
       <c r="P54" s="33">
         <f t="shared" si="11"/>
-        <v>255.2</v>
+        <v>281.60000000000002</v>
       </c>
       <c r="Q54" s="34">
         <f t="shared" si="12"/>
-        <v>107.12</v>
+        <v>119.48</v>
       </c>
       <c r="R54" s="36">
         <f t="shared" si="13"/>
-        <v>82.800000000000011</v>
+        <v>132.48000000000002</v>
       </c>
       <c r="S54" s="38">
         <f t="shared" si="14"/>
@@ -6448,15 +6449,15 @@
       </c>
       <c r="T54" s="31">
         <f t="shared" si="15"/>
-        <v>127.5</v>
+        <v>187.5</v>
       </c>
       <c r="U54" s="40">
         <f t="shared" si="16"/>
-        <v>85.199999999999989</v>
+        <v>107.92</v>
       </c>
       <c r="V54" s="42">
         <f t="shared" si="17"/>
-        <v>92.14</v>
+        <v>86.72</v>
       </c>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.3">
@@ -6487,46 +6488,46 @@
       </c>
       <c r="H55" s="33">
         <f t="shared" si="4"/>
-        <v>382.8125</v>
+        <v>437.5</v>
       </c>
       <c r="I55" s="34">
         <f t="shared" si="5"/>
-        <v>72.222246972770876</v>
+        <v>90.277808715963587</v>
       </c>
       <c r="J55" s="36">
         <f t="shared" si="6"/>
-        <v>101.04</v>
+        <v>151.56000000000003</v>
       </c>
       <c r="K55" s="38">
         <f t="shared" si="7"/>
-        <v>95.68</v>
+        <v>125.12</v>
       </c>
       <c r="L55" s="31">
         <f t="shared" si="8"/>
-        <v>149.91</v>
+        <v>181.47</v>
       </c>
       <c r="M55" s="40">
         <f t="shared" si="9"/>
-        <v>103.03999999999999</v>
+        <v>117.75999999999999</v>
       </c>
       <c r="N55" s="42">
         <f t="shared" si="10"/>
-        <v>94.5</v>
+        <v>88.2</v>
       </c>
       <c r="O55" s="15">
         <v>53</v>
       </c>
       <c r="P55" s="33">
         <f t="shared" si="11"/>
-        <v>259.54999999999995</v>
+        <v>286.39999999999998</v>
       </c>
       <c r="Q55" s="34">
         <f t="shared" si="12"/>
-        <v>108.68</v>
+        <v>121.22</v>
       </c>
       <c r="R55" s="36">
         <f t="shared" si="13"/>
-        <v>84.2</v>
+        <v>134.72000000000003</v>
       </c>
       <c r="S55" s="38">
         <f t="shared" si="14"/>
@@ -6534,15 +6535,15 @@
       </c>
       <c r="T55" s="31">
         <f t="shared" si="15"/>
-        <v>129.625</v>
+        <v>190.625</v>
       </c>
       <c r="U55" s="40">
         <f t="shared" si="16"/>
-        <v>86.55</v>
+        <v>109.63</v>
       </c>
       <c r="V55" s="42">
         <f t="shared" si="17"/>
-        <v>93.585000000000008</v>
+        <v>88.08</v>
       </c>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.3">
@@ -6573,46 +6574,46 @@
       </c>
       <c r="H56" s="33">
         <f t="shared" si="4"/>
-        <v>389.375</v>
+        <v>445</v>
       </c>
       <c r="I56" s="34">
         <f t="shared" si="5"/>
-        <v>74.027803147090154</v>
+        <v>92.534753933862675</v>
       </c>
       <c r="J56" s="36">
         <f t="shared" si="6"/>
-        <v>102.72000000000001</v>
+        <v>154.08000000000001</v>
       </c>
       <c r="K56" s="38">
         <f t="shared" si="7"/>
-        <v>97.240000000000009</v>
+        <v>127.16</v>
       </c>
       <c r="L56" s="31">
         <f t="shared" si="8"/>
-        <v>152.38000000000002</v>
+        <v>184.46</v>
       </c>
       <c r="M56" s="40">
         <f t="shared" si="9"/>
-        <v>104.72</v>
+        <v>119.67999999999999</v>
       </c>
       <c r="N56" s="42">
         <f t="shared" si="10"/>
-        <v>96</v>
+        <v>89.600000000000009</v>
       </c>
       <c r="O56" s="15">
         <v>54</v>
       </c>
       <c r="P56" s="33">
         <f t="shared" si="11"/>
-        <v>263.89999999999998</v>
+        <v>291.2</v>
       </c>
       <c r="Q56" s="34">
         <f t="shared" si="12"/>
-        <v>110.24000000000001</v>
+        <v>122.96</v>
       </c>
       <c r="R56" s="36">
         <f t="shared" si="13"/>
-        <v>85.600000000000009</v>
+        <v>136.96</v>
       </c>
       <c r="S56" s="38">
         <f t="shared" si="14"/>
@@ -6620,15 +6621,15 @@
       </c>
       <c r="T56" s="31">
         <f t="shared" si="15"/>
-        <v>131.75</v>
+        <v>193.75</v>
       </c>
       <c r="U56" s="40">
         <f t="shared" si="16"/>
-        <v>87.899999999999991</v>
+        <v>111.34</v>
       </c>
       <c r="V56" s="42">
         <f t="shared" si="17"/>
-        <v>95.03</v>
+        <v>89.440000000000012</v>
       </c>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.3">
@@ -6659,46 +6660,46 @@
       </c>
       <c r="H57" s="33">
         <f t="shared" si="4"/>
-        <v>395.9375</v>
+        <v>452.5</v>
       </c>
       <c r="I57" s="34">
         <f t="shared" si="5"/>
-        <v>75.878498225767402</v>
+        <v>94.848122782209245</v>
       </c>
       <c r="J57" s="36">
         <f t="shared" si="6"/>
-        <v>104.4</v>
+        <v>156.60000000000002</v>
       </c>
       <c r="K57" s="38">
         <f t="shared" si="7"/>
-        <v>98.8</v>
+        <v>129.19999999999999</v>
       </c>
       <c r="L57" s="31">
         <f t="shared" si="8"/>
-        <v>154.85000000000002</v>
+        <v>187.45000000000002</v>
       </c>
       <c r="M57" s="40">
         <f t="shared" si="9"/>
-        <v>106.39999999999999</v>
+        <v>121.6</v>
       </c>
       <c r="N57" s="42">
         <f t="shared" si="10"/>
-        <v>97.5</v>
+        <v>91.000000000000014</v>
       </c>
       <c r="O57" s="15">
         <v>55</v>
       </c>
       <c r="P57" s="33">
         <f t="shared" si="11"/>
-        <v>268.25</v>
+        <v>296</v>
       </c>
       <c r="Q57" s="34">
         <f t="shared" si="12"/>
-        <v>111.8</v>
+        <v>124.7</v>
       </c>
       <c r="R57" s="36">
         <f t="shared" si="13"/>
-        <v>87.000000000000014</v>
+        <v>139.20000000000002</v>
       </c>
       <c r="S57" s="38">
         <f t="shared" si="14"/>
@@ -6706,15 +6707,15 @@
       </c>
       <c r="T57" s="31">
         <f t="shared" si="15"/>
-        <v>133.875</v>
+        <v>196.875</v>
       </c>
       <c r="U57" s="40">
         <f t="shared" si="16"/>
-        <v>89.249999999999986</v>
+        <v>113.05</v>
       </c>
       <c r="V57" s="42">
         <f t="shared" si="17"/>
-        <v>96.475000000000009</v>
+        <v>90.800000000000011</v>
       </c>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.3">
@@ -6745,46 +6746,46 @@
       </c>
       <c r="H58" s="33">
         <f t="shared" si="4"/>
-        <v>402.5</v>
+        <v>460</v>
       </c>
       <c r="I58" s="34">
         <f t="shared" si="5"/>
-        <v>77.775460681411587</v>
+        <v>97.219325851764481</v>
       </c>
       <c r="J58" s="36">
         <f t="shared" si="6"/>
-        <v>106.08000000000001</v>
+        <v>159.12000000000003</v>
       </c>
       <c r="K58" s="38">
         <f t="shared" si="7"/>
-        <v>100.36</v>
+        <v>131.24</v>
       </c>
       <c r="L58" s="31">
         <f t="shared" si="8"/>
-        <v>157.32000000000002</v>
+        <v>190.44</v>
       </c>
       <c r="M58" s="40">
         <f t="shared" si="9"/>
-        <v>108.08</v>
+        <v>123.52</v>
       </c>
       <c r="N58" s="42">
         <f t="shared" si="10"/>
-        <v>99</v>
+        <v>92.4</v>
       </c>
       <c r="O58" s="15">
         <v>56</v>
       </c>
       <c r="P58" s="33">
         <f t="shared" si="11"/>
-        <v>272.59999999999997</v>
+        <v>300.8</v>
       </c>
       <c r="Q58" s="34">
         <f t="shared" si="12"/>
-        <v>113.36</v>
+        <v>126.44</v>
       </c>
       <c r="R58" s="36">
         <f t="shared" si="13"/>
-        <v>88.4</v>
+        <v>141.44</v>
       </c>
       <c r="S58" s="38">
         <f t="shared" si="14"/>
@@ -6792,15 +6793,15 @@
       </c>
       <c r="T58" s="31">
         <f t="shared" si="15"/>
-        <v>136</v>
+        <v>200</v>
       </c>
       <c r="U58" s="40">
         <f t="shared" si="16"/>
-        <v>90.6</v>
+        <v>114.75999999999999</v>
       </c>
       <c r="V58" s="42">
         <f t="shared" si="17"/>
-        <v>97.92</v>
+        <v>92.160000000000011</v>
       </c>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.3">
@@ -6831,46 +6832,46 @@
       </c>
       <c r="H59" s="33">
         <f t="shared" si="4"/>
-        <v>409.0625</v>
+        <v>467.5</v>
       </c>
       <c r="I59" s="34">
         <f t="shared" si="5"/>
-        <v>79.719847198446871</v>
+        <v>99.649808998058589</v>
       </c>
       <c r="J59" s="36">
         <f t="shared" si="6"/>
-        <v>107.76</v>
+        <v>161.64000000000001</v>
       </c>
       <c r="K59" s="38">
         <f t="shared" si="7"/>
-        <v>101.92</v>
+        <v>133.28</v>
       </c>
       <c r="L59" s="31">
         <f t="shared" si="8"/>
-        <v>159.79000000000002</v>
+        <v>193.43</v>
       </c>
       <c r="M59" s="40">
         <f t="shared" si="9"/>
-        <v>109.75999999999999</v>
+        <v>125.44</v>
       </c>
       <c r="N59" s="42">
         <f t="shared" si="10"/>
-        <v>100.5</v>
+        <v>93.800000000000011</v>
       </c>
       <c r="O59" s="15">
         <v>57</v>
       </c>
       <c r="P59" s="33">
         <f t="shared" si="11"/>
-        <v>276.95</v>
+        <v>305.59999999999997</v>
       </c>
       <c r="Q59" s="34">
         <f t="shared" si="12"/>
-        <v>114.92</v>
+        <v>128.18</v>
       </c>
       <c r="R59" s="36">
         <f t="shared" si="13"/>
-        <v>89.800000000000011</v>
+        <v>143.68</v>
       </c>
       <c r="S59" s="38">
         <f t="shared" si="14"/>
@@ -6878,15 +6879,15 @@
       </c>
       <c r="T59" s="31">
         <f t="shared" si="15"/>
-        <v>138.125</v>
+        <v>203.125</v>
       </c>
       <c r="U59" s="40">
         <f t="shared" si="16"/>
-        <v>91.949999999999989</v>
+        <v>116.47</v>
       </c>
       <c r="V59" s="42">
         <f t="shared" si="17"/>
-        <v>99.365000000000009</v>
+        <v>93.52000000000001</v>
       </c>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.3">
@@ -6917,46 +6918,46 @@
       </c>
       <c r="H60" s="33">
         <f t="shared" si="4"/>
-        <v>415.625</v>
+        <v>475</v>
       </c>
       <c r="I60" s="34">
         <f t="shared" si="5"/>
-        <v>81.712843378408039</v>
+        <v>102.14105422301006</v>
       </c>
       <c r="J60" s="36">
         <f t="shared" si="6"/>
-        <v>109.44000000000001</v>
+        <v>164.16000000000003</v>
       </c>
       <c r="K60" s="38">
         <f t="shared" si="7"/>
-        <v>103.48</v>
+        <v>135.32</v>
       </c>
       <c r="L60" s="31">
         <f t="shared" si="8"/>
-        <v>162.26000000000002</v>
+        <v>196.42000000000002</v>
       </c>
       <c r="M60" s="40">
         <f t="shared" si="9"/>
-        <v>111.44</v>
+        <v>127.36</v>
       </c>
       <c r="N60" s="42">
         <f t="shared" si="10"/>
-        <v>102</v>
+        <v>95.2</v>
       </c>
       <c r="O60" s="15">
         <v>58</v>
       </c>
       <c r="P60" s="33">
         <f t="shared" si="11"/>
-        <v>281.29999999999995</v>
+        <v>310.39999999999998</v>
       </c>
       <c r="Q60" s="34">
         <f t="shared" si="12"/>
-        <v>116.48</v>
+        <v>129.92000000000002</v>
       </c>
       <c r="R60" s="36">
         <f t="shared" si="13"/>
-        <v>91.2</v>
+        <v>145.92000000000002</v>
       </c>
       <c r="S60" s="38">
         <f t="shared" si="14"/>
@@ -6964,15 +6965,15 @@
       </c>
       <c r="T60" s="31">
         <f t="shared" si="15"/>
-        <v>140.25</v>
+        <v>206.25</v>
       </c>
       <c r="U60" s="40">
         <f t="shared" si="16"/>
-        <v>93.3</v>
+        <v>118.17999999999999</v>
       </c>
       <c r="V60" s="42">
         <f t="shared" si="17"/>
-        <v>100.81</v>
+        <v>94.88000000000001</v>
       </c>
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.3">
@@ -7003,46 +7004,46 @@
       </c>
       <c r="H61" s="33">
         <f t="shared" si="4"/>
-        <v>422.1875</v>
+        <v>482.5</v>
       </c>
       <c r="I61" s="34">
         <f t="shared" si="5"/>
-        <v>83.755664462868239</v>
+        <v>104.69458057858532</v>
       </c>
       <c r="J61" s="36">
         <f t="shared" si="6"/>
-        <v>111.12</v>
+        <v>166.68000000000004</v>
       </c>
       <c r="K61" s="38">
         <f t="shared" si="7"/>
-        <v>105.04</v>
+        <v>137.36000000000001</v>
       </c>
       <c r="L61" s="31">
         <f t="shared" si="8"/>
-        <v>164.73000000000002</v>
+        <v>199.41000000000003</v>
       </c>
       <c r="M61" s="40">
         <f t="shared" si="9"/>
-        <v>113.11999999999999</v>
+        <v>129.28</v>
       </c>
       <c r="N61" s="42">
         <f t="shared" si="10"/>
-        <v>103.5</v>
+        <v>96.600000000000009</v>
       </c>
       <c r="O61" s="15">
         <v>59</v>
       </c>
       <c r="P61" s="33">
         <f t="shared" si="11"/>
-        <v>285.64999999999998</v>
+        <v>315.2</v>
       </c>
       <c r="Q61" s="34">
         <f t="shared" si="12"/>
-        <v>118.04</v>
+        <v>131.66</v>
       </c>
       <c r="R61" s="36">
         <f t="shared" si="13"/>
-        <v>92.600000000000009</v>
+        <v>148.16000000000003</v>
       </c>
       <c r="S61" s="38">
         <f t="shared" si="14"/>
@@ -7050,15 +7051,15 @@
       </c>
       <c r="T61" s="31">
         <f t="shared" si="15"/>
-        <v>142.375</v>
+        <v>209.375</v>
       </c>
       <c r="U61" s="40">
         <f t="shared" si="16"/>
-        <v>94.649999999999991</v>
+        <v>119.89</v>
       </c>
       <c r="V61" s="42">
         <f t="shared" si="17"/>
-        <v>102.25500000000001</v>
+        <v>96.240000000000009</v>
       </c>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.3">
@@ -7089,46 +7090,46 @@
       </c>
       <c r="H62" s="33">
         <f t="shared" si="4"/>
-        <v>428.75</v>
+        <v>490</v>
       </c>
       <c r="I62" s="34">
         <f t="shared" si="5"/>
-        <v>85.849556074439946</v>
+        <v>107.31194509304996</v>
       </c>
       <c r="J62" s="36">
         <f t="shared" si="6"/>
-        <v>112.80000000000001</v>
+        <v>169.20000000000002</v>
       </c>
       <c r="K62" s="38">
         <f t="shared" si="7"/>
-        <v>106.60000000000001</v>
+        <v>139.4</v>
       </c>
       <c r="L62" s="31">
         <f t="shared" si="8"/>
-        <v>167.20000000000002</v>
+        <v>202.4</v>
       </c>
       <c r="M62" s="40">
         <f t="shared" si="9"/>
-        <v>114.8</v>
+        <v>131.19999999999999</v>
       </c>
       <c r="N62" s="42">
         <f t="shared" si="10"/>
-        <v>105</v>
+        <v>98.000000000000014</v>
       </c>
       <c r="O62" s="15">
         <v>60</v>
       </c>
       <c r="P62" s="33">
         <f t="shared" si="11"/>
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="Q62" s="34">
         <f t="shared" si="12"/>
-        <v>119.60000000000001</v>
+        <v>133.4</v>
       </c>
       <c r="R62" s="36">
         <f t="shared" si="13"/>
-        <v>94.000000000000014</v>
+        <v>150.4</v>
       </c>
       <c r="S62" s="38">
         <f t="shared" si="14"/>
@@ -7136,15 +7137,15 @@
       </c>
       <c r="T62" s="31">
         <f t="shared" si="15"/>
-        <v>144.5</v>
+        <v>212.5</v>
       </c>
       <c r="U62" s="40">
         <f t="shared" si="16"/>
-        <v>95.999999999999986</v>
+        <v>121.6</v>
       </c>
       <c r="V62" s="42">
         <f t="shared" si="17"/>
-        <v>103.7</v>
+        <v>97.600000000000009</v>
       </c>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.3">
@@ -7175,46 +7176,46 @@
       </c>
       <c r="H63" s="33">
         <f t="shared" si="4"/>
-        <v>435.3125</v>
+        <v>497.5</v>
       </c>
       <c r="I63" s="34">
         <f t="shared" si="5"/>
-        <v>87.995794976300942</v>
+        <v>109.99474372037621</v>
       </c>
       <c r="J63" s="36">
         <f t="shared" si="6"/>
-        <v>114.48</v>
+        <v>171.72000000000003</v>
       </c>
       <c r="K63" s="38">
         <f t="shared" si="7"/>
-        <v>108.16</v>
+        <v>141.44</v>
       </c>
       <c r="L63" s="31">
         <f t="shared" si="8"/>
-        <v>169.67000000000002</v>
+        <v>205.39000000000001</v>
       </c>
       <c r="M63" s="40">
         <f t="shared" si="9"/>
-        <v>116.47999999999999</v>
+        <v>133.12</v>
       </c>
       <c r="N63" s="42">
         <f t="shared" si="10"/>
-        <v>106.5</v>
+        <v>99.4</v>
       </c>
       <c r="O63" s="15">
         <v>61</v>
       </c>
       <c r="P63" s="33">
         <f t="shared" si="11"/>
-        <v>294.34999999999997</v>
+        <v>324.8</v>
       </c>
       <c r="Q63" s="34">
         <f t="shared" si="12"/>
-        <v>121.16</v>
+        <v>135.13999999999999</v>
       </c>
       <c r="R63" s="36">
         <f t="shared" si="13"/>
-        <v>95.4</v>
+        <v>152.64000000000001</v>
       </c>
       <c r="S63" s="38">
         <f t="shared" si="14"/>
@@ -7222,15 +7223,15 @@
       </c>
       <c r="T63" s="31">
         <f t="shared" si="15"/>
-        <v>146.625</v>
+        <v>215.625</v>
       </c>
       <c r="U63" s="40">
         <f t="shared" si="16"/>
-        <v>97.35</v>
+        <v>123.31</v>
       </c>
       <c r="V63" s="42">
         <f t="shared" si="17"/>
-        <v>105.14500000000001</v>
+        <v>98.960000000000008</v>
       </c>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.3">
@@ -7261,46 +7262,46 @@
       </c>
       <c r="H64" s="33">
         <f t="shared" si="4"/>
-        <v>441.875</v>
+        <v>505</v>
       </c>
       <c r="I64" s="34">
         <f t="shared" si="5"/>
-        <v>90.195689850708462</v>
+        <v>112.74461231338562</v>
       </c>
       <c r="J64" s="36">
         <f t="shared" si="6"/>
-        <v>116.16000000000001</v>
+        <v>174.24000000000004</v>
       </c>
       <c r="K64" s="38">
         <f t="shared" si="7"/>
-        <v>109.72</v>
+        <v>143.48000000000002</v>
       </c>
       <c r="L64" s="31">
         <f t="shared" si="8"/>
-        <v>172.14000000000001</v>
+        <v>208.38000000000002</v>
       </c>
       <c r="M64" s="40">
         <f t="shared" si="9"/>
-        <v>118.16</v>
+        <v>135.04</v>
       </c>
       <c r="N64" s="42">
         <f t="shared" si="10"/>
-        <v>108</v>
+        <v>100.80000000000001</v>
       </c>
       <c r="O64" s="15">
         <v>62</v>
       </c>
       <c r="P64" s="33">
         <f t="shared" si="11"/>
-        <v>298.7</v>
+        <v>329.59999999999997</v>
       </c>
       <c r="Q64" s="34">
         <f t="shared" si="12"/>
-        <v>122.72</v>
+        <v>136.88</v>
       </c>
       <c r="R64" s="36">
         <f t="shared" si="13"/>
-        <v>96.800000000000011</v>
+        <v>154.88000000000002</v>
       </c>
       <c r="S64" s="38">
         <f t="shared" si="14"/>
@@ -7308,15 +7309,15 @@
       </c>
       <c r="T64" s="31">
         <f t="shared" si="15"/>
-        <v>148.75</v>
+        <v>218.75</v>
       </c>
       <c r="U64" s="40">
         <f t="shared" si="16"/>
-        <v>98.699999999999989</v>
+        <v>125.02</v>
       </c>
       <c r="V64" s="42">
         <f t="shared" si="17"/>
-        <v>106.59</v>
+        <v>100.32000000000001</v>
       </c>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.3">
@@ -7347,46 +7348,46 @@
       </c>
       <c r="H65" s="33">
         <f t="shared" si="4"/>
-        <v>448.4375</v>
+        <v>512.5</v>
       </c>
       <c r="I65" s="34">
         <f t="shared" si="5"/>
-        <v>92.450582096976177</v>
+        <v>115.56322762122025</v>
       </c>
       <c r="J65" s="36">
         <f t="shared" si="6"/>
-        <v>117.84</v>
+        <v>176.76000000000002</v>
       </c>
       <c r="K65" s="38">
         <f t="shared" si="7"/>
-        <v>111.28</v>
+        <v>145.52000000000001</v>
       </c>
       <c r="L65" s="31">
         <f t="shared" si="8"/>
-        <v>174.61</v>
+        <v>211.37</v>
       </c>
       <c r="M65" s="40">
         <f t="shared" si="9"/>
-        <v>119.83999999999999</v>
+        <v>136.95999999999998</v>
       </c>
       <c r="N65" s="42">
         <f t="shared" si="10"/>
-        <v>109.5</v>
+        <v>102.2</v>
       </c>
       <c r="O65" s="15">
         <v>63</v>
       </c>
       <c r="P65" s="33">
         <f t="shared" si="11"/>
-        <v>303.04999999999995</v>
+        <v>334.4</v>
       </c>
       <c r="Q65" s="34">
         <f t="shared" si="12"/>
-        <v>124.28</v>
+        <v>138.62</v>
       </c>
       <c r="R65" s="36">
         <f t="shared" si="13"/>
-        <v>98.2</v>
+        <v>157.12</v>
       </c>
       <c r="S65" s="38">
         <f t="shared" si="14"/>
@@ -7394,15 +7395,15 @@
       </c>
       <c r="T65" s="31">
         <f t="shared" si="15"/>
-        <v>150.875</v>
+        <v>221.875</v>
       </c>
       <c r="U65" s="40">
         <f t="shared" si="16"/>
-        <v>100.05</v>
+        <v>126.73</v>
       </c>
       <c r="V65" s="42">
         <f t="shared" si="17"/>
-        <v>108.03500000000001</v>
+        <v>101.68</v>
       </c>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.3">
@@ -7433,46 +7434,46 @@
       </c>
       <c r="H66" s="33">
         <f t="shared" si="4"/>
-        <v>455</v>
+        <v>520</v>
       </c>
       <c r="I66" s="34">
         <f t="shared" si="5"/>
-        <v>94.761846649400582</v>
+        <v>118.45230831175076</v>
       </c>
       <c r="J66" s="36">
         <f t="shared" si="6"/>
-        <v>119.52000000000001</v>
+        <v>179.28000000000003</v>
       </c>
       <c r="K66" s="38">
         <f t="shared" si="7"/>
-        <v>112.84</v>
+        <v>147.56</v>
       </c>
       <c r="L66" s="31">
         <f t="shared" si="8"/>
-        <v>177.08</v>
+        <v>214.36</v>
       </c>
       <c r="M66" s="40">
         <f t="shared" si="9"/>
-        <v>121.52</v>
+        <v>138.88</v>
       </c>
       <c r="N66" s="42">
         <f t="shared" si="10"/>
-        <v>111</v>
+        <v>103.60000000000001</v>
       </c>
       <c r="O66" s="15">
         <v>64</v>
       </c>
       <c r="P66" s="33">
         <f t="shared" si="11"/>
-        <v>307.39999999999998</v>
+        <v>339.2</v>
       </c>
       <c r="Q66" s="34">
         <f t="shared" si="12"/>
-        <v>125.84</v>
+        <v>140.36000000000001</v>
       </c>
       <c r="R66" s="36">
         <f t="shared" si="13"/>
-        <v>99.600000000000009</v>
+        <v>159.36000000000001</v>
       </c>
       <c r="S66" s="38">
         <f t="shared" si="14"/>
@@ -7480,15 +7481,15 @@
       </c>
       <c r="T66" s="31">
         <f t="shared" si="15"/>
-        <v>153</v>
+        <v>225</v>
       </c>
       <c r="U66" s="40">
         <f t="shared" si="16"/>
-        <v>101.39999999999999</v>
+        <v>128.44</v>
       </c>
       <c r="V66" s="42">
         <f t="shared" si="17"/>
-        <v>109.48</v>
+        <v>103.04</v>
       </c>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.3">
@@ -7519,46 +7520,46 @@
       </c>
       <c r="H67" s="33">
         <f t="shared" si="4"/>
-        <v>461.5625</v>
+        <v>527.5</v>
       </c>
       <c r="I67" s="34">
         <f t="shared" si="5"/>
-        <v>97.13089281563559</v>
+        <v>121.41361601954452</v>
       </c>
       <c r="J67" s="36">
         <f t="shared" si="6"/>
-        <v>121.20000000000002</v>
+        <v>181.80000000000004</v>
       </c>
       <c r="K67" s="38">
         <f t="shared" si="7"/>
-        <v>114.4</v>
+        <v>149.6</v>
       </c>
       <c r="L67" s="31">
         <f t="shared" si="8"/>
-        <v>179.55</v>
+        <v>217.35000000000002</v>
       </c>
       <c r="M67" s="40">
         <f t="shared" si="9"/>
-        <v>123.2</v>
+        <v>140.80000000000001</v>
       </c>
       <c r="N67" s="42">
         <f t="shared" si="10"/>
-        <v>112.5</v>
+        <v>105.00000000000001</v>
       </c>
       <c r="O67" s="15">
         <v>65</v>
       </c>
       <c r="P67" s="33">
         <f t="shared" si="11"/>
-        <v>311.75</v>
+        <v>344</v>
       </c>
       <c r="Q67" s="34">
         <f t="shared" si="12"/>
-        <v>127.4</v>
+        <v>142.1</v>
       </c>
       <c r="R67" s="36">
         <f t="shared" si="13"/>
-        <v>101.00000000000001</v>
+        <v>161.60000000000002</v>
       </c>
       <c r="S67" s="38">
         <f t="shared" si="14"/>
@@ -7566,15 +7567,15 @@
       </c>
       <c r="T67" s="31">
         <f t="shared" si="15"/>
-        <v>155.125</v>
+        <v>228.125</v>
       </c>
       <c r="U67" s="40">
         <f t="shared" si="16"/>
-        <v>102.74999999999999</v>
+        <v>130.14999999999998</v>
       </c>
       <c r="V67" s="42">
         <f t="shared" si="17"/>
-        <v>110.925</v>
+        <v>104.4</v>
       </c>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.3">
@@ -7605,46 +7606,46 @@
       </c>
       <c r="H68" s="33">
         <f t="shared" si="4"/>
-        <v>468.125</v>
+        <v>535</v>
       </c>
       <c r="I68" s="34">
         <f t="shared" si="5"/>
-        <v>99.559165136026479</v>
+        <v>124.44895642003313</v>
       </c>
       <c r="J68" s="36">
         <f t="shared" si="6"/>
-        <v>122.88000000000001</v>
+        <v>184.32000000000002</v>
       </c>
       <c r="K68" s="38">
         <f t="shared" si="7"/>
-        <v>115.96000000000001</v>
+        <v>151.64000000000001</v>
       </c>
       <c r="L68" s="31">
         <f t="shared" si="8"/>
-        <v>182.02</v>
+        <v>220.34</v>
       </c>
       <c r="M68" s="40">
         <f t="shared" si="9"/>
-        <v>124.88</v>
+        <v>142.72</v>
       </c>
       <c r="N68" s="42">
         <f t="shared" si="10"/>
-        <v>114</v>
+        <v>106.4</v>
       </c>
       <c r="O68" s="15">
         <v>66</v>
       </c>
       <c r="P68" s="33">
         <f t="shared" si="11"/>
-        <v>316.09999999999997</v>
+        <v>348.8</v>
       </c>
       <c r="Q68" s="34">
         <f t="shared" si="12"/>
-        <v>128.96</v>
+        <v>143.84</v>
       </c>
       <c r="R68" s="36">
         <f t="shared" si="13"/>
-        <v>102.4</v>
+        <v>163.84</v>
       </c>
       <c r="S68" s="38">
         <f t="shared" si="14"/>
@@ -7652,15 +7653,15 @@
       </c>
       <c r="T68" s="31">
         <f t="shared" si="15"/>
-        <v>157.25</v>
+        <v>231.25</v>
       </c>
       <c r="U68" s="40">
         <f t="shared" si="16"/>
-        <v>104.1</v>
+        <v>131.86000000000001</v>
       </c>
       <c r="V68" s="42">
         <f t="shared" si="17"/>
-        <v>112.37</v>
+        <v>105.76</v>
       </c>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.3">
@@ -7691,46 +7692,46 @@
       </c>
       <c r="H69" s="33">
         <f t="shared" ref="H69:H102" si="24">$H$3+($H$3*0.1875)*G69</f>
-        <v>474.6875</v>
+        <v>542.5</v>
       </c>
       <c r="I69" s="34">
         <f t="shared" ref="I69:I102" si="25">I68+(I68*0.025)</f>
-        <v>102.04814426442714</v>
+        <v>127.56018033053395</v>
       </c>
       <c r="J69" s="36">
         <f t="shared" ref="J69:J102" si="26">$J$3+($J$3*0.14)*G69</f>
-        <v>124.56000000000002</v>
+        <v>186.84000000000003</v>
       </c>
       <c r="K69" s="38">
         <f t="shared" ref="K69:K102" si="27">$K$3+($K$3*0.12)*G69</f>
-        <v>117.52000000000001</v>
+        <v>153.68</v>
       </c>
       <c r="L69" s="31">
         <f t="shared" ref="L69:L102" si="28">$L$3+($L$3*0.13)*G69</f>
-        <v>184.49</v>
+        <v>223.33</v>
       </c>
       <c r="M69" s="40">
         <f t="shared" ref="M69:M102" si="29">$M$3+($M$3*0.12)*G69</f>
-        <v>126.56</v>
+        <v>144.63999999999999</v>
       </c>
       <c r="N69" s="42">
         <f t="shared" ref="N69:N102" si="30">$N$3+($N$3*0.1)*G69</f>
-        <v>115.5</v>
+        <v>107.80000000000001</v>
       </c>
       <c r="O69" s="15">
         <v>67</v>
       </c>
       <c r="P69" s="33">
         <f t="shared" ref="P69:P102" si="31">$P$3+($P$3*0.15)*O69</f>
-        <v>320.45</v>
+        <v>353.59999999999997</v>
       </c>
       <c r="Q69" s="34">
         <f t="shared" ref="Q69:Q102" si="32">$Q$3+($Q$3*0.06)*O69</f>
-        <v>130.52000000000001</v>
+        <v>145.57999999999998</v>
       </c>
       <c r="R69" s="36">
         <f t="shared" ref="R69:R102" si="33">$R$3+($R$3*0.14)*O69</f>
-        <v>103.80000000000001</v>
+        <v>166.08</v>
       </c>
       <c r="S69" s="38">
         <f t="shared" ref="S69:S102" si="34">$S$3+($S$3*0.12)*O69</f>
@@ -7738,15 +7739,15 @@
       </c>
       <c r="T69" s="31">
         <f t="shared" ref="T69:T102" si="35">$T$3+($T$3*0.125)*O69</f>
-        <v>159.375</v>
+        <v>234.375</v>
       </c>
       <c r="U69" s="40">
         <f t="shared" ref="U69:U102" si="36">$U$3+($U$3*0.09)*O69</f>
-        <v>105.44999999999999</v>
+        <v>133.57</v>
       </c>
       <c r="V69" s="42">
         <f t="shared" ref="V69:V102" si="37">$V$3+($V$3*0.085)*O69</f>
-        <v>113.815</v>
+        <v>107.12</v>
       </c>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.3">
@@ -7777,46 +7778,46 @@
       </c>
       <c r="H70" s="33">
         <f t="shared" si="24"/>
-        <v>481.25</v>
+        <v>550</v>
       </c>
       <c r="I70" s="34">
         <f t="shared" si="25"/>
-        <v>104.59934787103782</v>
+        <v>130.74918483879731</v>
       </c>
       <c r="J70" s="36">
         <f t="shared" si="26"/>
-        <v>126.24000000000001</v>
+        <v>189.36000000000004</v>
       </c>
       <c r="K70" s="38">
         <f t="shared" si="27"/>
-        <v>119.08</v>
+        <v>155.72</v>
       </c>
       <c r="L70" s="31">
         <f t="shared" si="28"/>
-        <v>186.96</v>
+        <v>226.32000000000002</v>
       </c>
       <c r="M70" s="40">
         <f t="shared" si="29"/>
-        <v>128.24</v>
+        <v>146.56</v>
       </c>
       <c r="N70" s="42">
         <f t="shared" si="30"/>
-        <v>117</v>
+        <v>109.2</v>
       </c>
       <c r="O70" s="15">
         <v>68</v>
       </c>
       <c r="P70" s="33">
         <f t="shared" si="31"/>
-        <v>324.79999999999995</v>
+        <v>358.4</v>
       </c>
       <c r="Q70" s="34">
         <f t="shared" si="32"/>
-        <v>132.07999999999998</v>
+        <v>147.32</v>
       </c>
       <c r="R70" s="36">
         <f t="shared" si="33"/>
-        <v>105.2</v>
+        <v>168.32000000000002</v>
       </c>
       <c r="S70" s="38">
         <f t="shared" si="34"/>
@@ -7824,15 +7825,15 @@
       </c>
       <c r="T70" s="31">
         <f t="shared" si="35"/>
-        <v>161.5</v>
+        <v>237.5</v>
       </c>
       <c r="U70" s="40">
         <f t="shared" si="36"/>
-        <v>106.8</v>
+        <v>135.28</v>
       </c>
       <c r="V70" s="42">
         <f t="shared" si="37"/>
-        <v>115.26</v>
+        <v>108.48</v>
       </c>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.3">
@@ -7863,46 +7864,46 @@
       </c>
       <c r="H71" s="33">
         <f t="shared" si="24"/>
-        <v>487.8125</v>
+        <v>557.5</v>
       </c>
       <c r="I71" s="34">
         <f t="shared" si="25"/>
-        <v>107.21433156781377</v>
+        <v>134.01791445976724</v>
       </c>
       <c r="J71" s="36">
         <f t="shared" si="26"/>
-        <v>127.92000000000002</v>
+        <v>191.88000000000002</v>
       </c>
       <c r="K71" s="38">
         <f t="shared" si="27"/>
-        <v>120.64</v>
+        <v>157.76</v>
       </c>
       <c r="L71" s="31">
         <f t="shared" si="28"/>
-        <v>189.43</v>
+        <v>229.31</v>
       </c>
       <c r="M71" s="40">
         <f t="shared" si="29"/>
-        <v>129.92000000000002</v>
+        <v>148.47999999999999</v>
       </c>
       <c r="N71" s="42">
         <f t="shared" si="30"/>
-        <v>118.5</v>
+        <v>110.60000000000001</v>
       </c>
       <c r="O71" s="15">
         <v>69</v>
       </c>
       <c r="P71" s="33">
         <f t="shared" si="31"/>
-        <v>329.15</v>
+        <v>363.2</v>
       </c>
       <c r="Q71" s="34">
         <f t="shared" si="32"/>
-        <v>133.63999999999999</v>
+        <v>149.06</v>
       </c>
       <c r="R71" s="36">
         <f t="shared" si="33"/>
-        <v>106.60000000000001</v>
+        <v>170.56</v>
       </c>
       <c r="S71" s="38">
         <f t="shared" si="34"/>
@@ -7910,15 +7911,15 @@
       </c>
       <c r="T71" s="31">
         <f t="shared" si="35"/>
-        <v>163.625</v>
+        <v>240.625</v>
       </c>
       <c r="U71" s="40">
         <f t="shared" si="36"/>
-        <v>108.14999999999999</v>
+        <v>136.99</v>
       </c>
       <c r="V71" s="42">
         <f t="shared" si="37"/>
-        <v>116.705</v>
+        <v>109.84</v>
       </c>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.3">
@@ -7949,46 +7950,46 @@
       </c>
       <c r="H72" s="33">
         <f t="shared" si="24"/>
-        <v>494.375</v>
+        <v>565</v>
       </c>
       <c r="I72" s="34">
         <f t="shared" si="25"/>
-        <v>109.89468985700911</v>
+        <v>137.36836232126143</v>
       </c>
       <c r="J72" s="36">
         <f t="shared" si="26"/>
-        <v>129.60000000000002</v>
+        <v>194.40000000000003</v>
       </c>
       <c r="K72" s="38">
         <f t="shared" si="27"/>
-        <v>122.2</v>
+        <v>159.80000000000001</v>
       </c>
       <c r="L72" s="31">
         <f t="shared" si="28"/>
-        <v>191.9</v>
+        <v>232.3</v>
       </c>
       <c r="M72" s="40">
         <f t="shared" si="29"/>
-        <v>131.6</v>
+        <v>150.4</v>
       </c>
       <c r="N72" s="42">
         <f t="shared" si="30"/>
-        <v>120</v>
+        <v>112.00000000000001</v>
       </c>
       <c r="O72" s="15">
         <v>70</v>
       </c>
       <c r="P72" s="33">
         <f t="shared" si="31"/>
-        <v>333.5</v>
+        <v>368</v>
       </c>
       <c r="Q72" s="34">
         <f t="shared" si="32"/>
-        <v>135.19999999999999</v>
+        <v>150.80000000000001</v>
       </c>
       <c r="R72" s="36">
         <f t="shared" si="33"/>
-        <v>108.00000000000001</v>
+        <v>172.8</v>
       </c>
       <c r="S72" s="38">
         <f t="shared" si="34"/>
@@ -7996,15 +7997,15 @@
       </c>
       <c r="T72" s="31">
         <f t="shared" si="35"/>
-        <v>165.75</v>
+        <v>243.75</v>
       </c>
       <c r="U72" s="40">
         <f t="shared" si="36"/>
-        <v>109.49999999999999</v>
+        <v>138.69999999999999</v>
       </c>
       <c r="V72" s="42">
         <f t="shared" si="37"/>
-        <v>118.15</v>
+        <v>111.2</v>
       </c>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.3">
@@ -8035,46 +8036,46 @@
       </c>
       <c r="H73" s="33">
         <f t="shared" si="24"/>
-        <v>500.9375</v>
+        <v>572.5</v>
       </c>
       <c r="I73" s="34">
         <f t="shared" si="25"/>
-        <v>112.64205710343434</v>
+        <v>140.80257137929297</v>
       </c>
       <c r="J73" s="36">
         <f t="shared" si="26"/>
-        <v>131.28000000000003</v>
+        <v>196.92000000000004</v>
       </c>
       <c r="K73" s="38">
         <f t="shared" si="27"/>
-        <v>123.76</v>
+        <v>161.84</v>
       </c>
       <c r="L73" s="31">
         <f t="shared" si="28"/>
-        <v>194.37</v>
+        <v>235.29000000000002</v>
       </c>
       <c r="M73" s="40">
         <f t="shared" si="29"/>
-        <v>133.28</v>
+        <v>152.32</v>
       </c>
       <c r="N73" s="42">
         <f t="shared" si="30"/>
-        <v>121.5</v>
+        <v>113.4</v>
       </c>
       <c r="O73" s="15">
         <v>71</v>
       </c>
       <c r="P73" s="33">
         <f t="shared" si="31"/>
-        <v>337.84999999999997</v>
+        <v>372.8</v>
       </c>
       <c r="Q73" s="34">
         <f t="shared" si="32"/>
-        <v>136.76</v>
+        <v>152.54000000000002</v>
       </c>
       <c r="R73" s="36">
         <f t="shared" si="33"/>
-        <v>109.4</v>
+        <v>175.04000000000002</v>
       </c>
       <c r="S73" s="38">
         <f t="shared" si="34"/>
@@ -8082,15 +8083,15 @@
       </c>
       <c r="T73" s="31">
         <f t="shared" si="35"/>
-        <v>167.875</v>
+        <v>246.875</v>
       </c>
       <c r="U73" s="40">
         <f t="shared" si="36"/>
-        <v>110.85</v>
+        <v>140.41</v>
       </c>
       <c r="V73" s="42">
         <f t="shared" si="37"/>
-        <v>119.595</v>
+        <v>112.56</v>
       </c>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.3">
@@ -8121,46 +8122,46 @@
       </c>
       <c r="H74" s="33">
         <f t="shared" si="24"/>
-        <v>507.5</v>
+        <v>580</v>
       </c>
       <c r="I74" s="34">
         <f t="shared" si="25"/>
-        <v>115.4581085310202</v>
+        <v>144.32263566377529</v>
       </c>
       <c r="J74" s="36">
         <f t="shared" si="26"/>
-        <v>132.96</v>
+        <v>199.44000000000003</v>
       </c>
       <c r="K74" s="38">
         <f t="shared" si="27"/>
-        <v>125.32000000000001</v>
+        <v>163.88</v>
       </c>
       <c r="L74" s="31">
         <f t="shared" si="28"/>
-        <v>196.84</v>
+        <v>238.28000000000003</v>
       </c>
       <c r="M74" s="40">
         <f t="shared" si="29"/>
-        <v>134.95999999999998</v>
+        <v>154.24</v>
       </c>
       <c r="N74" s="42">
         <f t="shared" si="30"/>
-        <v>123</v>
+        <v>114.80000000000001</v>
       </c>
       <c r="O74" s="15">
         <v>72</v>
       </c>
       <c r="P74" s="33">
         <f t="shared" si="31"/>
-        <v>342.2</v>
+        <v>377.59999999999997</v>
       </c>
       <c r="Q74" s="34">
         <f t="shared" si="32"/>
-        <v>138.32</v>
+        <v>154.28</v>
       </c>
       <c r="R74" s="36">
         <f t="shared" si="33"/>
-        <v>110.80000000000001</v>
+        <v>177.28000000000003</v>
       </c>
       <c r="S74" s="38">
         <f t="shared" si="34"/>
@@ -8168,15 +8169,15 @@
       </c>
       <c r="T74" s="31">
         <f t="shared" si="35"/>
-        <v>170</v>
+        <v>250</v>
       </c>
       <c r="U74" s="40">
         <f t="shared" si="36"/>
-        <v>112.19999999999999</v>
+        <v>142.12</v>
       </c>
       <c r="V74" s="42">
         <f t="shared" si="37"/>
-        <v>121.04</v>
+        <v>113.92</v>
       </c>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.3">
@@ -8207,46 +8208,46 @@
       </c>
       <c r="H75" s="33">
         <f t="shared" si="24"/>
-        <v>514.0625</v>
+        <v>587.5</v>
       </c>
       <c r="I75" s="34">
         <f t="shared" si="25"/>
-        <v>118.3445612442957</v>
+        <v>147.93070155536967</v>
       </c>
       <c r="J75" s="36">
         <f t="shared" si="26"/>
-        <v>134.64000000000001</v>
+        <v>201.96000000000004</v>
       </c>
       <c r="K75" s="38">
         <f t="shared" si="27"/>
-        <v>126.88000000000001</v>
+        <v>165.92000000000002</v>
       </c>
       <c r="L75" s="31">
         <f t="shared" si="28"/>
-        <v>199.31</v>
+        <v>241.27</v>
       </c>
       <c r="M75" s="40">
         <f t="shared" si="29"/>
-        <v>136.63999999999999</v>
+        <v>156.16</v>
       </c>
       <c r="N75" s="42">
         <f t="shared" si="30"/>
-        <v>124.5</v>
+        <v>116.2</v>
       </c>
       <c r="O75" s="15">
         <v>73</v>
       </c>
       <c r="P75" s="33">
         <f t="shared" si="31"/>
-        <v>346.54999999999995</v>
+        <v>382.4</v>
       </c>
       <c r="Q75" s="34">
         <f t="shared" si="32"/>
-        <v>139.88</v>
+        <v>156.01999999999998</v>
       </c>
       <c r="R75" s="36">
         <f t="shared" si="33"/>
-        <v>112.2</v>
+        <v>179.52</v>
       </c>
       <c r="S75" s="38">
         <f t="shared" si="34"/>
@@ -8254,15 +8255,15 @@
       </c>
       <c r="T75" s="31">
         <f t="shared" si="35"/>
-        <v>172.125</v>
+        <v>253.125</v>
       </c>
       <c r="U75" s="40">
         <f t="shared" si="36"/>
-        <v>113.55</v>
+        <v>143.82999999999998</v>
       </c>
       <c r="V75" s="42">
         <f t="shared" si="37"/>
-        <v>122.485</v>
+        <v>115.28</v>
       </c>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.3">
@@ -8293,46 +8294,46 @@
       </c>
       <c r="H76" s="33">
         <f t="shared" si="24"/>
-        <v>520.625</v>
+        <v>595</v>
       </c>
       <c r="I76" s="34">
         <f t="shared" si="25"/>
-        <v>121.30317527540309</v>
+        <v>151.6289690942539</v>
       </c>
       <c r="J76" s="36">
         <f t="shared" si="26"/>
-        <v>136.32</v>
+        <v>204.48000000000005</v>
       </c>
       <c r="K76" s="38">
         <f t="shared" si="27"/>
-        <v>128.44</v>
+        <v>167.96</v>
       </c>
       <c r="L76" s="31">
         <f t="shared" si="28"/>
-        <v>201.78</v>
+        <v>244.26000000000002</v>
       </c>
       <c r="M76" s="40">
         <f t="shared" si="29"/>
-        <v>138.32</v>
+        <v>158.07999999999998</v>
       </c>
       <c r="N76" s="42">
         <f t="shared" si="30"/>
-        <v>126</v>
+        <v>117.60000000000001</v>
       </c>
       <c r="O76" s="15">
         <v>74</v>
       </c>
       <c r="P76" s="33">
         <f t="shared" si="31"/>
-        <v>350.9</v>
+        <v>387.2</v>
       </c>
       <c r="Q76" s="34">
         <f t="shared" si="32"/>
-        <v>141.44</v>
+        <v>157.76</v>
       </c>
       <c r="R76" s="36">
         <f t="shared" si="33"/>
-        <v>113.60000000000001</v>
+        <v>181.76000000000002</v>
       </c>
       <c r="S76" s="38">
         <f t="shared" si="34"/>
@@ -8340,15 +8341,15 @@
       </c>
       <c r="T76" s="31">
         <f t="shared" si="35"/>
-        <v>174.25</v>
+        <v>256.25</v>
       </c>
       <c r="U76" s="40">
         <f t="shared" si="36"/>
-        <v>114.89999999999999</v>
+        <v>145.54</v>
       </c>
       <c r="V76" s="42">
         <f t="shared" si="37"/>
-        <v>123.93</v>
+        <v>116.64</v>
       </c>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.3">
@@ -8379,46 +8380,46 @@
       </c>
       <c r="H77" s="33">
         <f t="shared" si="24"/>
-        <v>527.1875</v>
+        <v>602.5</v>
       </c>
       <c r="I77" s="34">
         <f t="shared" si="25"/>
-        <v>124.33575465728816</v>
+        <v>155.41969332161025</v>
       </c>
       <c r="J77" s="36">
         <f t="shared" si="26"/>
-        <v>138</v>
+        <v>207.00000000000003</v>
       </c>
       <c r="K77" s="38">
         <f t="shared" si="27"/>
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="L77" s="31">
         <f t="shared" si="28"/>
-        <v>204.25000000000003</v>
+        <v>247.25000000000003</v>
       </c>
       <c r="M77" s="40">
         <f t="shared" si="29"/>
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="N77" s="42">
         <f t="shared" si="30"/>
-        <v>127.5</v>
+        <v>119.00000000000001</v>
       </c>
       <c r="O77" s="15">
         <v>75</v>
       </c>
       <c r="P77" s="33">
         <f t="shared" si="31"/>
-        <v>355.25</v>
+        <v>392</v>
       </c>
       <c r="Q77" s="34">
         <f t="shared" si="32"/>
-        <v>143</v>
+        <v>159.5</v>
       </c>
       <c r="R77" s="36">
         <f t="shared" si="33"/>
-        <v>115.00000000000001</v>
+        <v>184.00000000000003</v>
       </c>
       <c r="S77" s="38">
         <f t="shared" si="34"/>
@@ -8426,15 +8427,15 @@
       </c>
       <c r="T77" s="31">
         <f t="shared" si="35"/>
-        <v>176.375</v>
+        <v>259.375</v>
       </c>
       <c r="U77" s="40">
         <f t="shared" si="36"/>
-        <v>116.24999999999999</v>
+        <v>147.25</v>
       </c>
       <c r="V77" s="42">
         <f t="shared" si="37"/>
-        <v>125.375</v>
+        <v>118.00000000000001</v>
       </c>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.3">
@@ -8465,46 +8466,46 @@
       </c>
       <c r="H78" s="33">
         <f t="shared" si="24"/>
-        <v>533.75</v>
+        <v>610</v>
       </c>
       <c r="I78" s="34">
         <f t="shared" si="25"/>
-        <v>127.44414852372037</v>
+        <v>159.3051856546505</v>
       </c>
       <c r="J78" s="36">
         <f t="shared" si="26"/>
-        <v>139.68</v>
+        <v>209.52000000000004</v>
       </c>
       <c r="K78" s="38">
         <f t="shared" si="27"/>
-        <v>131.56</v>
+        <v>172.04</v>
       </c>
       <c r="L78" s="31">
         <f t="shared" si="28"/>
-        <v>206.72000000000003</v>
+        <v>250.24</v>
       </c>
       <c r="M78" s="40">
         <f t="shared" si="29"/>
-        <v>141.68</v>
+        <v>161.91999999999999</v>
       </c>
       <c r="N78" s="42">
         <f t="shared" si="30"/>
-        <v>129</v>
+        <v>120.4</v>
       </c>
       <c r="O78" s="15">
         <v>76</v>
       </c>
       <c r="P78" s="33">
         <f t="shared" si="31"/>
-        <v>359.59999999999997</v>
+        <v>396.8</v>
       </c>
       <c r="Q78" s="34">
         <f t="shared" si="32"/>
-        <v>144.56</v>
+        <v>161.24</v>
       </c>
       <c r="R78" s="36">
         <f t="shared" si="33"/>
-        <v>116.4</v>
+        <v>186.24</v>
       </c>
       <c r="S78" s="38">
         <f t="shared" si="34"/>
@@ -8512,15 +8513,15 @@
       </c>
       <c r="T78" s="31">
         <f t="shared" si="35"/>
-        <v>178.5</v>
+        <v>262.5</v>
       </c>
       <c r="U78" s="40">
         <f t="shared" si="36"/>
-        <v>117.6</v>
+        <v>148.96</v>
       </c>
       <c r="V78" s="42">
         <f t="shared" si="37"/>
-        <v>126.82000000000001</v>
+        <v>119.36000000000001</v>
       </c>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.3">
@@ -8551,46 +8552,46 @@
       </c>
       <c r="H79" s="33">
         <f t="shared" si="24"/>
-        <v>540.3125</v>
+        <v>617.5</v>
       </c>
       <c r="I79" s="34">
         <f t="shared" si="25"/>
-        <v>130.63025223681339</v>
+        <v>163.28781529601676</v>
       </c>
       <c r="J79" s="36">
         <f t="shared" si="26"/>
-        <v>141.36000000000001</v>
+        <v>212.04000000000005</v>
       </c>
       <c r="K79" s="38">
         <f t="shared" si="27"/>
-        <v>133.12</v>
+        <v>174.08</v>
       </c>
       <c r="L79" s="31">
         <f t="shared" si="28"/>
-        <v>209.19000000000003</v>
+        <v>253.23000000000002</v>
       </c>
       <c r="M79" s="40">
         <f t="shared" si="29"/>
-        <v>143.35999999999999</v>
+        <v>163.84</v>
       </c>
       <c r="N79" s="42">
         <f t="shared" si="30"/>
-        <v>130.5</v>
+        <v>121.80000000000001</v>
       </c>
       <c r="O79" s="15">
         <v>77</v>
       </c>
       <c r="P79" s="33">
         <f t="shared" si="31"/>
-        <v>363.95</v>
+        <v>401.59999999999997</v>
       </c>
       <c r="Q79" s="34">
         <f t="shared" si="32"/>
-        <v>146.12</v>
+        <v>162.97999999999999</v>
       </c>
       <c r="R79" s="36">
         <f t="shared" si="33"/>
-        <v>117.80000000000001</v>
+        <v>188.48000000000002</v>
       </c>
       <c r="S79" s="38">
         <f t="shared" si="34"/>
@@ -8598,15 +8599,15 @@
       </c>
       <c r="T79" s="31">
         <f t="shared" si="35"/>
-        <v>180.625</v>
+        <v>265.625</v>
       </c>
       <c r="U79" s="40">
         <f t="shared" si="36"/>
-        <v>118.94999999999999</v>
+        <v>150.66999999999999</v>
       </c>
       <c r="V79" s="42">
         <f t="shared" si="37"/>
-        <v>128.26499999999999</v>
+        <v>120.72000000000001</v>
       </c>
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.3">
@@ -8637,46 +8638,46 @@
       </c>
       <c r="H80" s="33">
         <f t="shared" si="24"/>
-        <v>546.875</v>
+        <v>625</v>
       </c>
       <c r="I80" s="34">
         <f t="shared" si="25"/>
-        <v>133.89600854273374</v>
+        <v>167.37001067841717</v>
       </c>
       <c r="J80" s="36">
         <f t="shared" si="26"/>
-        <v>143.04000000000002</v>
+        <v>214.56000000000003</v>
       </c>
       <c r="K80" s="38">
         <f t="shared" si="27"/>
-        <v>134.68</v>
+        <v>176.12</v>
       </c>
       <c r="L80" s="31">
         <f t="shared" si="28"/>
-        <v>211.66000000000003</v>
+        <v>256.22000000000003</v>
       </c>
       <c r="M80" s="40">
         <f t="shared" si="29"/>
-        <v>145.04</v>
+        <v>165.76</v>
       </c>
       <c r="N80" s="42">
         <f t="shared" si="30"/>
-        <v>132</v>
+        <v>123.20000000000002</v>
       </c>
       <c r="O80" s="15">
         <v>78</v>
       </c>
       <c r="P80" s="33">
         <f t="shared" si="31"/>
-        <v>368.29999999999995</v>
+        <v>406.4</v>
       </c>
       <c r="Q80" s="34">
         <f t="shared" si="32"/>
-        <v>147.68</v>
+        <v>164.72</v>
       </c>
       <c r="R80" s="36">
         <f t="shared" si="33"/>
-        <v>119.20000000000002</v>
+        <v>190.72000000000003</v>
       </c>
       <c r="S80" s="38">
         <f t="shared" si="34"/>
@@ -8684,15 +8685,15 @@
       </c>
       <c r="T80" s="31">
         <f t="shared" si="35"/>
-        <v>182.75</v>
+        <v>268.75</v>
       </c>
       <c r="U80" s="40">
         <f t="shared" si="36"/>
-        <v>120.29999999999998</v>
+        <v>152.38</v>
       </c>
       <c r="V80" s="42">
         <f t="shared" si="37"/>
-        <v>129.71</v>
+        <v>122.08000000000001</v>
       </c>
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.3">
@@ -8723,46 +8724,46 @@
       </c>
       <c r="H81" s="33">
         <f t="shared" si="24"/>
-        <v>553.4375</v>
+        <v>632.5</v>
       </c>
       <c r="I81" s="34">
         <f t="shared" si="25"/>
-        <v>137.24340875630207</v>
+        <v>171.55426094537759</v>
       </c>
       <c r="J81" s="36">
         <f t="shared" si="26"/>
-        <v>144.72</v>
+        <v>217.08000000000004</v>
       </c>
       <c r="K81" s="38">
         <f t="shared" si="27"/>
-        <v>136.24</v>
+        <v>178.16</v>
       </c>
       <c r="L81" s="31">
         <f t="shared" si="28"/>
-        <v>214.13000000000002</v>
+        <v>259.21000000000004</v>
       </c>
       <c r="M81" s="40">
         <f t="shared" si="29"/>
-        <v>146.72</v>
+        <v>167.68</v>
       </c>
       <c r="N81" s="42">
         <f t="shared" si="30"/>
-        <v>133.5</v>
+        <v>124.60000000000001</v>
       </c>
       <c r="O81" s="15">
         <v>79</v>
       </c>
       <c r="P81" s="33">
         <f t="shared" si="31"/>
-        <v>372.65</v>
+        <v>411.2</v>
       </c>
       <c r="Q81" s="34">
         <f t="shared" si="32"/>
-        <v>149.24</v>
+        <v>166.46</v>
       </c>
       <c r="R81" s="36">
         <f t="shared" si="33"/>
-        <v>120.60000000000001</v>
+        <v>192.96</v>
       </c>
       <c r="S81" s="38">
         <f t="shared" si="34"/>
@@ -8770,15 +8771,15 @@
       </c>
       <c r="T81" s="31">
         <f t="shared" si="35"/>
-        <v>184.875</v>
+        <v>271.875</v>
       </c>
       <c r="U81" s="40">
         <f t="shared" si="36"/>
-        <v>121.64999999999999</v>
+        <v>154.09</v>
       </c>
       <c r="V81" s="42">
         <f t="shared" si="37"/>
-        <v>131.155</v>
+        <v>123.44000000000001</v>
       </c>
     </row>
     <row r="82" spans="1:22" x14ac:dyDescent="0.3">
@@ -8809,46 +8810,46 @@
       </c>
       <c r="H82" s="33">
         <f t="shared" si="24"/>
-        <v>560</v>
+        <v>640</v>
       </c>
       <c r="I82" s="34">
         <f t="shared" si="25"/>
-        <v>140.67449397520963</v>
+        <v>175.84311746901204</v>
       </c>
       <c r="J82" s="36">
         <f t="shared" si="26"/>
-        <v>146.4</v>
+        <v>219.60000000000002</v>
       </c>
       <c r="K82" s="38">
         <f t="shared" si="27"/>
-        <v>137.80000000000001</v>
+        <v>180.2</v>
       </c>
       <c r="L82" s="31">
         <f t="shared" si="28"/>
-        <v>216.60000000000002</v>
+        <v>262.20000000000005</v>
       </c>
       <c r="M82" s="40">
         <f t="shared" si="29"/>
-        <v>148.4</v>
+        <v>169.6</v>
       </c>
       <c r="N82" s="42">
         <f t="shared" si="30"/>
-        <v>135</v>
+        <v>126.00000000000001</v>
       </c>
       <c r="O82" s="15">
         <v>80</v>
       </c>
       <c r="P82" s="33">
         <f t="shared" si="31"/>
-        <v>377</v>
+        <v>416</v>
       </c>
       <c r="Q82" s="34">
         <f t="shared" si="32"/>
-        <v>150.80000000000001</v>
+        <v>168.2</v>
       </c>
       <c r="R82" s="36">
         <f t="shared" si="33"/>
-        <v>122.00000000000001</v>
+        <v>195.20000000000002</v>
       </c>
       <c r="S82" s="38">
         <f t="shared" si="34"/>
@@ -8856,15 +8857,15 @@
       </c>
       <c r="T82" s="31">
         <f t="shared" si="35"/>
-        <v>187</v>
+        <v>275</v>
       </c>
       <c r="U82" s="40">
         <f t="shared" si="36"/>
-        <v>122.99999999999999</v>
+        <v>155.80000000000001</v>
       </c>
       <c r="V82" s="42">
         <f t="shared" si="37"/>
-        <v>132.60000000000002</v>
+        <v>124.80000000000001</v>
       </c>
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.3">
@@ -8895,46 +8896,46 @@
       </c>
       <c r="H83" s="33">
         <f t="shared" si="24"/>
-        <v>566.5625</v>
+        <v>647.5</v>
       </c>
       <c r="I83" s="34">
         <f t="shared" si="25"/>
-        <v>144.19135632458986</v>
+        <v>180.23919540573735</v>
       </c>
       <c r="J83" s="36">
         <f t="shared" si="26"/>
-        <v>148.08000000000001</v>
+        <v>222.12000000000003</v>
       </c>
       <c r="K83" s="38">
         <f t="shared" si="27"/>
-        <v>139.36000000000001</v>
+        <v>182.24</v>
       </c>
       <c r="L83" s="31">
         <f t="shared" si="28"/>
-        <v>219.07000000000002</v>
+        <v>265.19000000000005</v>
       </c>
       <c r="M83" s="40">
         <f t="shared" si="29"/>
-        <v>150.07999999999998</v>
+        <v>171.51999999999998</v>
       </c>
       <c r="N83" s="42">
         <f t="shared" si="30"/>
-        <v>136.5</v>
+        <v>127.4</v>
       </c>
       <c r="O83" s="15">
         <v>81</v>
       </c>
       <c r="P83" s="33">
         <f t="shared" si="31"/>
-        <v>381.34999999999997</v>
+        <v>420.8</v>
       </c>
       <c r="Q83" s="34">
         <f t="shared" si="32"/>
-        <v>152.36000000000001</v>
+        <v>169.94</v>
       </c>
       <c r="R83" s="36">
         <f t="shared" si="33"/>
-        <v>123.4</v>
+        <v>197.44000000000003</v>
       </c>
       <c r="S83" s="38">
         <f t="shared" si="34"/>
@@ -8942,15 +8943,15 @@
       </c>
       <c r="T83" s="31">
         <f t="shared" si="35"/>
-        <v>189.125</v>
+        <v>278.125</v>
       </c>
       <c r="U83" s="40">
         <f t="shared" si="36"/>
-        <v>124.35</v>
+        <v>157.51</v>
       </c>
       <c r="V83" s="42">
         <f t="shared" si="37"/>
-        <v>134.04500000000002</v>
+        <v>126.16000000000001</v>
       </c>
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.3">
@@ -8981,46 +8982,46 @@
       </c>
       <c r="H84" s="33">
         <f t="shared" si="24"/>
-        <v>573.125</v>
+        <v>655</v>
       </c>
       <c r="I84" s="34">
         <f t="shared" si="25"/>
-        <v>147.7961402327046</v>
+        <v>184.74517529088078</v>
       </c>
       <c r="J84" s="36">
         <f t="shared" si="26"/>
-        <v>149.76000000000002</v>
+        <v>224.64000000000004</v>
       </c>
       <c r="K84" s="38">
         <f t="shared" si="27"/>
-        <v>140.92000000000002</v>
+        <v>184.28</v>
       </c>
       <c r="L84" s="31">
         <f t="shared" si="28"/>
-        <v>221.54000000000002</v>
+        <v>268.18</v>
       </c>
       <c r="M84" s="40">
         <f t="shared" si="29"/>
-        <v>151.76</v>
+        <v>173.44</v>
       </c>
       <c r="N84" s="42">
         <f t="shared" si="30"/>
-        <v>138</v>
+        <v>128.80000000000001</v>
       </c>
       <c r="O84" s="15">
         <v>82</v>
       </c>
       <c r="P84" s="33">
         <f t="shared" si="31"/>
-        <v>385.7</v>
+        <v>425.59999999999997</v>
       </c>
       <c r="Q84" s="34">
         <f t="shared" si="32"/>
-        <v>153.92000000000002</v>
+        <v>171.68</v>
       </c>
       <c r="R84" s="36">
         <f t="shared" si="33"/>
-        <v>124.80000000000001</v>
+        <v>199.68</v>
       </c>
       <c r="S84" s="38">
         <f t="shared" si="34"/>
@@ -9028,15 +9029,15 @@
       </c>
       <c r="T84" s="31">
         <f t="shared" si="35"/>
-        <v>191.25</v>
+        <v>281.25</v>
       </c>
       <c r="U84" s="40">
         <f t="shared" si="36"/>
-        <v>125.69999999999999</v>
+        <v>159.22</v>
       </c>
       <c r="V84" s="42">
         <f t="shared" si="37"/>
-        <v>135.49</v>
+        <v>127.52000000000001</v>
       </c>
     </row>
     <row r="85" spans="1:22" x14ac:dyDescent="0.3">
@@ -9067,46 +9068,46 @@
       </c>
       <c r="H85" s="33">
         <f t="shared" si="24"/>
-        <v>579.6875</v>
+        <v>662.5</v>
       </c>
       <c r="I85" s="34">
         <f t="shared" si="25"/>
-        <v>151.49104373852222</v>
+        <v>189.3638046731528</v>
       </c>
       <c r="J85" s="36">
         <f t="shared" si="26"/>
-        <v>151.44000000000003</v>
+        <v>227.16000000000003</v>
       </c>
       <c r="K85" s="38">
         <f t="shared" si="27"/>
-        <v>142.48000000000002</v>
+        <v>186.32</v>
       </c>
       <c r="L85" s="31">
         <f t="shared" si="28"/>
-        <v>224.01000000000002</v>
+        <v>271.17</v>
       </c>
       <c r="M85" s="40">
         <f t="shared" si="29"/>
-        <v>153.44</v>
+        <v>175.35999999999999</v>
       </c>
       <c r="N85" s="42">
         <f t="shared" si="30"/>
-        <v>139.5</v>
+        <v>130.20000000000002</v>
       </c>
       <c r="O85" s="15">
         <v>83</v>
       </c>
       <c r="P85" s="33">
         <f t="shared" si="31"/>
-        <v>390.04999999999995</v>
+        <v>430.4</v>
       </c>
       <c r="Q85" s="34">
         <f t="shared" si="32"/>
-        <v>155.48000000000002</v>
+        <v>173.42</v>
       </c>
       <c r="R85" s="36">
         <f t="shared" si="33"/>
-        <v>126.20000000000002</v>
+        <v>201.92000000000002</v>
       </c>
       <c r="S85" s="38">
         <f t="shared" si="34"/>
@@ -9114,15 +9115,15 @@
       </c>
       <c r="T85" s="31">
         <f t="shared" si="35"/>
-        <v>193.375</v>
+        <v>284.375</v>
       </c>
       <c r="U85" s="40">
         <f t="shared" si="36"/>
-        <v>127.04999999999998</v>
+        <v>160.93</v>
       </c>
       <c r="V85" s="42">
         <f t="shared" si="37"/>
-        <v>136.935</v>
+        <v>128.88</v>
       </c>
     </row>
     <row r="86" spans="1:22" x14ac:dyDescent="0.3">
@@ -9153,46 +9154,46 @@
       </c>
       <c r="H86" s="33">
         <f t="shared" si="24"/>
-        <v>586.25</v>
+        <v>670</v>
       </c>
       <c r="I86" s="34">
         <f t="shared" si="25"/>
-        <v>155.27831983198527</v>
+        <v>194.09789978998162</v>
       </c>
       <c r="J86" s="36">
         <f t="shared" si="26"/>
-        <v>153.12</v>
+        <v>229.68000000000004</v>
       </c>
       <c r="K86" s="38">
         <f t="shared" si="27"/>
-        <v>144.04</v>
+        <v>188.36</v>
       </c>
       <c r="L86" s="31">
         <f t="shared" si="28"/>
-        <v>226.48000000000002</v>
+        <v>274.16000000000003</v>
       </c>
       <c r="M86" s="40">
         <f t="shared" si="29"/>
-        <v>155.12</v>
+        <v>177.28</v>
       </c>
       <c r="N86" s="42">
         <f t="shared" si="30"/>
-        <v>141</v>
+        <v>131.60000000000002</v>
       </c>
       <c r="O86" s="15">
         <v>84</v>
       </c>
       <c r="P86" s="33">
         <f t="shared" si="31"/>
-        <v>394.4</v>
+        <v>435.2</v>
       </c>
       <c r="Q86" s="34">
         <f t="shared" si="32"/>
-        <v>157.04</v>
+        <v>175.16</v>
       </c>
       <c r="R86" s="36">
         <f t="shared" si="33"/>
-        <v>127.60000000000001</v>
+        <v>204.16000000000003</v>
       </c>
       <c r="S86" s="38">
         <f t="shared" si="34"/>
@@ -9200,15 +9201,15 @@
       </c>
       <c r="T86" s="31">
         <f t="shared" si="35"/>
-        <v>195.5</v>
+        <v>287.5</v>
       </c>
       <c r="U86" s="40">
         <f t="shared" si="36"/>
-        <v>128.39999999999998</v>
+        <v>162.63999999999999</v>
       </c>
       <c r="V86" s="42">
         <f t="shared" si="37"/>
-        <v>138.38</v>
+        <v>130.24</v>
       </c>
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.3">
@@ -9239,46 +9240,46 @@
       </c>
       <c r="H87" s="33">
         <f t="shared" si="24"/>
-        <v>592.8125</v>
+        <v>677.5</v>
       </c>
       <c r="I87" s="34">
         <f t="shared" si="25"/>
-        <v>159.16027782778491</v>
+        <v>198.95034728473115</v>
       </c>
       <c r="J87" s="36">
         <f t="shared" si="26"/>
-        <v>154.80000000000001</v>
+        <v>232.20000000000005</v>
       </c>
       <c r="K87" s="38">
         <f t="shared" si="27"/>
-        <v>145.6</v>
+        <v>190.4</v>
       </c>
       <c r="L87" s="31">
         <f t="shared" si="28"/>
-        <v>228.95000000000002</v>
+        <v>277.14999999999998</v>
       </c>
       <c r="M87" s="40">
         <f t="shared" si="29"/>
-        <v>156.79999999999998</v>
+        <v>179.2</v>
       </c>
       <c r="N87" s="42">
         <f t="shared" si="30"/>
-        <v>142.5</v>
+        <v>133</v>
       </c>
       <c r="O87" s="15">
         <v>85</v>
       </c>
       <c r="P87" s="33">
         <f t="shared" si="31"/>
-        <v>398.74999999999994</v>
+        <v>440</v>
       </c>
       <c r="Q87" s="34">
         <f t="shared" si="32"/>
-        <v>158.6</v>
+        <v>176.9</v>
       </c>
       <c r="R87" s="36">
         <f t="shared" si="33"/>
-        <v>129</v>
+        <v>206.4</v>
       </c>
       <c r="S87" s="38">
         <f t="shared" si="34"/>
@@ -9286,15 +9287,15 @@
       </c>
       <c r="T87" s="31">
         <f t="shared" si="35"/>
-        <v>197.625</v>
+        <v>290.625</v>
       </c>
       <c r="U87" s="40">
         <f t="shared" si="36"/>
-        <v>129.75</v>
+        <v>164.35</v>
       </c>
       <c r="V87" s="42">
         <f t="shared" si="37"/>
-        <v>139.82499999999999</v>
+        <v>131.60000000000002</v>
       </c>
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.3">
@@ -9325,46 +9326,46 @@
       </c>
       <c r="H88" s="33">
         <f t="shared" si="24"/>
-        <v>599.375</v>
+        <v>685</v>
       </c>
       <c r="I88" s="34">
         <f t="shared" si="25"/>
-        <v>163.13928477347955</v>
+        <v>203.92410596684942</v>
       </c>
       <c r="J88" s="36">
         <f t="shared" si="26"/>
-        <v>156.48000000000002</v>
+        <v>234.72000000000003</v>
       </c>
       <c r="K88" s="38">
         <f t="shared" si="27"/>
-        <v>147.16</v>
+        <v>192.44</v>
       </c>
       <c r="L88" s="31">
         <f t="shared" si="28"/>
-        <v>231.42000000000002</v>
+        <v>280.14000000000004</v>
       </c>
       <c r="M88" s="40">
         <f t="shared" si="29"/>
-        <v>158.47999999999999</v>
+        <v>181.12</v>
       </c>
       <c r="N88" s="42">
         <f t="shared" si="30"/>
-        <v>144</v>
+        <v>134.4</v>
       </c>
       <c r="O88" s="15">
         <v>86</v>
       </c>
       <c r="P88" s="33">
         <f t="shared" si="31"/>
-        <v>403.09999999999997</v>
+        <v>444.8</v>
       </c>
       <c r="Q88" s="34">
         <f t="shared" si="32"/>
-        <v>160.16</v>
+        <v>178.64</v>
       </c>
       <c r="R88" s="36">
         <f t="shared" si="33"/>
-        <v>130.4</v>
+        <v>208.64000000000001</v>
       </c>
       <c r="S88" s="38">
         <f t="shared" si="34"/>
@@ -9372,15 +9373,15 @@
       </c>
       <c r="T88" s="31">
         <f t="shared" si="35"/>
-        <v>199.75</v>
+        <v>293.75</v>
       </c>
       <c r="U88" s="40">
         <f t="shared" si="36"/>
-        <v>131.1</v>
+        <v>166.06</v>
       </c>
       <c r="V88" s="42">
         <f t="shared" si="37"/>
-        <v>141.27000000000001</v>
+        <v>132.96</v>
       </c>
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.3">
@@ -9411,46 +9412,46 @@
       </c>
       <c r="H89" s="33">
         <f t="shared" si="24"/>
-        <v>605.9375</v>
+        <v>692.5</v>
       </c>
       <c r="I89" s="34">
         <f t="shared" si="25"/>
-        <v>167.21776689281654</v>
+        <v>209.02220861602066</v>
       </c>
       <c r="J89" s="36">
         <f t="shared" si="26"/>
-        <v>158.16000000000003</v>
+        <v>237.24000000000004</v>
       </c>
       <c r="K89" s="38">
         <f t="shared" si="27"/>
-        <v>148.72</v>
+        <v>194.48</v>
       </c>
       <c r="L89" s="31">
         <f t="shared" si="28"/>
-        <v>233.89000000000001</v>
+        <v>283.13</v>
       </c>
       <c r="M89" s="40">
         <f t="shared" si="29"/>
-        <v>160.16</v>
+        <v>183.04</v>
       </c>
       <c r="N89" s="42">
         <f t="shared" si="30"/>
-        <v>145.5</v>
+        <v>135.80000000000001</v>
       </c>
       <c r="O89" s="15">
         <v>87</v>
       </c>
       <c r="P89" s="33">
         <f t="shared" si="31"/>
-        <v>407.45</v>
+        <v>449.59999999999997</v>
       </c>
       <c r="Q89" s="34">
         <f t="shared" si="32"/>
-        <v>161.72</v>
+        <v>180.38</v>
       </c>
       <c r="R89" s="36">
         <f t="shared" si="33"/>
-        <v>131.80000000000001</v>
+        <v>210.88000000000002</v>
       </c>
       <c r="S89" s="38">
         <f t="shared" si="34"/>
@@ -9458,15 +9459,15 @@
       </c>
       <c r="T89" s="31">
         <f t="shared" si="35"/>
-        <v>201.875</v>
+        <v>296.875</v>
       </c>
       <c r="U89" s="40">
         <f t="shared" si="36"/>
-        <v>132.44999999999999</v>
+        <v>167.77</v>
       </c>
       <c r="V89" s="42">
         <f t="shared" si="37"/>
-        <v>142.715</v>
+        <v>134.32</v>
       </c>
     </row>
     <row r="90" spans="1:22" x14ac:dyDescent="0.3">
@@ -9497,46 +9498,46 @@
       </c>
       <c r="H90" s="33">
         <f t="shared" si="24"/>
-        <v>612.5</v>
+        <v>700</v>
       </c>
       <c r="I90" s="34">
         <f t="shared" si="25"/>
-        <v>171.39821106513696</v>
+        <v>214.24776383142117</v>
       </c>
       <c r="J90" s="36">
         <f t="shared" si="26"/>
-        <v>159.84</v>
+        <v>239.76000000000005</v>
       </c>
       <c r="K90" s="38">
         <f t="shared" si="27"/>
-        <v>150.28</v>
+        <v>196.52</v>
       </c>
       <c r="L90" s="31">
         <f t="shared" si="28"/>
-        <v>236.36</v>
+        <v>286.12</v>
       </c>
       <c r="M90" s="40">
         <f t="shared" si="29"/>
-        <v>161.84</v>
+        <v>184.95999999999998</v>
       </c>
       <c r="N90" s="42">
         <f t="shared" si="30"/>
-        <v>147</v>
+        <v>137.20000000000002</v>
       </c>
       <c r="O90" s="15">
         <v>88</v>
       </c>
       <c r="P90" s="33">
         <f t="shared" si="31"/>
-        <v>411.79999999999995</v>
+        <v>454.4</v>
       </c>
       <c r="Q90" s="34">
         <f t="shared" si="32"/>
-        <v>163.28</v>
+        <v>182.12</v>
       </c>
       <c r="R90" s="36">
         <f t="shared" si="33"/>
-        <v>133.20000000000002</v>
+        <v>213.12</v>
       </c>
       <c r="S90" s="38">
         <f t="shared" si="34"/>
@@ -9544,15 +9545,15 @@
       </c>
       <c r="T90" s="31">
         <f t="shared" si="35"/>
-        <v>204</v>
+        <v>300</v>
       </c>
       <c r="U90" s="40">
         <f t="shared" si="36"/>
-        <v>133.79999999999998</v>
+        <v>169.48</v>
       </c>
       <c r="V90" s="42">
         <f t="shared" si="37"/>
-        <v>144.16000000000003</v>
+        <v>135.68</v>
       </c>
     </row>
     <row r="91" spans="1:22" x14ac:dyDescent="0.3">
@@ -9583,46 +9584,46 @@
       </c>
       <c r="H91" s="33">
         <f t="shared" si="24"/>
-        <v>619.0625</v>
+        <v>707.5</v>
       </c>
       <c r="I91" s="34">
         <f t="shared" si="25"/>
-        <v>175.6831663417654</v>
+        <v>219.60395792720669</v>
       </c>
       <c r="J91" s="36">
         <f t="shared" si="26"/>
-        <v>161.52000000000001</v>
+        <v>242.28000000000003</v>
       </c>
       <c r="K91" s="38">
         <f t="shared" si="27"/>
-        <v>151.84</v>
+        <v>198.56</v>
       </c>
       <c r="L91" s="31">
         <f t="shared" si="28"/>
-        <v>238.83</v>
+        <v>289.11</v>
       </c>
       <c r="M91" s="40">
         <f t="shared" si="29"/>
-        <v>163.51999999999998</v>
+        <v>186.88</v>
       </c>
       <c r="N91" s="42">
         <f t="shared" si="30"/>
-        <v>148.5</v>
+        <v>138.60000000000002</v>
       </c>
       <c r="O91" s="15">
         <v>89</v>
       </c>
       <c r="P91" s="33">
         <f t="shared" si="31"/>
-        <v>416.15</v>
+        <v>459.2</v>
       </c>
       <c r="Q91" s="34">
         <f t="shared" si="32"/>
-        <v>164.84</v>
+        <v>183.85999999999999</v>
       </c>
       <c r="R91" s="36">
         <f t="shared" si="33"/>
-        <v>134.60000000000002</v>
+        <v>215.36</v>
       </c>
       <c r="S91" s="38">
         <f t="shared" si="34"/>
@@ -9630,15 +9631,15 @@
       </c>
       <c r="T91" s="31">
         <f t="shared" si="35"/>
-        <v>206.125</v>
+        <v>303.125</v>
       </c>
       <c r="U91" s="40">
         <f t="shared" si="36"/>
-        <v>135.14999999999998</v>
+        <v>171.19</v>
       </c>
       <c r="V91" s="42">
         <f t="shared" si="37"/>
-        <v>145.60500000000002</v>
+        <v>137.04000000000002</v>
       </c>
     </row>
     <row r="92" spans="1:22" x14ac:dyDescent="0.3">
@@ -9669,46 +9670,46 @@
       </c>
       <c r="H92" s="33">
         <f t="shared" si="24"/>
-        <v>625.625</v>
+        <v>715</v>
       </c>
       <c r="I92" s="34">
         <f t="shared" si="25"/>
-        <v>180.07524550030953</v>
+        <v>225.09405687538685</v>
       </c>
       <c r="J92" s="36">
         <f t="shared" si="26"/>
-        <v>163.20000000000002</v>
+        <v>244.80000000000004</v>
       </c>
       <c r="K92" s="38">
         <f t="shared" si="27"/>
-        <v>153.4</v>
+        <v>200.6</v>
       </c>
       <c r="L92" s="31">
         <f t="shared" si="28"/>
-        <v>241.3</v>
+        <v>292.10000000000002</v>
       </c>
       <c r="M92" s="40">
         <f t="shared" si="29"/>
-        <v>165.2</v>
+        <v>188.79999999999998</v>
       </c>
       <c r="N92" s="42">
         <f t="shared" si="30"/>
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="O92" s="15">
         <v>90</v>
       </c>
       <c r="P92" s="33">
         <f t="shared" si="31"/>
-        <v>420.49999999999994</v>
+        <v>464</v>
       </c>
       <c r="Q92" s="34">
         <f t="shared" si="32"/>
-        <v>166.4</v>
+        <v>185.6</v>
       </c>
       <c r="R92" s="36">
         <f t="shared" si="33"/>
-        <v>136</v>
+        <v>217.60000000000002</v>
       </c>
       <c r="S92" s="38">
         <f t="shared" si="34"/>
@@ -9716,15 +9717,15 @@
       </c>
       <c r="T92" s="31">
         <f t="shared" si="35"/>
-        <v>208.25</v>
+        <v>306.25</v>
       </c>
       <c r="U92" s="40">
         <f t="shared" si="36"/>
-        <v>136.5</v>
+        <v>172.9</v>
       </c>
       <c r="V92" s="42">
         <f t="shared" si="37"/>
-        <v>147.05000000000001</v>
+        <v>138.4</v>
       </c>
     </row>
     <row r="93" spans="1:22" x14ac:dyDescent="0.3">
@@ -9755,46 +9756,46 @@
       </c>
       <c r="H93" s="33">
         <f t="shared" si="24"/>
-        <v>632.1875</v>
+        <v>722.5</v>
       </c>
       <c r="I93" s="34">
         <f t="shared" si="25"/>
-        <v>184.57712663781729</v>
+        <v>230.72140829727152</v>
       </c>
       <c r="J93" s="36">
         <f t="shared" si="26"/>
-        <v>164.88000000000002</v>
+        <v>247.32000000000005</v>
       </c>
       <c r="K93" s="38">
         <f t="shared" si="27"/>
-        <v>154.96</v>
+        <v>202.64000000000001</v>
       </c>
       <c r="L93" s="31">
         <f t="shared" si="28"/>
-        <v>243.77</v>
+        <v>295.09000000000003</v>
       </c>
       <c r="M93" s="40">
         <f t="shared" si="29"/>
-        <v>166.88</v>
+        <v>190.72</v>
       </c>
       <c r="N93" s="42">
         <f t="shared" si="30"/>
-        <v>151.5</v>
+        <v>141.4</v>
       </c>
       <c r="O93" s="15">
         <v>91</v>
       </c>
       <c r="P93" s="33">
         <f t="shared" si="31"/>
-        <v>424.84999999999997</v>
+        <v>468.8</v>
       </c>
       <c r="Q93" s="34">
         <f t="shared" si="32"/>
-        <v>167.96</v>
+        <v>187.34</v>
       </c>
       <c r="R93" s="36">
         <f t="shared" si="33"/>
-        <v>137.4</v>
+        <v>219.84000000000003</v>
       </c>
       <c r="S93" s="38">
         <f t="shared" si="34"/>
@@ -9802,15 +9803,15 @@
       </c>
       <c r="T93" s="31">
         <f t="shared" si="35"/>
-        <v>210.375</v>
+        <v>309.375</v>
       </c>
       <c r="U93" s="40">
         <f t="shared" si="36"/>
-        <v>137.85</v>
+        <v>174.60999999999999</v>
       </c>
       <c r="V93" s="42">
         <f t="shared" si="37"/>
-        <v>148.495</v>
+        <v>139.76</v>
       </c>
     </row>
     <row r="94" spans="1:22" x14ac:dyDescent="0.3">
@@ -9841,46 +9842,46 @@
       </c>
       <c r="H94" s="33">
         <f t="shared" si="24"/>
-        <v>638.75</v>
+        <v>730</v>
       </c>
       <c r="I94" s="34">
         <f t="shared" si="25"/>
-        <v>189.19155480376273</v>
+        <v>236.4894435047033</v>
       </c>
       <c r="J94" s="36">
         <f t="shared" si="26"/>
-        <v>166.56</v>
+        <v>249.84000000000003</v>
       </c>
       <c r="K94" s="38">
         <f t="shared" si="27"/>
-        <v>156.52000000000001</v>
+        <v>204.68</v>
       </c>
       <c r="L94" s="31">
         <f t="shared" si="28"/>
-        <v>246.24</v>
+        <v>298.08000000000004</v>
       </c>
       <c r="M94" s="40">
         <f t="shared" si="29"/>
-        <v>168.56</v>
+        <v>192.64</v>
       </c>
       <c r="N94" s="42">
         <f t="shared" si="30"/>
-        <v>153</v>
+        <v>142.80000000000001</v>
       </c>
       <c r="O94" s="15">
         <v>92</v>
       </c>
       <c r="P94" s="33">
         <f t="shared" si="31"/>
-        <v>429.2</v>
+        <v>473.59999999999997</v>
       </c>
       <c r="Q94" s="34">
         <f t="shared" si="32"/>
-        <v>169.52</v>
+        <v>189.08</v>
       </c>
       <c r="R94" s="36">
         <f t="shared" si="33"/>
-        <v>138.80000000000001</v>
+        <v>222.08</v>
       </c>
       <c r="S94" s="38">
         <f t="shared" si="34"/>
@@ -9888,15 +9889,15 @@
       </c>
       <c r="T94" s="31">
         <f t="shared" si="35"/>
-        <v>212.5</v>
+        <v>312.5</v>
       </c>
       <c r="U94" s="40">
         <f t="shared" si="36"/>
-        <v>139.19999999999999</v>
+        <v>176.32</v>
       </c>
       <c r="V94" s="42">
         <f t="shared" si="37"/>
-        <v>149.94</v>
+        <v>141.12</v>
       </c>
     </row>
     <row r="95" spans="1:22" x14ac:dyDescent="0.3">
@@ -9927,46 +9928,46 @@
       </c>
       <c r="H95" s="33">
         <f t="shared" si="24"/>
-        <v>645.3125</v>
+        <v>737.5</v>
       </c>
       <c r="I95" s="34">
         <f t="shared" si="25"/>
-        <v>193.9213436738568</v>
+        <v>242.40167959232087</v>
       </c>
       <c r="J95" s="36">
         <f t="shared" si="26"/>
-        <v>168.24</v>
+        <v>252.36000000000004</v>
       </c>
       <c r="K95" s="38">
         <f t="shared" si="27"/>
-        <v>158.08000000000001</v>
+        <v>206.72</v>
       </c>
       <c r="L95" s="31">
         <f t="shared" si="28"/>
-        <v>248.71</v>
+        <v>301.07</v>
       </c>
       <c r="M95" s="40">
         <f t="shared" si="29"/>
-        <v>170.23999999999998</v>
+        <v>194.56</v>
       </c>
       <c r="N95" s="42">
         <f t="shared" si="30"/>
-        <v>154.5</v>
+        <v>144.20000000000002</v>
       </c>
       <c r="O95" s="15">
         <v>93</v>
       </c>
       <c r="P95" s="33">
         <f t="shared" si="31"/>
-        <v>433.54999999999995</v>
+        <v>478.4</v>
       </c>
       <c r="Q95" s="34">
         <f t="shared" si="32"/>
-        <v>171.08</v>
+        <v>190.82</v>
       </c>
       <c r="R95" s="36">
         <f t="shared" si="33"/>
-        <v>140.20000000000002</v>
+        <v>224.32000000000002</v>
       </c>
       <c r="S95" s="38">
         <f t="shared" si="34"/>
@@ -9974,15 +9975,15 @@
       </c>
       <c r="T95" s="31">
         <f t="shared" si="35"/>
-        <v>214.625</v>
+        <v>315.625</v>
       </c>
       <c r="U95" s="40">
         <f t="shared" si="36"/>
-        <v>140.54999999999998</v>
+        <v>178.03</v>
       </c>
       <c r="V95" s="42">
         <f t="shared" si="37"/>
-        <v>151.38500000000002</v>
+        <v>142.48000000000002</v>
       </c>
     </row>
     <row r="96" spans="1:22" x14ac:dyDescent="0.3">
@@ -10013,46 +10014,46 @@
       </c>
       <c r="H96" s="33">
         <f t="shared" si="24"/>
-        <v>651.875</v>
+        <v>745</v>
       </c>
       <c r="I96" s="34">
         <f t="shared" si="25"/>
-        <v>198.76937726570321</v>
+        <v>248.46172158212889</v>
       </c>
       <c r="J96" s="36">
         <f t="shared" si="26"/>
-        <v>169.92000000000002</v>
+        <v>254.88000000000005</v>
       </c>
       <c r="K96" s="38">
         <f t="shared" si="27"/>
-        <v>159.64000000000001</v>
+        <v>208.76</v>
       </c>
       <c r="L96" s="31">
         <f t="shared" si="28"/>
-        <v>251.18</v>
+        <v>304.06</v>
       </c>
       <c r="M96" s="40">
         <f t="shared" si="29"/>
-        <v>171.92</v>
+        <v>196.48</v>
       </c>
       <c r="N96" s="42">
         <f t="shared" si="30"/>
-        <v>156</v>
+        <v>145.60000000000002</v>
       </c>
       <c r="O96" s="15">
         <v>94</v>
       </c>
       <c r="P96" s="33">
         <f t="shared" si="31"/>
-        <v>437.9</v>
+        <v>483.2</v>
       </c>
       <c r="Q96" s="34">
         <f t="shared" si="32"/>
-        <v>172.64000000000001</v>
+        <v>192.56</v>
       </c>
       <c r="R96" s="36">
         <f t="shared" si="33"/>
-        <v>141.60000000000002</v>
+        <v>226.56000000000003</v>
       </c>
       <c r="S96" s="38">
         <f t="shared" si="34"/>
@@ -10060,15 +10061,15 @@
       </c>
       <c r="T96" s="31">
         <f t="shared" si="35"/>
-        <v>216.75</v>
+        <v>318.75</v>
       </c>
       <c r="U96" s="40">
         <f t="shared" si="36"/>
-        <v>141.89999999999998</v>
+        <v>179.74</v>
       </c>
       <c r="V96" s="42">
         <f t="shared" si="37"/>
-        <v>152.83000000000001</v>
+        <v>143.84</v>
       </c>
     </row>
     <row r="97" spans="1:22" x14ac:dyDescent="0.3">
@@ -10099,46 +10100,46 @@
       </c>
       <c r="H97" s="33">
         <f t="shared" si="24"/>
-        <v>658.4375</v>
+        <v>752.5</v>
       </c>
       <c r="I97" s="34">
         <f t="shared" si="25"/>
-        <v>203.73861169734579</v>
+        <v>254.67326462168211</v>
       </c>
       <c r="J97" s="36">
         <f t="shared" si="26"/>
-        <v>171.60000000000002</v>
+        <v>257.40000000000003</v>
       </c>
       <c r="K97" s="38">
         <f t="shared" si="27"/>
-        <v>161.20000000000002</v>
+        <v>210.8</v>
       </c>
       <c r="L97" s="31">
         <f t="shared" si="28"/>
-        <v>253.65</v>
+        <v>307.05</v>
       </c>
       <c r="M97" s="40">
         <f t="shared" si="29"/>
-        <v>173.6</v>
+        <v>198.4</v>
       </c>
       <c r="N97" s="42">
         <f t="shared" si="30"/>
-        <v>157.5</v>
+        <v>147</v>
       </c>
       <c r="O97" s="15">
         <v>95</v>
       </c>
       <c r="P97" s="33">
         <f t="shared" si="31"/>
-        <v>442.24999999999994</v>
+        <v>488</v>
       </c>
       <c r="Q97" s="34">
         <f t="shared" si="32"/>
-        <v>174.20000000000002</v>
+        <v>194.3</v>
       </c>
       <c r="R97" s="36">
         <f t="shared" si="33"/>
-        <v>143</v>
+        <v>228.8</v>
       </c>
       <c r="S97" s="38">
         <f t="shared" si="34"/>
@@ -10146,15 +10147,15 @@
       </c>
       <c r="T97" s="31">
         <f t="shared" si="35"/>
-        <v>218.875</v>
+        <v>321.875</v>
       </c>
       <c r="U97" s="40">
         <f t="shared" si="36"/>
-        <v>143.25</v>
+        <v>181.45</v>
       </c>
       <c r="V97" s="42">
         <f t="shared" si="37"/>
-        <v>154.27500000000001</v>
+        <v>145.20000000000002</v>
       </c>
     </row>
     <row r="98" spans="1:22" x14ac:dyDescent="0.3">
@@ -10185,46 +10186,46 @@
       </c>
       <c r="H98" s="33">
         <f t="shared" si="24"/>
-        <v>665</v>
+        <v>760</v>
       </c>
       <c r="I98" s="34">
         <f t="shared" si="25"/>
-        <v>208.83207698977944</v>
+        <v>261.04009623722413</v>
       </c>
       <c r="J98" s="36">
         <f t="shared" si="26"/>
-        <v>173.28000000000003</v>
+        <v>259.92000000000007</v>
       </c>
       <c r="K98" s="38">
         <f t="shared" si="27"/>
-        <v>162.76</v>
+        <v>212.84</v>
       </c>
       <c r="L98" s="31">
         <f t="shared" si="28"/>
-        <v>256.12</v>
+        <v>310.04000000000002</v>
       </c>
       <c r="M98" s="40">
         <f t="shared" si="29"/>
-        <v>175.28</v>
+        <v>200.32</v>
       </c>
       <c r="N98" s="42">
         <f t="shared" si="30"/>
-        <v>159</v>
+        <v>148.4</v>
       </c>
       <c r="O98" s="15">
         <v>96</v>
       </c>
       <c r="P98" s="33">
         <f t="shared" si="31"/>
-        <v>446.59999999999997</v>
+        <v>492.79999999999995</v>
       </c>
       <c r="Q98" s="34">
         <f t="shared" si="32"/>
-        <v>175.76</v>
+        <v>196.04</v>
       </c>
       <c r="R98" s="36">
         <f t="shared" si="33"/>
-        <v>144.4</v>
+        <v>231.04000000000002</v>
       </c>
       <c r="S98" s="38">
         <f t="shared" si="34"/>
@@ -10232,15 +10233,15 @@
       </c>
       <c r="T98" s="31">
         <f t="shared" si="35"/>
-        <v>221</v>
+        <v>325</v>
       </c>
       <c r="U98" s="40">
         <f t="shared" si="36"/>
-        <v>144.6</v>
+        <v>183.16</v>
       </c>
       <c r="V98" s="42">
         <f t="shared" si="37"/>
-        <v>155.72</v>
+        <v>146.56</v>
       </c>
     </row>
     <row r="99" spans="1:22" x14ac:dyDescent="0.3">
@@ -10271,46 +10272,46 @@
       </c>
       <c r="H99" s="33">
         <f t="shared" si="24"/>
-        <v>671.5625</v>
+        <v>767.5</v>
       </c>
       <c r="I99" s="34">
         <f t="shared" si="25"/>
-        <v>214.05287891452392</v>
+        <v>267.56609864315476</v>
       </c>
       <c r="J99" s="36">
         <f t="shared" si="26"/>
-        <v>174.96</v>
+        <v>262.44000000000005</v>
       </c>
       <c r="K99" s="38">
         <f t="shared" si="27"/>
-        <v>164.32</v>
+        <v>214.88</v>
       </c>
       <c r="L99" s="31">
         <f t="shared" si="28"/>
-        <v>258.59000000000003</v>
+        <v>313.03000000000003</v>
       </c>
       <c r="M99" s="40">
         <f t="shared" si="29"/>
-        <v>176.96</v>
+        <v>202.23999999999998</v>
       </c>
       <c r="N99" s="42">
         <f t="shared" si="30"/>
-        <v>160.5</v>
+        <v>149.80000000000001</v>
       </c>
       <c r="O99" s="15">
         <v>97</v>
       </c>
       <c r="P99" s="33">
         <f t="shared" si="31"/>
-        <v>450.95</v>
+        <v>497.59999999999997</v>
       </c>
       <c r="Q99" s="34">
         <f t="shared" si="32"/>
-        <v>177.32</v>
+        <v>197.78</v>
       </c>
       <c r="R99" s="36">
         <f t="shared" si="33"/>
-        <v>145.80000000000001</v>
+        <v>233.28000000000003</v>
       </c>
       <c r="S99" s="38">
         <f t="shared" si="34"/>
@@ -10318,15 +10319,15 @@
       </c>
       <c r="T99" s="31">
         <f t="shared" si="35"/>
-        <v>223.125</v>
+        <v>328.125</v>
       </c>
       <c r="U99" s="40">
         <f t="shared" si="36"/>
-        <v>145.94999999999999</v>
+        <v>184.87</v>
       </c>
       <c r="V99" s="42">
         <f t="shared" si="37"/>
-        <v>157.16499999999999</v>
+        <v>147.92000000000002</v>
       </c>
     </row>
     <row r="100" spans="1:22" x14ac:dyDescent="0.3">
@@ -10357,46 +10358,46 @@
       </c>
       <c r="H100" s="33">
         <f t="shared" si="24"/>
-        <v>678.125</v>
+        <v>775</v>
       </c>
       <c r="I100" s="34">
         <f t="shared" si="25"/>
-        <v>219.40420088738702</v>
+        <v>274.25525110923365</v>
       </c>
       <c r="J100" s="36">
         <f t="shared" si="26"/>
-        <v>176.64000000000001</v>
+        <v>264.96000000000004</v>
       </c>
       <c r="K100" s="38">
         <f t="shared" si="27"/>
-        <v>165.88</v>
+        <v>216.92000000000002</v>
       </c>
       <c r="L100" s="31">
         <f t="shared" si="28"/>
-        <v>261.06000000000006</v>
+        <v>316.02000000000004</v>
       </c>
       <c r="M100" s="40">
         <f t="shared" si="29"/>
-        <v>178.64</v>
+        <v>204.16</v>
       </c>
       <c r="N100" s="42">
         <f t="shared" si="30"/>
-        <v>162</v>
+        <v>151.20000000000002</v>
       </c>
       <c r="O100" s="15">
         <v>98</v>
       </c>
       <c r="P100" s="33">
         <f t="shared" si="31"/>
-        <v>455.29999999999995</v>
+        <v>502.4</v>
       </c>
       <c r="Q100" s="34">
         <f t="shared" si="32"/>
-        <v>178.88</v>
+        <v>199.52</v>
       </c>
       <c r="R100" s="36">
         <f t="shared" si="33"/>
-        <v>147.20000000000002</v>
+        <v>235.52</v>
       </c>
       <c r="S100" s="38">
         <f t="shared" si="34"/>
@@ -10404,15 +10405,15 @@
       </c>
       <c r="T100" s="31">
         <f t="shared" si="35"/>
-        <v>225.25</v>
+        <v>331.25</v>
       </c>
       <c r="U100" s="40">
         <f t="shared" si="36"/>
-        <v>147.29999999999998</v>
+        <v>186.57999999999998</v>
       </c>
       <c r="V100" s="42">
         <f t="shared" si="37"/>
-        <v>158.61000000000001</v>
+        <v>149.28</v>
       </c>
     </row>
     <row r="101" spans="1:22" x14ac:dyDescent="0.3">
@@ -10443,46 +10444,46 @@
       </c>
       <c r="H101" s="33">
         <f t="shared" si="24"/>
-        <v>684.6875</v>
+        <v>782.5</v>
       </c>
       <c r="I101" s="34">
         <f t="shared" si="25"/>
-        <v>224.8893059095717</v>
+        <v>281.11163238696452</v>
       </c>
       <c r="J101" s="36">
         <f t="shared" si="26"/>
-        <v>178.32000000000002</v>
+        <v>267.48</v>
       </c>
       <c r="K101" s="38">
         <f t="shared" si="27"/>
-        <v>167.44</v>
+        <v>218.96</v>
       </c>
       <c r="L101" s="31">
         <f t="shared" si="28"/>
-        <v>263.53000000000003</v>
+        <v>319.01000000000005</v>
       </c>
       <c r="M101" s="40">
         <f t="shared" si="29"/>
-        <v>180.32</v>
+        <v>206.07999999999998</v>
       </c>
       <c r="N101" s="42">
         <f t="shared" si="30"/>
-        <v>163.5</v>
+        <v>152.60000000000002</v>
       </c>
       <c r="O101" s="15">
         <v>99</v>
       </c>
       <c r="P101" s="33">
         <f t="shared" si="31"/>
-        <v>459.65</v>
+        <v>507.2</v>
       </c>
       <c r="Q101" s="34">
         <f t="shared" si="32"/>
-        <v>180.44</v>
+        <v>201.26</v>
       </c>
       <c r="R101" s="36">
         <f t="shared" si="33"/>
-        <v>148.60000000000002</v>
+        <v>237.76000000000002</v>
       </c>
       <c r="S101" s="38">
         <f t="shared" si="34"/>
@@ -10490,15 +10491,15 @@
       </c>
       <c r="T101" s="31">
         <f t="shared" si="35"/>
-        <v>227.375</v>
+        <v>334.375</v>
       </c>
       <c r="U101" s="40">
         <f t="shared" si="36"/>
-        <v>148.64999999999998</v>
+        <v>188.29</v>
       </c>
       <c r="V101" s="42">
         <f t="shared" si="37"/>
-        <v>160.05500000000001</v>
+        <v>150.64000000000001</v>
       </c>
     </row>
     <row r="102" spans="1:22" x14ac:dyDescent="0.3">
@@ -10527,46 +10528,46 @@
       </c>
       <c r="H102" s="33">
         <f t="shared" si="24"/>
-        <v>691.25</v>
+        <v>790</v>
       </c>
       <c r="I102" s="34">
         <f t="shared" si="25"/>
-        <v>230.51153855731098</v>
+        <v>288.13942319663863</v>
       </c>
       <c r="J102" s="36">
         <f t="shared" si="26"/>
-        <v>180.00000000000003</v>
+        <v>270.00000000000006</v>
       </c>
       <c r="K102" s="38">
         <f t="shared" si="27"/>
-        <v>169</v>
+        <v>221</v>
       </c>
       <c r="L102" s="31">
         <f t="shared" si="28"/>
-        <v>266</v>
+        <v>322</v>
       </c>
       <c r="M102" s="40">
         <f t="shared" si="29"/>
-        <v>182</v>
+        <v>208</v>
       </c>
       <c r="N102" s="42">
         <f t="shared" si="30"/>
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="O102" s="15">
         <v>100</v>
       </c>
       <c r="P102" s="33">
         <f t="shared" si="31"/>
-        <v>463.99999999999994</v>
+        <v>512</v>
       </c>
       <c r="Q102" s="34">
         <f t="shared" si="32"/>
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="R102" s="36">
         <f t="shared" si="33"/>
-        <v>150</v>
+        <v>240.00000000000003</v>
       </c>
       <c r="S102" s="38">
         <f t="shared" si="34"/>
@@ -10574,15 +10575,15 @@
       </c>
       <c r="T102" s="31">
         <f t="shared" si="35"/>
-        <v>229.5</v>
+        <v>337.5</v>
       </c>
       <c r="U102" s="40">
         <f t="shared" si="36"/>
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="V102" s="42">
         <f t="shared" si="37"/>
-        <v>161.5</v>
+        <v>152</v>
       </c>
     </row>
     <row r="103" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -10699,7 +10700,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D27" sqref="D27"/>
+      <selection pane="bottomRight" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -12174,7 +12175,7 @@
   <dimension ref="A1:Y33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18:L32"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -14139,53 +14140,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="66" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="66" t="s">
         <v>107</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="66" t="s">
         <v>108</v>
       </c>
-      <c r="D1" s="59" t="s">
+      <c r="D1" s="64" t="s">
         <v>285</v>
       </c>
-      <c r="E1" s="58" t="s">
+      <c r="E1" s="66" t="s">
         <v>109</v>
       </c>
-      <c r="F1" s="58" t="s">
+      <c r="F1" s="66" t="s">
         <v>110</v>
       </c>
-      <c r="G1" s="62" t="s">
+      <c r="G1" s="58" t="s">
         <v>118</v>
       </c>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="63" t="s">
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="64" t="s">
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="60" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="58"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
       <c r="G2" s="25" t="s">
         <v>111</v>
       </c>
@@ -14228,7 +14229,7 @@
       <c r="T2" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="U2" s="64"/>
+      <c r="U2" s="60"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
@@ -17481,22 +17482,22 @@
       </c>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A53" s="61" t="s">
+      <c r="A53" s="63" t="s">
         <v>106</v>
       </c>
-      <c r="B53" s="61" t="s">
+      <c r="B53" s="63" t="s">
         <v>107</v>
       </c>
-      <c r="C53" s="61" t="s">
+      <c r="C53" s="63" t="s">
         <v>108</v>
       </c>
-      <c r="D53" s="59" t="s">
+      <c r="D53" s="64" t="s">
         <v>285</v>
       </c>
-      <c r="E53" s="61" t="s">
+      <c r="E53" s="63" t="s">
         <v>109</v>
       </c>
-      <c r="F53" s="61" t="s">
+      <c r="F53" s="63" t="s">
         <v>110</v>
       </c>
       <c r="G53" s="25" t="s">
@@ -17541,36 +17542,36 @@
       <c r="T53" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="U53" s="65" t="s">
+      <c r="U53" s="61" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A54" s="61"/>
-      <c r="B54" s="61"/>
-      <c r="C54" s="61"/>
-      <c r="D54" s="60"/>
-      <c r="E54" s="61"/>
-      <c r="F54" s="61"/>
-      <c r="G54" s="62" t="s">
+      <c r="A54" s="63"/>
+      <c r="B54" s="63"/>
+      <c r="C54" s="63"/>
+      <c r="D54" s="65"/>
+      <c r="E54" s="63"/>
+      <c r="F54" s="63"/>
+      <c r="G54" s="58" t="s">
         <v>118</v>
       </c>
-      <c r="H54" s="62"/>
-      <c r="I54" s="62"/>
-      <c r="J54" s="62"/>
-      <c r="K54" s="62"/>
-      <c r="L54" s="62"/>
-      <c r="M54" s="62"/>
-      <c r="N54" s="63" t="s">
+      <c r="H54" s="58"/>
+      <c r="I54" s="58"/>
+      <c r="J54" s="58"/>
+      <c r="K54" s="58"/>
+      <c r="L54" s="58"/>
+      <c r="M54" s="58"/>
+      <c r="N54" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="O54" s="63"/>
-      <c r="P54" s="63"/>
-      <c r="Q54" s="63"/>
-      <c r="R54" s="63"/>
-      <c r="S54" s="63"/>
-      <c r="T54" s="63"/>
-      <c r="U54" s="66"/>
+      <c r="O54" s="59"/>
+      <c r="P54" s="59"/>
+      <c r="Q54" s="59"/>
+      <c r="R54" s="59"/>
+      <c r="S54" s="59"/>
+      <c r="T54" s="59"/>
+      <c r="U54" s="62"/>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" s="28"/>
@@ -17706,24 +17707,24 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="D53:D54"/>
     <mergeCell ref="G54:M54"/>
     <mergeCell ref="N54:T54"/>
     <mergeCell ref="U1:U2"/>
     <mergeCell ref="U53:U54"/>
     <mergeCell ref="G1:M1"/>
     <mergeCell ref="N1:T1"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="D1:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -18190,4 +18191,83 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>27</v>
+      </c>
+      <c r="B7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>35</v>
+      </c>
+      <c r="B8">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>